--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>6.7572922706604</v>
+        <v>0.9552290439605713</v>
       </c>
       <c r="D2" t="n">
-        <v>89.075</v>
+        <v>84.02</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5180857181549072</v>
+        <v>0.2141249179840088</v>
       </c>
       <c r="D3" t="n">
-        <v>39.201</v>
+        <v>38.991</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>9.327870845794678</v>
+        <v>1.249463796615601</v>
       </c>
       <c r="D4" t="n">
-        <v>1850.702</v>
+        <v>124.622</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7447798252105713</v>
+        <v>0.4011049270629883</v>
       </c>
       <c r="D5" t="n">
-        <v>77.092</v>
+        <v>88.65900000000001</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6477112770080566</v>
+        <v>0.3084449768066406</v>
       </c>
       <c r="D6" t="n">
-        <v>6.203</v>
+        <v>6.017</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.642195463180542</v>
+        <v>0.1787829399108887</v>
       </c>
       <c r="D7" t="n">
-        <v>8.496</v>
+        <v>6.017</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5375640392303467</v>
+        <v>0.2351679801940918</v>
       </c>
       <c r="D8" t="n">
-        <v>6.245</v>
+        <v>6.059</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5360002517700195</v>
+        <v>0.2315452098846436</v>
       </c>
       <c r="D9" t="n">
-        <v>6.713</v>
+        <v>6.059</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6567938327789307</v>
+        <v>0.1913321018218994</v>
       </c>
       <c r="D10" t="n">
-        <v>8.182</v>
+        <v>7.972</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6456327438354492</v>
+        <v>0.1875576972961426</v>
       </c>
       <c r="D11" t="n">
-        <v>8.33</v>
+        <v>11.609</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5292842388153076</v>
+        <v>0.2387080192565918</v>
       </c>
       <c r="D12" t="n">
-        <v>8.224</v>
+        <v>10.307</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5152215957641602</v>
+        <v>0.2389688491821289</v>
       </c>
       <c r="D13" t="n">
-        <v>8.224</v>
+        <v>8.481999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5226399898529053</v>
+        <v>0.1888337135314941</v>
       </c>
       <c r="D14" t="n">
-        <v>64.608</v>
+        <v>201.897</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5607898235321045</v>
+        <v>0.205280065536499</v>
       </c>
       <c r="D15" t="n">
-        <v>523.016</v>
+        <v>522.954</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9796631336212158</v>
+        <v>0.5307791233062744</v>
       </c>
       <c r="D16" t="n">
-        <v>65.3</v>
+        <v>65.334</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.17216944694519</v>
+        <v>0.6413018703460693</v>
       </c>
       <c r="D17" t="n">
-        <v>522.878</v>
+        <v>528.609</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7407495975494385</v>
+        <v>0.1999771595001221</v>
       </c>
       <c r="D18" t="n">
-        <v>6.401</v>
+        <v>6.215</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7340519428253174</v>
+        <v>0.2328498363494873</v>
       </c>
       <c r="D19" t="n">
-        <v>6.401</v>
+        <v>6.215</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5786619186401367</v>
+        <v>0.2479281425476074</v>
       </c>
       <c r="D20" t="n">
-        <v>6.263</v>
+        <v>6.077</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5457518100738525</v>
+        <v>0.2545340061187744</v>
       </c>
       <c r="D21" t="n">
-        <v>6.263</v>
+        <v>6.077</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6614730358123779</v>
+        <v>0.2219791412353516</v>
       </c>
       <c r="D22" t="n">
-        <v>8.380000000000001</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7878806591033936</v>
+        <v>0.301379919052124</v>
       </c>
       <c r="D23" t="n">
-        <v>8.380000000000001</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5720486640930176</v>
+        <v>0.2526941299438477</v>
       </c>
       <c r="D24" t="n">
-        <v>8.242000000000001</v>
+        <v>8.032</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5611231327056885</v>
+        <v>0.2814657688140869</v>
       </c>
       <c r="D25" t="n">
-        <v>8.242000000000001</v>
+        <v>8.032</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9552290439605713</v>
+        <v>0.8308398723602295</v>
       </c>
       <c r="D2" t="n">
-        <v>84.02</v>
+        <v>220.362</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2141249179840088</v>
+        <v>0.9936878681182861</v>
       </c>
       <c r="D3" t="n">
-        <v>38.991</v>
+        <v>224.922</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.249463796615601</v>
+        <v>1.791141748428345</v>
       </c>
       <c r="D4" t="n">
-        <v>124.622</v>
+        <v>231.252</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4011049270629883</v>
+        <v>1.841737031936646</v>
       </c>
       <c r="D5" t="n">
-        <v>88.65900000000001</v>
+        <v>269.693</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3084449768066406</v>
+        <v>0.9020731449127197</v>
       </c>
       <c r="D6" t="n">
-        <v>6.017</v>
+        <v>211.201</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1787829399108887</v>
+        <v>0.8375580310821533</v>
       </c>
       <c r="D7" t="n">
-        <v>6.017</v>
+        <v>224.542</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2351679801940918</v>
+        <v>2.100821018218994</v>
       </c>
       <c r="D8" t="n">
-        <v>6.059</v>
+        <v>244.12</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2315452098846436</v>
+        <v>1.698112010955811</v>
       </c>
       <c r="D9" t="n">
-        <v>6.059</v>
+        <v>246.369</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1913321018218994</v>
+        <v>0.8484601974487305</v>
       </c>
       <c r="D10" t="n">
-        <v>7.972</v>
+        <v>214.731</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1875576972961426</v>
+        <v>0.9670858383178711</v>
       </c>
       <c r="D11" t="n">
-        <v>11.609</v>
+        <v>205.128</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2387080192565918</v>
+        <v>2.009918928146362</v>
       </c>
       <c r="D12" t="n">
-        <v>10.307</v>
+        <v>234.75</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2389688491821289</v>
+        <v>1.614361763000488</v>
       </c>
       <c r="D13" t="n">
-        <v>8.481999999999999</v>
+        <v>254.008</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1888337135314941</v>
+        <v>0.8212268352508545</v>
       </c>
       <c r="D14" t="n">
-        <v>201.897</v>
+        <v>345.789</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.205280065536499</v>
+        <v>0.8351128101348877</v>
       </c>
       <c r="D15" t="n">
-        <v>522.954</v>
+        <v>804.197</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5307791233062744</v>
+        <v>1.794839859008789</v>
       </c>
       <c r="D16" t="n">
-        <v>65.334</v>
+        <v>238.803</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6413018703460693</v>
+        <v>1.839936971664429</v>
       </c>
       <c r="D17" t="n">
-        <v>528.609</v>
+        <v>856.615</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1999771595001221</v>
+        <v>0.8804528713226318</v>
       </c>
       <c r="D18" t="n">
-        <v>6.215</v>
+        <v>343.834</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2328498363494873</v>
+        <v>0.8718879222869873</v>
       </c>
       <c r="D19" t="n">
-        <v>6.215</v>
+        <v>802.242</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2479281425476074</v>
+        <v>1.849399089813232</v>
       </c>
       <c r="D20" t="n">
-        <v>6.077</v>
+        <v>236.848</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2545340061187744</v>
+        <v>2.160834074020386</v>
       </c>
       <c r="D21" t="n">
-        <v>6.077</v>
+        <v>833.2910000000001</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2219791412353516</v>
+        <v>0.8183448314666748</v>
       </c>
       <c r="D22" t="n">
-        <v>8.17</v>
+        <v>344.214</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.301379919052124</v>
+        <v>0.8595819473266602</v>
       </c>
       <c r="D23" t="n">
-        <v>8.17</v>
+        <v>782.828</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2526941299438477</v>
+        <v>1.708431243896484</v>
       </c>
       <c r="D24" t="n">
-        <v>8.032</v>
+        <v>254.541</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2814657688140869</v>
+        <v>1.675492763519287</v>
       </c>
       <c r="D25" t="n">
-        <v>8.032</v>
+        <v>703.378</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308398723602295</v>
+        <v>0.9926068782806396</v>
       </c>
       <c r="D2" t="n">
-        <v>220.362</v>
+        <v>251.601</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9936878681182861</v>
+        <v>0.8112308979034424</v>
       </c>
       <c r="D3" t="n">
-        <v>224.922</v>
+        <v>254.159</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.791141748428345</v>
+        <v>1.291954040527344</v>
       </c>
       <c r="D4" t="n">
-        <v>231.252</v>
+        <v>258.964</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.841737031936646</v>
+        <v>1.322679996490479</v>
       </c>
       <c r="D5" t="n">
-        <v>269.693</v>
+        <v>251.947</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9020731449127197</v>
+        <v>0.8128030300140381</v>
       </c>
       <c r="D6" t="n">
-        <v>211.201</v>
+        <v>242.519</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8375580310821533</v>
+        <v>0.8217370510101318</v>
       </c>
       <c r="D7" t="n">
-        <v>224.542</v>
+        <v>250.708</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>2.100821018218994</v>
+        <v>1.499013185501099</v>
       </c>
       <c r="D8" t="n">
-        <v>244.12</v>
+        <v>226.427</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.698112010955811</v>
+        <v>1.267993927001953</v>
       </c>
       <c r="D9" t="n">
-        <v>246.369</v>
+        <v>313.774</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8484601974487305</v>
+        <v>0.8696050643920898</v>
       </c>
       <c r="D10" t="n">
-        <v>214.731</v>
+        <v>247.467</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9670858383178711</v>
+        <v>0.9511570930480957</v>
       </c>
       <c r="D11" t="n">
-        <v>205.128</v>
+        <v>254.159</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.009918928146362</v>
+        <v>1.171137094497681</v>
       </c>
       <c r="D12" t="n">
-        <v>234.75</v>
+        <v>295.156</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.614361763000488</v>
+        <v>1.472486972808838</v>
       </c>
       <c r="D13" t="n">
-        <v>254.008</v>
+        <v>230.578</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8212268352508545</v>
+        <v>0.9769680500030518</v>
       </c>
       <c r="D14" t="n">
-        <v>345.789</v>
+        <v>382.32</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8351128101348877</v>
+        <v>0.9574940204620361</v>
       </c>
       <c r="D15" t="n">
-        <v>804.197</v>
+        <v>1420.279</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.794839859008789</v>
+        <v>1.093575239181519</v>
       </c>
       <c r="D16" t="n">
-        <v>238.803</v>
+        <v>213.996</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.839936971664429</v>
+        <v>1.601775169372559</v>
       </c>
       <c r="D17" t="n">
-        <v>856.615</v>
+        <v>1333.099</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8804528713226318</v>
+        <v>0.8816840648651123</v>
       </c>
       <c r="D18" t="n">
-        <v>343.834</v>
+        <v>385.997</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8718879222869873</v>
+        <v>0.9711198806762695</v>
       </c>
       <c r="D19" t="n">
-        <v>802.242</v>
+        <v>1409.7</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.849399089813232</v>
+        <v>1.342761993408203</v>
       </c>
       <c r="D20" t="n">
-        <v>236.848</v>
+        <v>226.283</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>2.160834074020386</v>
+        <v>1.444347858428955</v>
       </c>
       <c r="D21" t="n">
-        <v>833.2910000000001</v>
+        <v>1445.796</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8183448314666748</v>
+        <v>0.9775118827819824</v>
       </c>
       <c r="D22" t="n">
-        <v>344.214</v>
+        <v>387.951</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8595819473266602</v>
+        <v>0.8426768779754639</v>
       </c>
       <c r="D23" t="n">
-        <v>782.828</v>
+        <v>1414.648</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.708431243896484</v>
+        <v>1.321202993392944</v>
       </c>
       <c r="D24" t="n">
-        <v>254.541</v>
+        <v>270.082</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.675492763519287</v>
+        <v>1.774719953536987</v>
       </c>
       <c r="D25" t="n">
-        <v>703.378</v>
+        <v>1330.934</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308398723602295</v>
+        <v>0.9827582836151123</v>
       </c>
       <c r="D2" t="n">
-        <v>220.362</v>
+        <v>214.652</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9936878681182861</v>
+        <v>0.8980381488800049</v>
       </c>
       <c r="D3" t="n">
-        <v>224.922</v>
+        <v>222.284</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.791141748428345</v>
+        <v>1.782608032226562</v>
       </c>
       <c r="D4" t="n">
-        <v>231.252</v>
+        <v>259.734</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.841737031936646</v>
+        <v>1.456379890441895</v>
       </c>
       <c r="D5" t="n">
-        <v>269.693</v>
+        <v>269.01</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9020731449127197</v>
+        <v>0.8883640766143799</v>
       </c>
       <c r="D6" t="n">
-        <v>211.201</v>
+        <v>218.329</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8375580310821533</v>
+        <v>0.8252439498901367</v>
       </c>
       <c r="D7" t="n">
-        <v>224.542</v>
+        <v>218.833</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>2.100821018218994</v>
+        <v>1.998396158218384</v>
       </c>
       <c r="D8" t="n">
-        <v>244.12</v>
+        <v>256.283</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.698112010955811</v>
+        <v>1.571725130081177</v>
       </c>
       <c r="D9" t="n">
-        <v>246.369</v>
+        <v>267.724</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8484601974487305</v>
+        <v>1.052602052688599</v>
       </c>
       <c r="D10" t="n">
-        <v>214.731</v>
+        <v>220.283</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9670858383178711</v>
+        <v>0.9806890487670898</v>
       </c>
       <c r="D11" t="n">
-        <v>205.128</v>
+        <v>220.787</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.009918928146362</v>
+        <v>1.722965002059937</v>
       </c>
       <c r="D12" t="n">
-        <v>234.75</v>
+        <v>254.103</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.614361763000488</v>
+        <v>1.865984916687012</v>
       </c>
       <c r="D13" t="n">
-        <v>254.008</v>
+        <v>269.01</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8212268352508545</v>
+        <v>0.9597272872924805</v>
       </c>
       <c r="D14" t="n">
-        <v>345.789</v>
+        <v>341.576</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8351128101348877</v>
+        <v>0.8903870582580566</v>
       </c>
       <c r="D15" t="n">
-        <v>804.197</v>
+        <v>798.487</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.794839859008789</v>
+        <v>1.742003917694092</v>
       </c>
       <c r="D16" t="n">
-        <v>238.803</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.839936971664429</v>
+        <v>1.893430948257446</v>
       </c>
       <c r="D17" t="n">
-        <v>856.615</v>
+        <v>726.229</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8804528713226318</v>
+        <v>0.8320896625518799</v>
       </c>
       <c r="D18" t="n">
-        <v>343.834</v>
+        <v>316.756</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8718879222869873</v>
+        <v>0.927711009979248</v>
       </c>
       <c r="D19" t="n">
-        <v>802.242</v>
+        <v>773.667</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.849399089813232</v>
+        <v>1.661992073059082</v>
       </c>
       <c r="D20" t="n">
-        <v>236.848</v>
+        <v>258.203</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>2.160834074020386</v>
+        <v>1.750991106033325</v>
       </c>
       <c r="D21" t="n">
-        <v>833.2910000000001</v>
+        <v>854.646</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8183448314666748</v>
+        <v>1.070399045944214</v>
       </c>
       <c r="D22" t="n">
-        <v>344.214</v>
+        <v>345.71</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8595819473266602</v>
+        <v>0.9542050361633301</v>
       </c>
       <c r="D23" t="n">
-        <v>782.828</v>
+        <v>782.749</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.708431243896484</v>
+        <v>1.853147029876709</v>
       </c>
       <c r="D24" t="n">
-        <v>254.541</v>
+        <v>261.654</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.675492763519287</v>
+        <v>1.950541734695435</v>
       </c>
       <c r="D25" t="n">
-        <v>703.378</v>
+        <v>720.598</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308398723602295</v>
+        <v>0.8573160171508789</v>
       </c>
       <c r="D2" t="n">
-        <v>220.362</v>
+        <v>216.881</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9936878681182861</v>
+        <v>0.9931387901306152</v>
       </c>
       <c r="D3" t="n">
-        <v>224.922</v>
+        <v>231.608</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.791141748428345</v>
+        <v>1.237773895263672</v>
       </c>
       <c r="D4" t="n">
-        <v>231.252</v>
+        <v>198.63</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.841737031936646</v>
+        <v>1.515414953231812</v>
       </c>
       <c r="D5" t="n">
-        <v>269.693</v>
+        <v>294.863</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9020731449127197</v>
+        <v>0.8228950500488281</v>
       </c>
       <c r="D6" t="n">
-        <v>211.201</v>
+        <v>193.557</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8375580310821533</v>
+        <v>0.8127758502960205</v>
       </c>
       <c r="D7" t="n">
-        <v>224.542</v>
+        <v>229.653</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>2.100821018218994</v>
+        <v>1.187236070632935</v>
       </c>
       <c r="D8" t="n">
-        <v>244.12</v>
+        <v>191.044</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.698112010955811</v>
+        <v>1.265604257583618</v>
       </c>
       <c r="D9" t="n">
-        <v>246.369</v>
+        <v>221.999</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8484601974487305</v>
+        <v>0.9614100456237793</v>
       </c>
       <c r="D10" t="n">
-        <v>214.731</v>
+        <v>195.512</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9670858383178711</v>
+        <v>0.9423961639404297</v>
       </c>
       <c r="D11" t="n">
-        <v>205.128</v>
+        <v>215.87</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.009918928146362</v>
+        <v>1.281926155090332</v>
       </c>
       <c r="D12" t="n">
-        <v>234.75</v>
+        <v>254.716</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.614361763000488</v>
+        <v>1.301829099655151</v>
       </c>
       <c r="D13" t="n">
-        <v>254.008</v>
+        <v>285.671</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8212268352508545</v>
+        <v>0.8497600555419922</v>
       </c>
       <c r="D14" t="n">
-        <v>345.789</v>
+        <v>338.301</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8351128101348877</v>
+        <v>0.897629976272583</v>
       </c>
       <c r="D15" t="n">
-        <v>804.197</v>
+        <v>746.873</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.794839859008789</v>
+        <v>1.515411853790283</v>
       </c>
       <c r="D16" t="n">
-        <v>238.803</v>
+        <v>173.444</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.839936971664429</v>
+        <v>1.598040103912354</v>
       </c>
       <c r="D17" t="n">
-        <v>856.615</v>
+        <v>789.268</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8804528713226318</v>
+        <v>1.02830696105957</v>
       </c>
       <c r="D18" t="n">
-        <v>343.834</v>
+        <v>334.849</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8718879222869873</v>
+        <v>1.021487236022949</v>
       </c>
       <c r="D19" t="n">
-        <v>802.242</v>
+        <v>743.421</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.849399089813232</v>
+        <v>1.299341201782227</v>
       </c>
       <c r="D20" t="n">
-        <v>236.848</v>
+        <v>233.206</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>2.160834074020386</v>
+        <v>1.447749853134155</v>
       </c>
       <c r="D21" t="n">
-        <v>833.2910000000001</v>
+        <v>800.886</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8183448314666748</v>
+        <v>1.061105012893677</v>
       </c>
       <c r="D22" t="n">
-        <v>344.214</v>
+        <v>342.435</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8595819473266602</v>
+        <v>0.8801698684692383</v>
       </c>
       <c r="D23" t="n">
-        <v>782.828</v>
+        <v>746.873</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.708431243896484</v>
+        <v>1.321751832962036</v>
       </c>
       <c r="D24" t="n">
-        <v>254.541</v>
+        <v>250.899</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.675492763519287</v>
+        <v>1.353214979171753</v>
       </c>
       <c r="D25" t="n">
-        <v>703.378</v>
+        <v>665.342</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9827582836151123</v>
+        <v>0.9679319858551025</v>
       </c>
       <c r="D2" t="n">
-        <v>214.652</v>
+        <v>192.874</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8980381488800049</v>
+        <v>1.017293930053711</v>
       </c>
       <c r="D3" t="n">
-        <v>222.284</v>
+        <v>217.366</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.782608032226562</v>
+        <v>1.496531009674072</v>
       </c>
       <c r="D4" t="n">
-        <v>259.734</v>
+        <v>194.495</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.456379890441895</v>
+        <v>1.445976734161377</v>
       </c>
       <c r="D5" t="n">
-        <v>269.01</v>
+        <v>231.081</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8883640766143799</v>
+        <v>0.8314151763916016</v>
       </c>
       <c r="D6" t="n">
-        <v>218.329</v>
+        <v>189.423</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8252439498901367</v>
+        <v>0.817173957824707</v>
       </c>
       <c r="D7" t="n">
-        <v>218.833</v>
+        <v>208.284</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.998396158218384</v>
+        <v>1.317369222640991</v>
       </c>
       <c r="D8" t="n">
-        <v>256.283</v>
+        <v>247.13</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.571725130081177</v>
+        <v>1.336597204208374</v>
       </c>
       <c r="D9" t="n">
-        <v>267.724</v>
+        <v>292.908</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.052602052688599</v>
+        <v>0.8188889026641846</v>
       </c>
       <c r="D10" t="n">
-        <v>220.283</v>
+        <v>218.377</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9806890487670898</v>
+        <v>0.9037449359893799</v>
       </c>
       <c r="D11" t="n">
-        <v>220.787</v>
+        <v>240.232</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.722965002059937</v>
+        <v>1.407274007797241</v>
       </c>
       <c r="D12" t="n">
-        <v>254.103</v>
+        <v>250.581</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.865984916687012</v>
+        <v>1.260472059249878</v>
       </c>
       <c r="D13" t="n">
-        <v>269.01</v>
+        <v>218.904</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9597272872924805</v>
+        <v>0.885059118270874</v>
       </c>
       <c r="D14" t="n">
-        <v>341.576</v>
+        <v>324.059</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8903870582580566</v>
+        <v>0.8961169719696045</v>
       </c>
       <c r="D15" t="n">
-        <v>798.487</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.742003917694092</v>
+        <v>2.317691802978516</v>
       </c>
       <c r="D16" t="n">
-        <v>240.285</v>
+        <v>339.439</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.893430948257446</v>
+        <v>1.598947048187256</v>
       </c>
       <c r="D17" t="n">
-        <v>726.229</v>
+        <v>809.968</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8320896625518799</v>
+        <v>0.8968498706817627</v>
       </c>
       <c r="D18" t="n">
-        <v>316.756</v>
+        <v>341.977</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.927711009979248</v>
+        <v>1.190317153930664</v>
       </c>
       <c r="D19" t="n">
-        <v>773.667</v>
+        <v>749.052</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.661992073059082</v>
+        <v>1.487429141998291</v>
       </c>
       <c r="D20" t="n">
-        <v>258.203</v>
+        <v>192.858</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.750991106033325</v>
+        <v>1.458701133728027</v>
       </c>
       <c r="D21" t="n">
-        <v>854.646</v>
+        <v>806.5170000000001</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.070399045944214</v>
+        <v>0.8109021186828613</v>
       </c>
       <c r="D22" t="n">
-        <v>345.71</v>
+        <v>338.3</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9542050361633301</v>
+        <v>0.8410711288452148</v>
       </c>
       <c r="D23" t="n">
-        <v>782.749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.853147029876709</v>
+        <v>1.347014904022217</v>
       </c>
       <c r="D24" t="n">
-        <v>261.654</v>
+        <v>252.395</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.950541734695435</v>
+        <v>1.502388000488281</v>
       </c>
       <c r="D25" t="n">
-        <v>720.598</v>
+        <v>788.599</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9926068782806396</v>
+        <v>1.041141033172607</v>
       </c>
       <c r="D2" t="n">
-        <v>251.601</v>
+        <v>247.221</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8112308979034424</v>
+        <v>0.9325180053710938</v>
       </c>
       <c r="D3" t="n">
-        <v>254.159</v>
+        <v>288.619</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.291954040527344</v>
+        <v>1.176671981811523</v>
       </c>
       <c r="D4" t="n">
-        <v>258.964</v>
+        <v>236.202</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.322679996490479</v>
+        <v>1.274245977401733</v>
       </c>
       <c r="D5" t="n">
-        <v>251.947</v>
+        <v>329.923</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8128030300140381</v>
+        <v>1.028648138046265</v>
       </c>
       <c r="D6" t="n">
-        <v>242.519</v>
+        <v>238.139</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8217370510101318</v>
+        <v>0.8967287540435791</v>
       </c>
       <c r="D7" t="n">
-        <v>250.708</v>
+        <v>263.905</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.499013185501099</v>
+        <v>1.194265127182007</v>
       </c>
       <c r="D8" t="n">
-        <v>226.427</v>
+        <v>202.19</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.267993927001953</v>
+        <v>1.397722005844116</v>
       </c>
       <c r="D9" t="n">
-        <v>313.774</v>
+        <v>326.472</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8696050643920898</v>
+        <v>0.8068118095397949</v>
       </c>
       <c r="D10" t="n">
-        <v>247.467</v>
+        <v>241.59</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9511570930480957</v>
+        <v>0.996783971786499</v>
       </c>
       <c r="D11" t="n">
-        <v>254.159</v>
+        <v>287.122</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.171137094497681</v>
+        <v>1.325285196304321</v>
       </c>
       <c r="D12" t="n">
-        <v>295.156</v>
+        <v>283.096</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.472486972808838</v>
+        <v>1.313001155853271</v>
       </c>
       <c r="D13" t="n">
-        <v>230.578</v>
+        <v>273.837</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9769680500030518</v>
+        <v>0.9992198944091797</v>
       </c>
       <c r="D14" t="n">
-        <v>382.32</v>
+        <v>383.986</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9574940204620361</v>
+        <v>0.9431309700012207</v>
       </c>
       <c r="D15" t="n">
-        <v>1420.279</v>
+        <v>1174.939</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.093575239181519</v>
+        <v>1.487087726593018</v>
       </c>
       <c r="D16" t="n">
-        <v>213.996</v>
+        <v>262.924</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.601775169372559</v>
+        <v>1.553657054901123</v>
       </c>
       <c r="D17" t="n">
-        <v>1333.099</v>
+        <v>739.706</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8816840648651123</v>
+        <v>0.9103066921234131</v>
       </c>
       <c r="D18" t="n">
-        <v>385.997</v>
+        <v>382.032</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9711198806762695</v>
+        <v>0.9014019966125488</v>
       </c>
       <c r="D19" t="n">
-        <v>1409.7</v>
+        <v>1199.985</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.342761993408203</v>
+        <v>1.525835990905762</v>
       </c>
       <c r="D20" t="n">
-        <v>226.283</v>
+        <v>354.331</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.444347858428955</v>
+        <v>1.591233015060425</v>
       </c>
       <c r="D21" t="n">
-        <v>1445.796</v>
+        <v>757.624</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9775118827819824</v>
+        <v>0.9840948581695557</v>
       </c>
       <c r="D22" t="n">
-        <v>387.951</v>
+        <v>378.355</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8426768779754639</v>
+        <v>0.8408629894256592</v>
       </c>
       <c r="D23" t="n">
-        <v>1414.648</v>
+        <v>1182.067</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.321202993392944</v>
+        <v>1.496737957000732</v>
       </c>
       <c r="D24" t="n">
-        <v>270.082</v>
+        <v>206.838</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.774719953536987</v>
+        <v>1.350881814956665</v>
       </c>
       <c r="D25" t="n">
-        <v>1330.934</v>
+        <v>739.706</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308398723602295</v>
+        <v>0.8748669624328613</v>
       </c>
       <c r="D2" t="n">
-        <v>220.362</v>
+        <v>211.25</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9936878681182861</v>
+        <v>0.9076638221740723</v>
       </c>
       <c r="D3" t="n">
-        <v>224.922</v>
+        <v>238.736</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.791141748428345</v>
+        <v>1.254019737243652</v>
       </c>
       <c r="D4" t="n">
-        <v>231.252</v>
+        <v>275.969</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.841737031936646</v>
+        <v>1.192717790603638</v>
       </c>
       <c r="D5" t="n">
-        <v>269.693</v>
+        <v>277.972</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9020731449127197</v>
+        <v>0.8332419395446777</v>
       </c>
       <c r="D6" t="n">
-        <v>211.201</v>
+        <v>216.423</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8375580310821533</v>
+        <v>0.8359518051147461</v>
       </c>
       <c r="D7" t="n">
-        <v>224.542</v>
+        <v>215.412</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>2.100821018218994</v>
+        <v>1.228748083114624</v>
       </c>
       <c r="D8" t="n">
-        <v>244.12</v>
+        <v>223.559</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.698112010955811</v>
+        <v>1.129235029220581</v>
       </c>
       <c r="D9" t="n">
-        <v>246.369</v>
+        <v>270.386</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8484601974487305</v>
+        <v>0.8234741687774658</v>
       </c>
       <c r="D10" t="n">
-        <v>214.731</v>
+        <v>218.378</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9670858383178711</v>
+        <v>0.9503157138824463</v>
       </c>
       <c r="D11" t="n">
-        <v>205.128</v>
+        <v>210.239</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.009918928146362</v>
+        <v>1.519747018814087</v>
       </c>
       <c r="D12" t="n">
-        <v>234.75</v>
+        <v>281.6</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.614361763000488</v>
+        <v>1.155765533447266</v>
       </c>
       <c r="D13" t="n">
-        <v>254.008</v>
+        <v>328.427</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8212268352508545</v>
+        <v>0.9269838333129883</v>
       </c>
       <c r="D14" t="n">
-        <v>345.789</v>
+        <v>330.344</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8351128101348877</v>
+        <v>0.8565282821655273</v>
       </c>
       <c r="D15" t="n">
-        <v>804.197</v>
+        <v>748.899</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.794839859008789</v>
+        <v>1.19638204574585</v>
       </c>
       <c r="D16" t="n">
-        <v>238.803</v>
+        <v>179.1</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.839936971664429</v>
+        <v>1.680168390274048</v>
       </c>
       <c r="D17" t="n">
-        <v>856.615</v>
+        <v>831.867</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8804528713226318</v>
+        <v>0.864027738571167</v>
       </c>
       <c r="D18" t="n">
-        <v>343.834</v>
+        <v>344.127</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8718879222869873</v>
+        <v>0.894996166229248</v>
       </c>
       <c r="D19" t="n">
-        <v>802.242</v>
+        <v>773.944</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.849399089813232</v>
+        <v>1.271907091140747</v>
       </c>
       <c r="D20" t="n">
-        <v>236.848</v>
+        <v>394.282</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>2.160834074020386</v>
+        <v>1.344943284988403</v>
       </c>
       <c r="D21" t="n">
-        <v>833.2910000000001</v>
+        <v>824.2809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8183448314666748</v>
+        <v>0.9055130481719971</v>
       </c>
       <c r="D22" t="n">
-        <v>344.214</v>
+        <v>324.713</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8595819473266602</v>
+        <v>0.9767899513244629</v>
       </c>
       <c r="D23" t="n">
-        <v>782.828</v>
+        <v>774.402</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.708431243896484</v>
+        <v>1.245087862014771</v>
       </c>
       <c r="D24" t="n">
-        <v>254.541</v>
+        <v>173.469</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.675492763519287</v>
+        <v>1.666162967681885</v>
       </c>
       <c r="D25" t="n">
-        <v>703.378</v>
+        <v>831.867</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8308398723602295</v>
+        <v>0.8822848796844482</v>
       </c>
       <c r="D2" t="n">
-        <v>220.362</v>
+        <v>220.222</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9936878681182861</v>
+        <v>0.8389918804168701</v>
       </c>
       <c r="D3" t="n">
-        <v>224.922</v>
+        <v>287.123</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.791141748428345</v>
+        <v>1.22132396697998</v>
       </c>
       <c r="D4" t="n">
-        <v>231.252</v>
+        <v>254.6</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.841737031936646</v>
+        <v>1.501548051834106</v>
       </c>
       <c r="D5" t="n">
-        <v>269.693</v>
+        <v>312.689</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9020731449127197</v>
+        <v>0.9042601585388184</v>
       </c>
       <c r="D6" t="n">
-        <v>211.201</v>
+        <v>245.267</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8375580310821533</v>
+        <v>0.8531050682067871</v>
       </c>
       <c r="D7" t="n">
-        <v>224.542</v>
+        <v>279.537</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>2.100821018218994</v>
+        <v>1.373991966247559</v>
       </c>
       <c r="D8" t="n">
-        <v>244.12</v>
+        <v>258.276</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.698112010955811</v>
+        <v>1.232343196868896</v>
       </c>
       <c r="D9" t="n">
-        <v>246.369</v>
+        <v>326.472</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8484601974487305</v>
+        <v>0.9484379291534424</v>
       </c>
       <c r="D10" t="n">
-        <v>214.731</v>
+        <v>247.222</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9670858383178711</v>
+        <v>0.9392621517181396</v>
       </c>
       <c r="D11" t="n">
-        <v>205.128</v>
+        <v>281.492</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.009918928146362</v>
+        <v>1.495271921157837</v>
       </c>
       <c r="D12" t="n">
-        <v>234.75</v>
+        <v>281.6</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.614361763000488</v>
+        <v>1.425415277481079</v>
       </c>
       <c r="D13" t="n">
-        <v>254.008</v>
+        <v>281.533</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8212268352508545</v>
+        <v>0.818364143371582</v>
       </c>
       <c r="D14" t="n">
-        <v>345.789</v>
+        <v>347.766</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8351128101348877</v>
+        <v>0.8273401260375977</v>
       </c>
       <c r="D15" t="n">
-        <v>804.197</v>
+        <v>1116.862</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.794839859008789</v>
+        <v>1.484578132629395</v>
       </c>
       <c r="D16" t="n">
-        <v>238.803</v>
+        <v>281.807</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.839936971664429</v>
+        <v>1.482391834259033</v>
       </c>
       <c r="D17" t="n">
-        <v>856.615</v>
+        <v>1178.461</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8804528713226318</v>
+        <v>0.8637919425964355</v>
       </c>
       <c r="D18" t="n">
-        <v>343.834</v>
+        <v>368.677</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8718879222869873</v>
+        <v>1.01413106918335</v>
       </c>
       <c r="D19" t="n">
-        <v>802.242</v>
+        <v>1120.538</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.849399089813232</v>
+        <v>1.303310871124268</v>
       </c>
       <c r="D20" t="n">
-        <v>236.848</v>
+        <v>285.483</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>2.160834074020386</v>
+        <v>1.552172183990479</v>
       </c>
       <c r="D21" t="n">
-        <v>833.2910000000001</v>
+        <v>1017.638</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8183448314666748</v>
+        <v>0.9865961074829102</v>
       </c>
       <c r="D22" t="n">
-        <v>344.214</v>
+        <v>376.263</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8595819473266602</v>
+        <v>0.8341119289398193</v>
       </c>
       <c r="D23" t="n">
-        <v>782.828</v>
+        <v>1122.493</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.708431243896484</v>
+        <v>1.294523000717163</v>
       </c>
       <c r="D24" t="n">
-        <v>254.541</v>
+        <v>231.352</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.675492763519287</v>
+        <v>1.514174938201904</v>
       </c>
       <c r="D25" t="n">
-        <v>703.378</v>
+        <v>1035.331</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8748669624328613</v>
+        <v>0.8860569000244141</v>
       </c>
       <c r="D2" t="n">
-        <v>211.25</v>
+        <v>238.855</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9076638221740723</v>
+        <v>0.859062671661377</v>
       </c>
       <c r="D3" t="n">
-        <v>238.736</v>
+        <v>278.338</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.254019737243652</v>
+        <v>1.277153968811035</v>
       </c>
       <c r="D4" t="n">
-        <v>275.969</v>
+        <v>222.36</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.192717790603638</v>
+        <v>1.392767906188965</v>
       </c>
       <c r="D5" t="n">
-        <v>277.972</v>
+        <v>275.236</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8332419395446777</v>
+        <v>0.943281888961792</v>
       </c>
       <c r="D6" t="n">
-        <v>216.423</v>
+        <v>242.531</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8359518051147461</v>
+        <v>0.7995388507843018</v>
       </c>
       <c r="D7" t="n">
-        <v>215.412</v>
+        <v>257.394</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.228748083114624</v>
+        <v>1.489693880081177</v>
       </c>
       <c r="D8" t="n">
-        <v>223.559</v>
+        <v>276.909</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.129235029220581</v>
+        <v>1.38598895072937</v>
       </c>
       <c r="D9" t="n">
-        <v>270.386</v>
+        <v>323.736</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8234741687774658</v>
+        <v>0.8414788246154785</v>
       </c>
       <c r="D10" t="n">
-        <v>218.378</v>
+        <v>238.961</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9503157138824463</v>
+        <v>0.8395178318023682</v>
       </c>
       <c r="D11" t="n">
-        <v>210.239</v>
+        <v>260.428</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.519747018814087</v>
+        <v>1.375593900680542</v>
       </c>
       <c r="D12" t="n">
-        <v>281.6</v>
+        <v>272.815</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.155765533447266</v>
+        <v>1.624349117279053</v>
       </c>
       <c r="D13" t="n">
-        <v>328.427</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9269838333129883</v>
+        <v>0.842761754989624</v>
       </c>
       <c r="D14" t="n">
-        <v>330.344</v>
+        <v>373.527</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8565282821655273</v>
+        <v>0.8627650737762451</v>
       </c>
       <c r="D15" t="n">
-        <v>748.899</v>
+        <v>1113.708</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.19638204574585</v>
+        <v>1.301482915878296</v>
       </c>
       <c r="D16" t="n">
-        <v>179.1</v>
+        <v>416.57</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.680168390274048</v>
+        <v>1.487235069274902</v>
       </c>
       <c r="D17" t="n">
-        <v>831.867</v>
+        <v>1032.595</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.864027738571167</v>
+        <v>0.8874869346618652</v>
       </c>
       <c r="D18" t="n">
-        <v>344.127</v>
+        <v>371.572</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.894996166229248</v>
+        <v>0.821516752243042</v>
       </c>
       <c r="D19" t="n">
-        <v>773.944</v>
+        <v>1117.384</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.271907091140747</v>
+        <v>1.303147077560425</v>
       </c>
       <c r="D20" t="n">
-        <v>394.282</v>
+        <v>276.698</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.344943284988403</v>
+        <v>1.539189100265503</v>
       </c>
       <c r="D21" t="n">
-        <v>824.2809999999999</v>
+        <v>1170.304</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9055130481719971</v>
+        <v>0.8324878215789795</v>
       </c>
       <c r="D22" t="n">
-        <v>324.713</v>
+        <v>349.986</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9767899513244629</v>
+        <v>0.8225710391998291</v>
       </c>
       <c r="D23" t="n">
-        <v>774.402</v>
+        <v>1119.339</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.245087862014771</v>
+        <v>1.459330081939697</v>
       </c>
       <c r="D24" t="n">
-        <v>173.469</v>
+        <v>284.284</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.666162967681885</v>
+        <v>1.425919055938721</v>
       </c>
       <c r="D25" t="n">
-        <v>831.867</v>
+        <v>1011.219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9364428520202637</v>
+      </c>
+      <c r="D2" t="n">
+        <v>237.358</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.852694034576416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>284.387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.375879287719727</v>
+      </c>
+      <c r="D4" t="n">
+        <v>249.692</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.384732961654663</v>
+      </c>
+      <c r="D5" t="n">
+        <v>307.781</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9242959022521973</v>
+      </c>
+      <c r="D6" t="n">
+        <v>241.034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8167569637298584</v>
+      </c>
+      <c r="D7" t="n">
+        <v>275.304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.310396194458008</v>
+      </c>
+      <c r="D8" t="n">
+        <v>276.909</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.476758003234863</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9215691089630127</v>
+      </c>
+      <c r="D10" t="n">
+        <v>237.358</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9035110473632812</v>
+      </c>
+      <c r="D11" t="n">
+        <v>253.718</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.288961887359619</v>
+      </c>
+      <c r="D12" t="n">
+        <v>278.864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.56112003326416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>307.781</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8258848190307617</v>
+      </c>
+      <c r="D14" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8221409320831299</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1113.708</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.221139907836914</v>
+      </c>
+      <c r="D16" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.526549100875854</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1034.76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8027889728546143</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8501410484313965</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1112.171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.36549186706543</v>
+      </c>
+      <c r="D20" t="n">
+        <v>221.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.635473966598511</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1030.64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9639720916748047</v>
+      </c>
+      <c r="D22" t="n">
+        <v>366.399</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8093430995941162</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.302562952041626</v>
+      </c>
+      <c r="D24" t="n">
+        <v>228.198</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.540179967880249</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9364683628082275</v>
+      </c>
+      <c r="D2" t="n">
+        <v>244.486</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8945269584655762</v>
+      </c>
+      <c r="D3" t="n">
+        <v>258.931</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.318080902099609</v>
+      </c>
+      <c r="D4" t="n">
+        <v>254.905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.339586973190308</v>
+      </c>
+      <c r="D5" t="n">
+        <v>325.273</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9072690010070801</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8274300098419189</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.490244150161743</v>
+      </c>
+      <c r="D8" t="n">
+        <v>252.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.466932058334351</v>
+      </c>
+      <c r="D9" t="n">
+        <v>329.367</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8730590343475342</v>
+      </c>
+      <c r="D10" t="n">
+        <v>215.314</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8039119243621826</v>
+      </c>
+      <c r="D11" t="n">
+        <v>253.718</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.282882213592529</v>
+      </c>
+      <c r="D12" t="n">
+        <v>217.147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.421296358108521</v>
+      </c>
+      <c r="D13" t="n">
+        <v>251.695</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9092638492584229</v>
+      </c>
+      <c r="D14" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8199491500854492</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1119.757</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.324234008789062</v>
+      </c>
+      <c r="D16" t="n">
+        <v>255.636</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.486847162246704</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1038.226</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8320419788360596</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8700182437896729</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1112.171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.401741981506348</v>
+      </c>
+      <c r="D20" t="n">
+        <v>253.157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.524405956268311</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1173.352</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8676862716674805</v>
+      </c>
+      <c r="D22" t="n">
+        <v>349.568</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8141541481018066</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1113.708</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.312049388885498</v>
+      </c>
+      <c r="D24" t="n">
+        <v>284.284</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.618632078170776</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1037.808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8024799823760986</v>
+      </c>
+      <c r="D2" t="n">
+        <v>236.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8138890266418457</v>
+      </c>
+      <c r="D3" t="n">
+        <v>283.969</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.322541952133179</v>
+      </c>
+      <c r="D4" t="n">
+        <v>272.815</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.232941865921021</v>
+      </c>
+      <c r="D5" t="n">
+        <v>330.904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8099701404571533</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8165738582611084</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.014</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.227954864501953</v>
+      </c>
+      <c r="D8" t="n">
+        <v>276.491</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.069126844406128</v>
+      </c>
+      <c r="D9" t="n">
+        <v>276.424</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8229875564575195</v>
+      </c>
+      <c r="D10" t="n">
+        <v>238.437</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8191969394683838</v>
+      </c>
+      <c r="D11" t="n">
+        <v>278.756</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.15050482749939</v>
+      </c>
+      <c r="D12" t="n">
+        <v>222.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.188265085220337</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8463187217712402</v>
+      </c>
+      <c r="D14" t="n">
+        <v>343.937</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9660313129425049</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1112.211</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.557528734207153</v>
+      </c>
+      <c r="D16" t="n">
+        <v>284.284</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.682509183883667</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1172.259</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.019649744033813</v>
+      </c>
+      <c r="D18" t="n">
+        <v>371.572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.871056079864502</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1117.384</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.320268154144287</v>
+      </c>
+      <c r="D20" t="n">
+        <v>253.157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.628243923187256</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1035.853</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9735779762268066</v>
+      </c>
+      <c r="D22" t="n">
+        <v>366.399</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.871535062789917</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1119.339</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.26938796043396</v>
+      </c>
+      <c r="D24" t="n">
+        <v>278.653</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.445346117019653</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1009.054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8663280010223389</v>
+      </c>
+      <c r="D2" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8622348308563232</v>
+      </c>
+      <c r="D3" t="n">
+        <v>278.338</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.309077978134155</v>
+      </c>
+      <c r="D4" t="n">
+        <v>140.093</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.341103076934814</v>
+      </c>
+      <c r="D5" t="n">
+        <v>331.322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8008260726928711</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8347499370574951</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.268585920333862</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253.368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.302516937255859</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8834521770477295</v>
+      </c>
+      <c r="D10" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9187660217285156</v>
+      </c>
+      <c r="D11" t="n">
+        <v>277.259</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.354171752929688</v>
+      </c>
+      <c r="D12" t="n">
+        <v>278.864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.406451940536499</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8994708061218262</v>
+      </c>
+      <c r="D14" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.858281135559082</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.439265966415405</v>
+      </c>
+      <c r="D16" t="n">
+        <v>261.161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.47184419631958</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1034.76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8670358657836914</v>
+      </c>
+      <c r="D18" t="n">
+        <v>348.031</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9423120021820068</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1110.674</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.324949026107788</v>
+      </c>
+      <c r="D20" t="n">
+        <v>282.747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.436081886291504</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1167.721</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8735377788543701</v>
+      </c>
+      <c r="D22" t="n">
+        <v>367.896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.859130859375</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1113.708</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.267643928527832</v>
+      </c>
+      <c r="D24" t="n">
+        <v>284.284</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.51818585395813</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1034.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8157849311828613</v>
+      </c>
+      <c r="D2" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8543219566345215</v>
+      </c>
+      <c r="D3" t="n">
+        <v>284.387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.379088878631592</v>
+      </c>
+      <c r="D4" t="n">
+        <v>278.864</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.266940832138062</v>
+      </c>
+      <c r="D5" t="n">
+        <v>275.236</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8444042205810547</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8681571483612061</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.427692890167236</v>
+      </c>
+      <c r="D8" t="n">
+        <v>271.278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.392508983612061</v>
+      </c>
+      <c r="D9" t="n">
+        <v>267.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8697941303253174</v>
+      </c>
+      <c r="D10" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8308858871459961</v>
+      </c>
+      <c r="D11" t="n">
+        <v>284.387</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.258550882339478</v>
+      </c>
+      <c r="D12" t="n">
+        <v>273.233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.411972999572754</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9400660991668701</v>
+      </c>
+      <c r="D14" t="n">
+        <v>366.399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.86452317237854</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1096.216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.382789134979248</v>
+      </c>
+      <c r="D16" t="n">
+        <v>284.702</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.486762285232544</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1175.725</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8003151416778564</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8639709949493408</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1117.802</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.198262929916382</v>
+      </c>
+      <c r="D20" t="n">
+        <v>221.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.426584005355835</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1030.64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9011919498443604</v>
+      </c>
+      <c r="D22" t="n">
+        <v>348.489</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9303569793701172</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.262876987457275</v>
+      </c>
+      <c r="D24" t="n">
+        <v>422.201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.19338583946228</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1037.808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8864588737487793</v>
+      </c>
+      <c r="D2" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8443150520324707</v>
+      </c>
+      <c r="D3" t="n">
+        <v>255.215</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.377074003219604</v>
+      </c>
+      <c r="D4" t="n">
+        <v>273.233</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.532900810241699</v>
+      </c>
+      <c r="D5" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9433670043945312</v>
+      </c>
+      <c r="D6" t="n">
+        <v>240.616</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8610019683837891</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.256090879440308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>220.823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.433786869049072</v>
+      </c>
+      <c r="D9" t="n">
+        <v>267.65</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8519737720489502</v>
+      </c>
+      <c r="D10" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8395881652832031</v>
+      </c>
+      <c r="D11" t="n">
+        <v>278.756</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.421551704406738</v>
+      </c>
+      <c r="D12" t="n">
+        <v>273.233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.302711725234985</v>
+      </c>
+      <c r="D13" t="n">
+        <v>302.362</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8739888668060303</v>
+      </c>
+      <c r="D14" t="n">
+        <v>367.896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8408441543579102</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1119.757</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.208325147628784</v>
+      </c>
+      <c r="D16" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.583847045898438</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9756078720092773</v>
+      </c>
+      <c r="D18" t="n">
+        <v>370.075</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8917269706726074</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1088.63</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.36954402923584</v>
+      </c>
+      <c r="D20" t="n">
+        <v>282.747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.418811082839966</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1036.271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8130459785461426</v>
+      </c>
+      <c r="D22" t="n">
+        <v>373.109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.870814323425293</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1119.757</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.291242122650146</v>
+      </c>
+      <c r="D24" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.476869106292725</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8078229427337646</v>
+      </c>
+      <c r="D2" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8521080017089844</v>
+      </c>
+      <c r="D3" t="n">
+        <v>278.756</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.161857843399048</v>
+      </c>
+      <c r="D4" t="n">
+        <v>249.692</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.396062135696411</v>
+      </c>
+      <c r="D5" t="n">
+        <v>330.904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8513247966766357</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8441081047058105</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.359409809112549</v>
+      </c>
+      <c r="D8" t="n">
+        <v>215.192</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.457240104675293</v>
+      </c>
+      <c r="D9" t="n">
+        <v>329.367</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8256089687347412</v>
+      </c>
+      <c r="D10" t="n">
+        <v>244.486</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8906795978546143</v>
+      </c>
+      <c r="D11" t="n">
+        <v>284.387</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.278634071350098</v>
+      </c>
+      <c r="D12" t="n">
+        <v>222.778</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.450045108795166</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8167641162872314</v>
+      </c>
+      <c r="D14" t="n">
+        <v>372.03</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8717939853668213</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1112.629</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.317230224609375</v>
+      </c>
+      <c r="D16" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.226433753967285</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1008.636</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8248522281646729</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8522100448608398</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1117.802</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.3066086769104</v>
+      </c>
+      <c r="D20" t="n">
+        <v>277.116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.428340196609497</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1168.139</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.844700813293457</v>
+      </c>
+      <c r="D22" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8226912021636963</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.295562982559204</v>
+      </c>
+      <c r="D24" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.26242733001709</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1014.267</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8352739810943604</v>
+      </c>
+      <c r="D2" t="n">
+        <v>244.068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8967301845550537</v>
+      </c>
+      <c r="D3" t="n">
+        <v>284.387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.50256609916687</v>
+      </c>
+      <c r="D4" t="n">
+        <v>282.425</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.492893934249878</v>
+      </c>
+      <c r="D5" t="n">
+        <v>316.973</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8175029754638672</v>
+      </c>
+      <c r="D6" t="n">
+        <v>213.359</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8730747699737549</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.387661933898926</v>
+      </c>
+      <c r="D8" t="n">
+        <v>220.823</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.33413028717041</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8886759281158447</v>
+      </c>
+      <c r="D10" t="n">
+        <v>215.314</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.020810604095459</v>
+      </c>
+      <c r="D11" t="n">
+        <v>259.349</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.343490123748779</v>
+      </c>
+      <c r="D12" t="n">
+        <v>217.147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.366848945617676</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9045770168304443</v>
+      </c>
+      <c r="D14" t="n">
+        <v>367.896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8350212574005127</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.401787281036377</v>
+      </c>
+      <c r="D16" t="n">
+        <v>284.702</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.472012996673584</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8651678562164307</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8984549045562744</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1117.802</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.412909030914307</v>
+      </c>
+      <c r="D20" t="n">
+        <v>258.788</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.534811019897461</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1038.436</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9444868564605713</v>
+      </c>
+      <c r="D22" t="n">
+        <v>367.896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8891420364379883</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1119.757</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.294885873794556</v>
+      </c>
+      <c r="D24" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.41385817527771</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8297731876373291</v>
+      </c>
+      <c r="D2" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9358079433441162</v>
+      </c>
+      <c r="D3" t="n">
+        <v>278.756</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.401916980743408</v>
+      </c>
+      <c r="D4" t="n">
+        <v>273.233</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.38843822479248</v>
+      </c>
+      <c r="D5" t="n">
+        <v>340.514</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8745589256286621</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8749568462371826</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.312852144241333</v>
+      </c>
+      <c r="D8" t="n">
+        <v>271.278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.510134935379028</v>
+      </c>
+      <c r="D9" t="n">
+        <v>329.367</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8278028964996338</v>
+      </c>
+      <c r="D10" t="n">
+        <v>238.437</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8616061210632324</v>
+      </c>
+      <c r="D11" t="n">
+        <v>260.846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.436720848083496</v>
+      </c>
+      <c r="D12" t="n">
+        <v>278.864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.338147640228271</v>
+      </c>
+      <c r="D13" t="n">
+        <v>302.15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9357209205627441</v>
+      </c>
+      <c r="D14" t="n">
+        <v>366.399</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.815079927444458</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1096.216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.360388040542603</v>
+      </c>
+      <c r="D16" t="n">
+        <v>199.444</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.445279121398926</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1040.391</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8784909248352051</v>
+      </c>
+      <c r="D18" t="n">
+        <v>342.506</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9129688739776611</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1112.171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.367076873779297</v>
+      </c>
+      <c r="D20" t="n">
+        <v>277.116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.537825107574463</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1036.271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8434863090515137</v>
+      </c>
+      <c r="D22" t="n">
+        <v>367.896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8208391666412354</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1095.798</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.349101066589355</v>
+      </c>
+      <c r="D24" t="n">
+        <v>222.985</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.504568815231323</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1009.054</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8822848796844482</v>
+        <v>0.8894689083099365</v>
       </c>
       <c r="D2" t="n">
-        <v>220.222</v>
+        <v>238.855</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8389918804168701</v>
+        <v>0.8736951351165771</v>
       </c>
       <c r="D3" t="n">
-        <v>287.123</v>
+        <v>284.387</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.22132396697998</v>
+        <v>1.402348041534424</v>
       </c>
       <c r="D4" t="n">
-        <v>254.6</v>
+        <v>255.429</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.501548051834106</v>
+        <v>1.337274789810181</v>
       </c>
       <c r="D5" t="n">
-        <v>312.689</v>
+        <v>316.973</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9042601585388184</v>
+        <v>1.01445198059082</v>
       </c>
       <c r="D6" t="n">
-        <v>245.267</v>
+        <v>241.034</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8531050682067871</v>
+        <v>0.906790018081665</v>
       </c>
       <c r="D7" t="n">
-        <v>279.537</v>
+        <v>253.26</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.373991966247559</v>
+        <v>1.292208909988403</v>
       </c>
       <c r="D8" t="n">
-        <v>258.276</v>
+        <v>271.278</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.232343196868896</v>
+        <v>1.489295959472656</v>
       </c>
       <c r="D9" t="n">
-        <v>326.472</v>
+        <v>338.141</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9484379291534424</v>
+        <v>0.8403701782226562</v>
       </c>
       <c r="D10" t="n">
-        <v>247.222</v>
+        <v>215.314</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9392621517181396</v>
+        <v>0.9125149250030518</v>
       </c>
       <c r="D11" t="n">
-        <v>281.492</v>
+        <v>284.387</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.495271921157837</v>
+        <v>1.42780590057373</v>
       </c>
       <c r="D12" t="n">
-        <v>281.6</v>
+        <v>273.233</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.425415277481079</v>
+        <v>1.492547035217285</v>
       </c>
       <c r="D13" t="n">
-        <v>281.533</v>
+        <v>275.236</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.818364143371582</v>
+        <v>0.8146891593933105</v>
       </c>
       <c r="D14" t="n">
-        <v>347.766</v>
+        <v>372.03</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8273401260375977</v>
+        <v>0.9325351715087891</v>
       </c>
       <c r="D15" t="n">
-        <v>1116.862</v>
+        <v>1113.708</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.484578132629395</v>
+        <v>1.266326665878296</v>
       </c>
       <c r="D16" t="n">
-        <v>281.807</v>
+        <v>222.985</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.482391834259033</v>
+        <v>1.528259038925171</v>
       </c>
       <c r="D17" t="n">
-        <v>1178.461</v>
+        <v>1032.595</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8637919425964355</v>
+        <v>0.96010422706604</v>
       </c>
       <c r="D18" t="n">
-        <v>368.677</v>
+        <v>371.572</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>1.01413106918335</v>
+        <v>0.854381799697876</v>
       </c>
       <c r="D19" t="n">
-        <v>1120.538</v>
+        <v>1088.212</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.303310871124268</v>
+        <v>1.329139947891235</v>
       </c>
       <c r="D20" t="n">
-        <v>285.483</v>
+        <v>253.575</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.552172183990479</v>
+        <v>1.479921102523804</v>
       </c>
       <c r="D21" t="n">
-        <v>1017.638</v>
+        <v>1030.64</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9865961074829102</v>
+        <v>1.008887767791748</v>
       </c>
       <c r="D22" t="n">
-        <v>376.263</v>
+        <v>373.527</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8341119289398193</v>
+        <v>0.9046669006347656</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.493</v>
+        <v>1090.585</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.294523000717163</v>
+        <v>1.339723825454712</v>
       </c>
       <c r="D24" t="n">
-        <v>231.352</v>
+        <v>279.071</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.514174938201904</v>
+        <v>1.665189743041992</v>
       </c>
       <c r="D25" t="n">
-        <v>1035.331</v>
+        <v>1032.595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9421567916870117</v>
+      </c>
+      <c r="D2" t="n">
+        <v>219.448</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8396599292755127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>278.756</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.277164936065674</v>
+      </c>
+      <c r="D4" t="n">
+        <v>278.864</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.551620960235596</v>
+      </c>
+      <c r="D5" t="n">
+        <v>330.904</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8223779201507568</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8519530296325684</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.143212080001831</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2121.988</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.49555492401123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>329.367</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8108501434326172</v>
+      </c>
+      <c r="D10" t="n">
+        <v>219.03</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8906099796295166</v>
+      </c>
+      <c r="D11" t="n">
+        <v>278.756</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.319962978363037</v>
+      </c>
+      <c r="D12" t="n">
+        <v>217.147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.345034837722778</v>
+      </c>
+      <c r="D13" t="n">
+        <v>331.322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8566808700561523</v>
+      </c>
+      <c r="D14" t="n">
+        <v>367.896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9246261119842529</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.35828709602356</v>
+      </c>
+      <c r="D16" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.545139789581299</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1175.725</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9417681694030762</v>
+      </c>
+      <c r="D18" t="n">
+        <v>371.572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9078278541564941</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1117.802</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.410863161087036</v>
+      </c>
+      <c r="D20" t="n">
+        <v>276.804</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.44667387008667</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1035.853</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8662049770355225</v>
+      </c>
+      <c r="D22" t="n">
+        <v>373.109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.882993221282959</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1096.216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.610577821731567</v>
+      </c>
+      <c r="D24" t="n">
+        <v>284.702</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.515793085098267</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1038.226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9345211982727051</v>
+      </c>
+      <c r="D2" t="n">
+        <v>244.486</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.031800031661987</v>
+      </c>
+      <c r="D3" t="n">
+        <v>259.349</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.340138912200928</v>
+      </c>
+      <c r="D4" t="n">
+        <v>273.233</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.382631301879883</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2158.491</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9838709831237793</v>
+      </c>
+      <c r="D6" t="n">
+        <v>211.862</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.050068855285645</v>
+      </c>
+      <c r="D7" t="n">
+        <v>176.418</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.537703990936279</v>
+      </c>
+      <c r="D8" t="n">
+        <v>271.278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.331027984619141</v>
+      </c>
+      <c r="D9" t="n">
+        <v>299.777</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.009970188140869</v>
+      </c>
+      <c r="D10" t="n">
+        <v>242.989</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9704182147979736</v>
+      </c>
+      <c r="D11" t="n">
+        <v>260.846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.409270048141479</v>
+      </c>
+      <c r="D12" t="n">
+        <v>284.525</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.459076166152954</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8115909099578857</v>
+      </c>
+      <c r="D14" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8879439830780029</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.412126064300537</v>
+      </c>
+      <c r="D16" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.548058748245239</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1040.391</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8576056957244873</v>
+      </c>
+      <c r="D18" t="n">
+        <v>371.572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8049750328063965</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1087.133</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.369258880615234</v>
+      </c>
+      <c r="D20" t="n">
+        <v>277.116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.435221910476685</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1030.64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9162020683288574</v>
+      </c>
+      <c r="D22" t="n">
+        <v>344.355</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8523678779602051</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1119.757</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.519807100296021</v>
+      </c>
+      <c r="D24" t="n">
+        <v>205.181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.538844108581543</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.101743936538696</v>
+      </c>
+      <c r="D2" t="n">
+        <v>242.989</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8694379329681396</v>
+      </c>
+      <c r="D3" t="n">
+        <v>278.756</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.324655771255493</v>
+      </c>
+      <c r="D4" t="n">
+        <v>217.147</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.431978940963745</v>
+      </c>
+      <c r="D5" t="n">
+        <v>307.887</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8687608242034912</v>
+      </c>
+      <c r="D6" t="n">
+        <v>218.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9952080249786377</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.416204929351807</v>
+      </c>
+      <c r="D8" t="n">
+        <v>290.369</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.099867820739746</v>
+      </c>
+      <c r="D9" t="n">
+        <v>272.863</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9435000419616699</v>
+      </c>
+      <c r="D10" t="n">
+        <v>244.068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.996757984161377</v>
+      </c>
+      <c r="D11" t="n">
+        <v>282.89</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.40349006652832</v>
+      </c>
+      <c r="D12" t="n">
+        <v>273.233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.41694188117981</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8318009376525879</v>
+      </c>
+      <c r="D14" t="n">
+        <v>343.937</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9508631229400635</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1089.088</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.484228134155273</v>
+      </c>
+      <c r="D16" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.576115846633911</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1008.636</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.109746932983398</v>
+      </c>
+      <c r="D18" t="n">
+        <v>364.444</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8247270584106445</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1112.171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.580245971679688</v>
+      </c>
+      <c r="D20" t="n">
+        <v>253.575</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.474468946456909</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1167.721</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9695417881011963</v>
+      </c>
+      <c r="D22" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.910200834274292</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.410207986831665</v>
+      </c>
+      <c r="D24" t="n">
+        <v>284.702</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.492436170578003</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.286196947097778</v>
+      </c>
+      <c r="D2" t="n">
+        <v>294.941</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9381849765777588</v>
+      </c>
+      <c r="D3" t="n">
+        <v>283.969</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.445926904678345</v>
+      </c>
+      <c r="D4" t="n">
+        <v>254.905</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.440474987030029</v>
+      </c>
+      <c r="D5" t="n">
+        <v>302.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9056000709533691</v>
+      </c>
+      <c r="D6" t="n">
+        <v>218.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8436210155487061</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.42018723487854</v>
+      </c>
+      <c r="D8" t="n">
+        <v>271.278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.406368017196655</v>
+      </c>
+      <c r="D9" t="n">
+        <v>332.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8347961902618408</v>
+      </c>
+      <c r="D10" t="n">
+        <v>244.068</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7984089851379395</v>
+      </c>
+      <c r="D11" t="n">
+        <v>255.215</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.341292142868042</v>
+      </c>
+      <c r="D12" t="n">
+        <v>278.864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.233745098114014</v>
+      </c>
+      <c r="D13" t="n">
+        <v>330.904</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8474597930908203</v>
+      </c>
+      <c r="D14" t="n">
+        <v>349.986</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8446190357208252</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1119.757</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.673898935317993</v>
+      </c>
+      <c r="D16" t="n">
+        <v>284.702</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.390219926834106</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1032.177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8623309135437012</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8314499855041504</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1112.171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.447177171707153</v>
+      </c>
+      <c r="D20" t="n">
+        <v>277.116</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.49945592880249</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1038.436</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.010185956954956</v>
+      </c>
+      <c r="D22" t="n">
+        <v>372.03</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8808259963989258</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1090.585</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.338289976119995</v>
+      </c>
+      <c r="D24" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.305205106735229</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1032.177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9510951042175293</v>
+      </c>
+      <c r="D2" t="n">
+        <v>221.051</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8359746932983398</v>
+      </c>
+      <c r="D3" t="n">
+        <v>278.862</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.418161153793335</v>
+      </c>
+      <c r="D4" t="n">
+        <v>255.323</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.483657121658325</v>
+      </c>
+      <c r="D5" t="n">
+        <v>331.322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9400501251220703</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8530750274658203</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.379017114639282</v>
+      </c>
+      <c r="D8" t="n">
+        <v>271.278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.430202960968018</v>
+      </c>
+      <c r="D9" t="n">
+        <v>329.367</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8276839256286621</v>
+      </c>
+      <c r="D10" t="n">
+        <v>238.961</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8790359497070312</v>
+      </c>
+      <c r="D11" t="n">
+        <v>260.428</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.374023914337158</v>
+      </c>
+      <c r="D12" t="n">
+        <v>217.147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.588502168655396</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.273</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.88525390625</v>
+      </c>
+      <c r="D14" t="n">
+        <v>344.355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.861922025680542</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1090.167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.343687057495117</v>
+      </c>
+      <c r="D16" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.334399938583374</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8514540195465088</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.523</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9000608921051025</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1117.802</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.492428064346313</v>
+      </c>
+      <c r="D20" t="n">
+        <v>200.38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.463714122772217</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1030.64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8766260147094727</v>
+      </c>
+      <c r="D22" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8936598300933838</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1113.708</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.393834829330444</v>
+      </c>
+      <c r="D24" t="n">
+        <v>284.702</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.534702777862549</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8262712955474854</v>
+      </c>
+      <c r="D2" t="n">
+        <v>238.437</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8623571395874023</v>
+      </c>
+      <c r="D3" t="n">
+        <v>260.846</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.341804981231689</v>
+      </c>
+      <c r="D4" t="n">
+        <v>278.864</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.604335784912109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>331.322</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9099850654602051</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.05442214012146</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.538917064666748</v>
+      </c>
+      <c r="D8" t="n">
+        <v>276.909</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.490299940109253</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9120588302612305</v>
+      </c>
+      <c r="D10" t="n">
+        <v>244.486</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8385810852050781</v>
+      </c>
+      <c r="D11" t="n">
+        <v>277.259</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.211912393569946</v>
+      </c>
+      <c r="D12" t="n">
+        <v>255.429</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.531318187713623</v>
+      </c>
+      <c r="D13" t="n">
+        <v>269.711</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4.046372890472412</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2268.434</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.512365102767944</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1094.719</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.405431985855103</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222.985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.088993787765503</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1034.76</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9249441623687744</v>
+      </c>
+      <c r="D18" t="n">
+        <v>371.572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.091303110122681</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1092.764</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.358458995819092</v>
+      </c>
+      <c r="D20" t="n">
+        <v>221.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.628895044326782</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1036.271</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9508380889892578</v>
+      </c>
+      <c r="D22" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8973281383514404</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1114.126</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.339241981506348</v>
+      </c>
+      <c r="D24" t="n">
+        <v>279.071</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.719292163848877</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1153.931</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8913750648498535</v>
+      </c>
+      <c r="D2" t="n">
+        <v>238.855</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.329391956329346</v>
+      </c>
+      <c r="D3" t="n">
+        <v>284.387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.392796993255615</v>
+      </c>
+      <c r="D4" t="n">
+        <v>222.778</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.501873970031738</v>
+      </c>
+      <c r="D5" t="n">
+        <v>302.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9431726932525635</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8190939426422119</v>
+      </c>
+      <c r="D7" t="n">
+        <v>274.886</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.308482885360718</v>
+      </c>
+      <c r="D8" t="n">
+        <v>271.278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.602921009063721</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.842</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.003154754638672</v>
+      </c>
+      <c r="D10" t="n">
+        <v>219.448</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8902909755706787</v>
+      </c>
+      <c r="D11" t="n">
+        <v>260.846</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.390017747879028</v>
+      </c>
+      <c r="D12" t="n">
+        <v>273.233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.283452749252319</v>
+      </c>
+      <c r="D13" t="n">
+        <v>331.322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8470468521118164</v>
+      </c>
+      <c r="D14" t="n">
+        <v>367.896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8754940032958984</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1119.757</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.428874969482422</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222.985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.600383996963501</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1172.259</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.451738834381104</v>
+      </c>
+      <c r="D18" t="n">
+        <v>427.24</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.028126001358032</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1065.195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.606039047241211</v>
+      </c>
+      <c r="D20" t="n">
+        <v>221.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.863315105438232</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1031.111</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.5292649269104</v>
+      </c>
+      <c r="D22" t="n">
+        <v>431.778</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.665318012237549</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1148.942</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.152675867080688</v>
+      </c>
+      <c r="D24" t="n">
+        <v>393.029</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.335681200027466</v>
+      </c>
+      <c r="D25" t="n">
+        <v>952.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.163231134414673</v>
+      </c>
+      <c r="D2" t="n">
+        <v>242.989</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.140630006790161</v>
+      </c>
+      <c r="D3" t="n">
+        <v>284.387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.392587661743164</v>
+      </c>
+      <c r="D4" t="n">
+        <v>231.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.541778802871704</v>
+      </c>
+      <c r="D5" t="n">
+        <v>278.797</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.288112878799438</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9204380512237549</v>
+      </c>
+      <c r="D7" t="n">
+        <v>275.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.653620958328247</v>
+      </c>
+      <c r="D8" t="n">
+        <v>197.282</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.544281959533691</v>
+      </c>
+      <c r="D9" t="n">
+        <v>305.932</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8577358722686768</v>
+      </c>
+      <c r="D10" t="n">
+        <v>244.486</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9319207668304443</v>
+      </c>
+      <c r="D11" t="n">
+        <v>253.718</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.494451284408569</v>
+      </c>
+      <c r="D12" t="n">
+        <v>199.237</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.311722993850708</v>
+      </c>
+      <c r="D13" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8411672115325928</v>
+      </c>
+      <c r="D14" t="n">
+        <v>373.527</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9931392669677734</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1094.719</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.238325834274292</v>
+      </c>
+      <c r="D16" t="n">
+        <v>222.985</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.647472143173218</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1177.89</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8421299457550049</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.860849142074585</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1112.171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.490341901779175</v>
+      </c>
+      <c r="D20" t="n">
+        <v>282.747</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.603864669799805</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1032.805</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9626617431640625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>366.399</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9338631629943848</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1112.629</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.579978942871094</v>
+      </c>
+      <c r="D24" t="n">
+        <v>284.702</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.510243892669678</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1175.725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.009032011032104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>242.989</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9549598693847656</v>
+      </c>
+      <c r="D3" t="n">
+        <v>282.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.310403823852539</v>
+      </c>
+      <c r="D4" t="n">
+        <v>222.778</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.372123956680298</v>
+      </c>
+      <c r="D5" t="n">
+        <v>325.691</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8711371421813965</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8879058361053467</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.135210990905762</v>
+      </c>
+      <c r="D8" t="n">
+        <v>224.384</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.458491802215576</v>
+      </c>
+      <c r="D9" t="n">
+        <v>338.559</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9530069828033447</v>
+      </c>
+      <c r="D10" t="n">
+        <v>244.486</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9027168750762939</v>
+      </c>
+      <c r="D11" t="n">
+        <v>277.259</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.312724828720093</v>
+      </c>
+      <c r="D12" t="n">
+        <v>278.864</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.409519195556641</v>
+      </c>
+      <c r="D13" t="n">
+        <v>331.322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8852660655975342</v>
+      </c>
+      <c r="D14" t="n">
+        <v>367.896</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8862626552581787</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1096.216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.38067889213562</v>
+      </c>
+      <c r="D16" t="n">
+        <v>255.53</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.427468061447144</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1032.595</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8879690170288086</v>
+      </c>
+      <c r="D18" t="n">
+        <v>365.941</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8929440975189209</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1117.802</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.565042018890381</v>
+      </c>
+      <c r="D20" t="n">
+        <v>363.742</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.563444137573242</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1030.64</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9166970252990723</v>
+      </c>
+      <c r="D22" t="n">
+        <v>368.002</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9031670093536377</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1090.585</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.438425064086914</v>
+      </c>
+      <c r="D24" t="n">
+        <v>255.53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.610988855361938</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1177.89</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9679319858551025</v>
+        <v>0.8082330226898193</v>
       </c>
       <c r="D2" t="n">
-        <v>192.874</v>
+        <v>211.089</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.017293930053711</v>
+        <v>0.8281779289245605</v>
       </c>
       <c r="D3" t="n">
-        <v>217.366</v>
+        <v>231.865</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.496531009674072</v>
+        <v>1.372590780258179</v>
       </c>
       <c r="D4" t="n">
-        <v>194.495</v>
+        <v>247.845</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.445976734161377</v>
+        <v>1.333353042602539</v>
       </c>
       <c r="D5" t="n">
-        <v>231.081</v>
+        <v>255.259</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8314151763916016</v>
+        <v>0.8031561374664307</v>
       </c>
       <c r="D6" t="n">
-        <v>189.423</v>
+        <v>213.687</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.817173957824707</v>
+        <v>0.9494771957397461</v>
       </c>
       <c r="D7" t="n">
-        <v>208.284</v>
+        <v>232.548</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.317369222640991</v>
+        <v>1.317841768264771</v>
       </c>
       <c r="D8" t="n">
-        <v>247.13</v>
+        <v>243.976</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.336597204208374</v>
+        <v>1.325642108917236</v>
       </c>
       <c r="D9" t="n">
-        <v>292.908</v>
+        <v>280.98</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8188889026641846</v>
+        <v>0.912916898727417</v>
       </c>
       <c r="D10" t="n">
-        <v>218.377</v>
+        <v>210.01</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9037449359893799</v>
+        <v>0.9027929306030273</v>
       </c>
       <c r="D11" t="n">
-        <v>240.232</v>
+        <v>231.865</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.407274007797241</v>
+        <v>1.44760799407959</v>
       </c>
       <c r="D12" t="n">
-        <v>250.581</v>
+        <v>191.759</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.260472059249878</v>
+        <v>1.266865968704224</v>
       </c>
       <c r="D13" t="n">
-        <v>218.904</v>
+        <v>222.296</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.885059118270874</v>
+        <v>0.8570239543914795</v>
       </c>
       <c r="D14" t="n">
-        <v>324.059</v>
+        <v>336.643</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8961169719696045</v>
+        <v>0.9419488906860352</v>
       </c>
       <c r="D15" t="n">
-        <v>754</v>
+        <v>744.136</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>2.317691802978516</v>
+        <v>1.302263021469116</v>
       </c>
       <c r="D16" t="n">
-        <v>339.439</v>
+        <v>249.659</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.598947048187256</v>
+        <v>1.492069959640503</v>
       </c>
       <c r="D17" t="n">
-        <v>809.968</v>
+        <v>663.684</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8968498706817627</v>
+        <v>0.820634126663208</v>
       </c>
       <c r="D18" t="n">
-        <v>341.977</v>
+        <v>339.241</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>1.190317153930664</v>
+        <v>0.9272921085357666</v>
       </c>
       <c r="D19" t="n">
-        <v>749.052</v>
+        <v>740.6849999999999</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.487429141998291</v>
+        <v>1.260311126708984</v>
       </c>
       <c r="D20" t="n">
-        <v>192.858</v>
+        <v>222.667</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.458701133728027</v>
+        <v>1.670062780380249</v>
       </c>
       <c r="D21" t="n">
-        <v>806.5170000000001</v>
+        <v>780.24</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8109021186828613</v>
+        <v>0.8111417293548584</v>
       </c>
       <c r="D22" t="n">
-        <v>338.3</v>
+        <v>337.061</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8410711288452148</v>
+        <v>1.099140882492065</v>
       </c>
       <c r="D23" t="n">
-        <v>754</v>
+        <v>751.264</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.347014904022217</v>
+        <v>1.268932819366455</v>
       </c>
       <c r="D24" t="n">
-        <v>252.395</v>
+        <v>386.74</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.502388000488281</v>
+        <v>1.579174041748047</v>
       </c>
       <c r="D25" t="n">
-        <v>788.599</v>
+        <v>783.797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8700618743896484</v>
+      </c>
+      <c r="D2" t="n">
+        <v>217.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8248438835144043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>237.496</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.149939060211182</v>
+      </c>
+      <c r="D4" t="n">
+        <v>253.476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.209259986877441</v>
+      </c>
+      <c r="D5" t="n">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8610007762908936</v>
+      </c>
+      <c r="D6" t="n">
+        <v>213.687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9014101028442383</v>
+      </c>
+      <c r="D7" t="n">
+        <v>234.045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.481596946716309</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253.586</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.276604175567627</v>
+      </c>
+      <c r="D9" t="n">
+        <v>275.349</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7982399463653564</v>
+      </c>
+      <c r="D10" t="n">
+        <v>217.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9495999813079834</v>
+      </c>
+      <c r="D11" t="n">
+        <v>237.496</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.35818886756897</v>
+      </c>
+      <c r="D12" t="n">
+        <v>257.037</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.330865144729614</v>
+      </c>
+      <c r="D13" t="n">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8139340877532959</v>
+      </c>
+      <c r="D14" t="n">
+        <v>342.692</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.905271053314209</v>
+      </c>
+      <c r="D15" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.170109987258911</v>
+      </c>
+      <c r="D16" t="n">
+        <v>363.199</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.48587703704834</v>
+      </c>
+      <c r="D17" t="n">
+        <v>669.7329999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8860609531402588</v>
+      </c>
+      <c r="D18" t="n">
+        <v>310.069</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8547897338867188</v>
+      </c>
+      <c r="D19" t="n">
+        <v>746.316</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.30162787437439</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.839</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.316115856170654</v>
+      </c>
+      <c r="D21" t="n">
+        <v>798.15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7964930534362793</v>
+      </c>
+      <c r="D22" t="n">
+        <v>313.52</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8844892978668213</v>
+      </c>
+      <c r="D23" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.290494203567505</v>
+      </c>
+      <c r="D24" t="n">
+        <v>255.29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.210264682769775</v>
+      </c>
+      <c r="D25" t="n">
+        <v>801.183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8261971473693848</v>
+      </c>
+      <c r="D2" t="n">
+        <v>217.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8658311367034912</v>
+      </c>
+      <c r="D3" t="n">
+        <v>231.865</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.227321147918701</v>
+      </c>
+      <c r="D4" t="n">
+        <v>224.304</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.359781265258789</v>
+      </c>
+      <c r="D5" t="n">
+        <v>255.259</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9053528308868408</v>
+      </c>
+      <c r="D6" t="n">
+        <v>211.772</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8208639621734619</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.256955862045288</v>
+      </c>
+      <c r="D8" t="n">
+        <v>164.767</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.509422779083252</v>
+      </c>
+      <c r="D9" t="n">
+        <v>284.541</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8574690818786621</v>
+      </c>
+      <c r="D10" t="n">
+        <v>215.223</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8079421520233154</v>
+      </c>
+      <c r="D11" t="n">
+        <v>214.061</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.125540971755981</v>
+      </c>
+      <c r="D12" t="n">
+        <v>173.849</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.495956182479858</v>
+      </c>
+      <c r="D13" t="n">
+        <v>269.664</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.813927173614502</v>
+      </c>
+      <c r="D14" t="n">
+        <v>337.061</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8301818370819092</v>
+      </c>
+      <c r="D15" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.05417275428772</v>
+      </c>
+      <c r="D16" t="n">
+        <v>193.573</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.511977910995483</v>
+      </c>
+      <c r="D17" t="n">
+        <v>801.601</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8569319248199463</v>
+      </c>
+      <c r="D18" t="n">
+        <v>333.61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8599209785461426</v>
+      </c>
+      <c r="D19" t="n">
+        <v>742.182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.314570188522339</v>
+      </c>
+      <c r="D20" t="n">
+        <v>246.208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.232735157012939</v>
+      </c>
+      <c r="D21" t="n">
+        <v>779.822</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8357157707214355</v>
+      </c>
+      <c r="D22" t="n">
+        <v>337.061</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8117198944091797</v>
+      </c>
+      <c r="D23" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.299583911895752</v>
+      </c>
+      <c r="D24" t="n">
+        <v>249.659</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.527168035507202</v>
+      </c>
+      <c r="D25" t="n">
+        <v>807.232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8532478809356689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>193.597</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8546051979064941</v>
+      </c>
+      <c r="D3" t="n">
+        <v>213.955</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.215872049331665</v>
+      </c>
+      <c r="D4" t="n">
+        <v>253.058</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.533045053482056</v>
+      </c>
+      <c r="D5" t="n">
+        <v>284.431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8301560878753662</v>
+      </c>
+      <c r="D6" t="n">
+        <v>208.056</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.002856016159058</v>
+      </c>
+      <c r="D7" t="n">
+        <v>226.917</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.299954891204834</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253.586</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.308635234832764</v>
+      </c>
+      <c r="D9" t="n">
+        <v>275.349</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8904781341552734</v>
+      </c>
+      <c r="D10" t="n">
+        <v>187.966</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8367528915405273</v>
+      </c>
+      <c r="D11" t="n">
+        <v>231.865</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.299627065658569</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.845</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.317413091659546</v>
+      </c>
+      <c r="D13" t="n">
+        <v>284.431</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8484573364257812</v>
+      </c>
+      <c r="D14" t="n">
+        <v>342.692</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8636147975921631</v>
+      </c>
+      <c r="D15" t="n">
+        <v>745.633</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.35848593711853</v>
+      </c>
+      <c r="D16" t="n">
+        <v>255.29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.306180238723755</v>
+      </c>
+      <c r="D17" t="n">
+        <v>640.561</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9225149154663086</v>
+      </c>
+      <c r="D18" t="n">
+        <v>314.203</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8330633640289307</v>
+      </c>
+      <c r="D19" t="n">
+        <v>724.272</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.468250751495361</v>
+      </c>
+      <c r="D20" t="n">
+        <v>383.707</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.366720914840698</v>
+      </c>
+      <c r="D21" t="n">
+        <v>637.11</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8509550094604492</v>
+      </c>
+      <c r="D22" t="n">
+        <v>337.061</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8152129650115967</v>
+      </c>
+      <c r="D23" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.337875127792358</v>
+      </c>
+      <c r="D24" t="n">
+        <v>255.29</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.505025148391724</v>
+      </c>
+      <c r="D25" t="n">
+        <v>646.192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8093152046203613</v>
+      </c>
+      <c r="D2" t="n">
+        <v>187.966</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8714032173156738</v>
+      </c>
+      <c r="D3" t="n">
+        <v>237.496</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.311431884765625</v>
+      </c>
+      <c r="D4" t="n">
+        <v>247.845</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.209555864334106</v>
+      </c>
+      <c r="D5" t="n">
+        <v>284.431</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8183321952819824</v>
+      </c>
+      <c r="D6" t="n">
+        <v>213.687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9264688491821289</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.640352010726929</v>
+      </c>
+      <c r="D8" t="n">
+        <v>255.751</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.341115951538086</v>
+      </c>
+      <c r="D9" t="n">
+        <v>275.349</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8866450786590576</v>
+      </c>
+      <c r="D10" t="n">
+        <v>217.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.063691139221191</v>
+      </c>
+      <c r="D11" t="n">
+        <v>235.999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.452982187271118</v>
+      </c>
+      <c r="D12" t="n">
+        <v>224.304</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.416985988616943</v>
+      </c>
+      <c r="D13" t="n">
+        <v>293.205</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8446459770202637</v>
+      </c>
+      <c r="D14" t="n">
+        <v>313.52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8714587688446045</v>
+      </c>
+      <c r="D15" t="n">
+        <v>745.633</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.310487031936646</v>
+      </c>
+      <c r="D16" t="n">
+        <v>255.29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.658748865127563</v>
+      </c>
+      <c r="D17" t="n">
+        <v>646.192</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9122748374938965</v>
+      </c>
+      <c r="D18" t="n">
+        <v>338.823</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8356070518493652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>742.182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.100574970245361</v>
+      </c>
+      <c r="D20" t="n">
+        <v>189.704</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.351509809494019</v>
+      </c>
+      <c r="D21" t="n">
+        <v>798.15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9346199035644531</v>
+      </c>
+      <c r="D22" t="n">
+        <v>342.274</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8062012195587158</v>
+      </c>
+      <c r="D23" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.371668815612793</v>
+      </c>
+      <c r="D24" t="n">
+        <v>254.872</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.235797166824341</v>
+      </c>
+      <c r="D25" t="n">
+        <v>669.7329999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8858559131622314</v>
+      </c>
+      <c r="D2" t="n">
+        <v>217.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.81563401222229</v>
+      </c>
+      <c r="D3" t="n">
+        <v>237.078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.342916965484619</v>
+      </c>
+      <c r="D4" t="n">
+        <v>247.845</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.36237907409668</v>
+      </c>
+      <c r="D5" t="n">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8293821811676025</v>
+      </c>
+      <c r="D6" t="n">
+        <v>213.687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8238170146942139</v>
+      </c>
+      <c r="D7" t="n">
+        <v>210.086</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.307843208312988</v>
+      </c>
+      <c r="D8" t="n">
+        <v>226.484</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.279376745223999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>281.086</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8834590911865234</v>
+      </c>
+      <c r="D10" t="n">
+        <v>217.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7785732746124268</v>
+      </c>
+      <c r="D11" t="n">
+        <v>235.999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.323873996734619</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.845</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.282758235931396</v>
+      </c>
+      <c r="D13" t="n">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8290820121765137</v>
+      </c>
+      <c r="D14" t="n">
+        <v>337.061</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8891839981079102</v>
+      </c>
+      <c r="D15" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.392218112945557</v>
+      </c>
+      <c r="D16" t="n">
+        <v>255.29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.328391075134277</v>
+      </c>
+      <c r="D17" t="n">
+        <v>663.684</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8955790996551514</v>
+      </c>
+      <c r="D18" t="n">
+        <v>339.241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9099030494689941</v>
+      </c>
+      <c r="D19" t="n">
+        <v>747.813</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.335933923721313</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.839</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.532034873962402</v>
+      </c>
+      <c r="D21" t="n">
+        <v>660.651</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8251721858978271</v>
+      </c>
+      <c r="D22" t="n">
+        <v>337.061</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.949063777923584</v>
+      </c>
+      <c r="D23" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.380526065826416</v>
+      </c>
+      <c r="D24" t="n">
+        <v>175.663</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.4599449634552</v>
+      </c>
+      <c r="D25" t="n">
+        <v>807.232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.843268871307373</v>
+      </c>
+      <c r="D2" t="n">
+        <v>211.507</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8544719219207764</v>
+      </c>
+      <c r="D3" t="n">
+        <v>237.078</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.323900938034058</v>
+      </c>
+      <c r="D4" t="n">
+        <v>253.476</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.538843154907227</v>
+      </c>
+      <c r="D5" t="n">
+        <v>293.623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8403210639953613</v>
+      </c>
+      <c r="D6" t="n">
+        <v>213.687</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8498921394348145</v>
+      </c>
+      <c r="D7" t="n">
+        <v>234.045</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.244542837142944</v>
+      </c>
+      <c r="D8" t="n">
+        <v>220.435</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.292956829071045</v>
+      </c>
+      <c r="D9" t="n">
+        <v>274.931</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8298869132995605</v>
+      </c>
+      <c r="D10" t="n">
+        <v>211.089</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.889484167098999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>237.496</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.435627937316895</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.845</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.619533777236938</v>
+      </c>
+      <c r="D13" t="n">
+        <v>284.431</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8473269939422607</v>
+      </c>
+      <c r="D14" t="n">
+        <v>319.151</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8862147331237793</v>
+      </c>
+      <c r="D15" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.227082014083862</v>
+      </c>
+      <c r="D16" t="n">
+        <v>226.118</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.533132791519165</v>
+      </c>
+      <c r="D17" t="n">
+        <v>664.102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9014167785644531</v>
+      </c>
+      <c r="D18" t="n">
+        <v>339.241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8476908206939697</v>
+      </c>
+      <c r="D19" t="n">
+        <v>747.813</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.286509037017822</v>
+      </c>
+      <c r="D20" t="n">
+        <v>222.667</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.537977933883667</v>
+      </c>
+      <c r="D21" t="n">
+        <v>642.323</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8468201160430908</v>
+      </c>
+      <c r="D22" t="n">
+        <v>342.274</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9700219631195068</v>
+      </c>
+      <c r="D23" t="n">
+        <v>722.092</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.401675939559937</v>
+      </c>
+      <c r="D24" t="n">
+        <v>254.872</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.481281995773315</v>
+      </c>
+      <c r="D25" t="n">
+        <v>584.475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9180963039398193</v>
+      </c>
+      <c r="D2" t="n">
+        <v>210.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8731527328491211</v>
+      </c>
+      <c r="D3" t="n">
+        <v>237.496</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.401324987411499</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.262</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.352750062942505</v>
+      </c>
+      <c r="D5" t="n">
+        <v>231.906</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8319571018218994</v>
+      </c>
+      <c r="D6" t="n">
+        <v>207.638</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8029060363769531</v>
+      </c>
+      <c r="D7" t="n">
+        <v>226.917</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.46808910369873</v>
+      </c>
+      <c r="D8" t="n">
+        <v>164.349</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.346230030059814</v>
+      </c>
+      <c r="D9" t="n">
+        <v>280.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7907562255859375</v>
+      </c>
+      <c r="D10" t="n">
+        <v>215.641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9150869846343994</v>
+      </c>
+      <c r="D11" t="n">
+        <v>235.999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.301679849624634</v>
+      </c>
+      <c r="D12" t="n">
+        <v>166.303</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.435588121414185</v>
+      </c>
+      <c r="D13" t="n">
+        <v>228.345</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9088470935821533</v>
+      </c>
+      <c r="D14" t="n">
+        <v>341.195</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8572533130645752</v>
+      </c>
+      <c r="D15" t="n">
+        <v>722.092</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.223829984664917</v>
+      </c>
+      <c r="D16" t="n">
+        <v>193.573</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.588578224182129</v>
+      </c>
+      <c r="D17" t="n">
+        <v>745.515</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8802928924560547</v>
+      </c>
+      <c r="D18" t="n">
+        <v>333.61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7750117778778076</v>
+      </c>
+      <c r="D19" t="n">
+        <v>746.528</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.226778984069824</v>
+      </c>
+      <c r="D20" t="n">
+        <v>246.208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.377037048339844</v>
+      </c>
+      <c r="D21" t="n">
+        <v>665.864</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8051290512084961</v>
+      </c>
+      <c r="D22" t="n">
+        <v>342.692</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8089210987091064</v>
+      </c>
+      <c r="D23" t="n">
+        <v>745.633</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.197085857391357</v>
+      </c>
+      <c r="D24" t="n">
+        <v>254.872</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.397660970687866</v>
+      </c>
+      <c r="D25" t="n">
+        <v>607.598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9063520431518555</v>
+      </c>
+      <c r="D2" t="n">
+        <v>211.089</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8239657878875732</v>
+      </c>
+      <c r="D3" t="n">
+        <v>231.865</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.311265230178833</v>
+      </c>
+      <c r="D4" t="n">
+        <v>229.935</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.369422912597656</v>
+      </c>
+      <c r="D5" t="n">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.802293062210083</v>
+      </c>
+      <c r="D6" t="n">
+        <v>211.772</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8760809898376465</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.235365867614746</v>
+      </c>
+      <c r="D8" t="n">
+        <v>250.025</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.411249876022339</v>
+      </c>
+      <c r="D9" t="n">
+        <v>280.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.828510046005249</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.793442964553833</v>
+      </c>
+      <c r="D11" t="n">
+        <v>231.447</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.314445972442627</v>
+      </c>
+      <c r="D12" t="n">
+        <v>253.058</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.565275907516479</v>
+      </c>
+      <c r="D13" t="n">
+        <v>284.431</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6190168857574463</v>
+      </c>
+      <c r="D14" t="n">
+        <v>121.011</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8371660709381104</v>
+      </c>
+      <c r="D15" t="n">
+        <v>751.264</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.359798908233643</v>
+      </c>
+      <c r="D16" t="n">
+        <v>255.29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.462849140167236</v>
+      </c>
+      <c r="D17" t="n">
+        <v>806.814</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8544151782989502</v>
+      </c>
+      <c r="D18" t="n">
+        <v>333.61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9156961441040039</v>
+      </c>
+      <c r="D19" t="n">
+        <v>740.6849999999999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.418462991714478</v>
+      </c>
+      <c r="D20" t="n">
+        <v>172.212</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.517601013183594</v>
+      </c>
+      <c r="D21" t="n">
+        <v>610.196</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9236600399017334</v>
+      </c>
+      <c r="D22" t="n">
+        <v>337.061</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.813143253326416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>745.215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.341028690338135</v>
+      </c>
+      <c r="D24" t="n">
+        <v>199.204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.434937238693237</v>
+      </c>
+      <c r="D25" t="n">
+        <v>777.6420000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.793147087097168</v>
+      </c>
+      <c r="D2" t="n">
+        <v>211.036</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8657491207122803</v>
+      </c>
+      <c r="D3" t="n">
+        <v>231.865</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.256705045700073</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.759</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.199942827224731</v>
+      </c>
+      <c r="D5" t="n">
+        <v>284.013</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9861898422241211</v>
+      </c>
+      <c r="D6" t="n">
+        <v>206.141</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9297900199890137</v>
+      </c>
+      <c r="D7" t="n">
+        <v>232.548</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.380581855773926</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253.586</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.249855041503906</v>
+      </c>
+      <c r="D9" t="n">
+        <v>275.349</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7908778190612793</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9452629089355469</v>
+      </c>
+      <c r="D11" t="n">
+        <v>235.999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.095597743988037</v>
+      </c>
+      <c r="D12" t="n">
+        <v>247.845</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.381579875946045</v>
+      </c>
+      <c r="D13" t="n">
+        <v>278.8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8826718330383301</v>
+      </c>
+      <c r="D14" t="n">
+        <v>336.643</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.837306022644043</v>
+      </c>
+      <c r="D15" t="n">
+        <v>745.215</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.447572946548462</v>
+      </c>
+      <c r="D16" t="n">
+        <v>249.659</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.467314004898071</v>
+      </c>
+      <c r="D17" t="n">
+        <v>664.102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8708240985870361</v>
+      </c>
+      <c r="D18" t="n">
+        <v>339.241</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9256930351257324</v>
+      </c>
+      <c r="D19" t="n">
+        <v>747.813</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.415555000305176</v>
+      </c>
+      <c r="D20" t="n">
+        <v>189.704</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.296836137771606</v>
+      </c>
+      <c r="D21" t="n">
+        <v>665.864</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8133797645568848</v>
+      </c>
+      <c r="D22" t="n">
+        <v>336.643</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8125360012054443</v>
+      </c>
+      <c r="D23" t="n">
+        <v>722.092</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.277534008026123</v>
+      </c>
+      <c r="D24" t="n">
+        <v>254.872</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.433277130126953</v>
+      </c>
+      <c r="D25" t="n">
+        <v>664.102</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
@@ -525,387 +525,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.8910560607910156</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>245.863</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8288571834564209</v>
+      </c>
+      <c r="D2" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8479418754577637</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>284.267</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8873360157012939</v>
+      </c>
+      <c r="D3" t="n">
+        <v>206.934</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.073753118515015</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>222.792</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.353506803512573</v>
+      </c>
+      <c r="D4" t="n">
+        <v>260.754</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.300999879837036</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>332.699</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.469115257263184</v>
+      </c>
+      <c r="D5" t="n">
+        <v>259.394</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.917442798614502</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>242.411</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9812417030334473</v>
+      </c>
+      <c r="D6" t="n">
+        <v>208.056</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.7980921268463135</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>283.809</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8512952327728271</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.382101058959961</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>283.917</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.334501028060913</v>
+      </c>
+      <c r="D8" t="n">
+        <v>244.394</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.355964183807373</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>330.744</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.400161027908325</v>
+      </c>
+      <c r="D9" t="n">
+        <v>251.808</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.9097108840942383</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>245.863</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8405680656433105</v>
+      </c>
+      <c r="D10" t="n">
+        <v>208.514</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.8503620624542236</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>284.267</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8232841491699219</v>
+      </c>
+      <c r="D11" t="n">
+        <v>230.369</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.326375961303711</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>289.433</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.113610029220581</v>
+      </c>
+      <c r="D12" t="n">
+        <v>199.037</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.299466133117676</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>309.158</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.361845731735229</v>
+      </c>
+      <c r="D13" t="n">
+        <v>276.886</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.8411219120025635</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>374.904</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8609657287597656</v>
+      </c>
+      <c r="D14" t="n">
+        <v>335.565</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.8720970153808594</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1126.765</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.922034740447998</v>
+      </c>
+      <c r="D15" t="n">
+        <v>805.854</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.338328123092651</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>429.209</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.297516107559204</v>
+      </c>
+      <c r="D16" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.546121120452881</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.385925769805908</v>
+      </c>
+      <c r="D17" t="n">
+        <v>668.237</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.8626501560211182</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>378.58</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9323649406433105</v>
+      </c>
+      <c r="D18" t="n">
+        <v>333.61</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.9056928157806396</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1124.81</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8319988250732422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>741.764</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.534274101257324</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>266.214</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.311360120773315</v>
+      </c>
+      <c r="D20" t="n">
+        <v>195.753</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.221613168716431</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1037.648</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.369520902633667</v>
+      </c>
+      <c r="D21" t="n">
+        <v>660.651</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8085658550262451</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>373.407</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.04117488861084</v>
+      </c>
+      <c r="D22" t="n">
+        <v>335.565</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.8968219757080078</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1119.637</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8308680057525635</v>
+      </c>
+      <c r="D23" t="n">
+        <v>720.596</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.364736080169678</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>235.624</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.345360994338989</v>
+      </c>
+      <c r="D24" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.41569995880127</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1021.693</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.484055995941162</v>
+      </c>
+      <c r="D25" t="n">
+        <v>606.52</v>
       </c>
     </row>
   </sheetData>
@@ -956,387 +956,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.8315460681915283</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>222.322</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.810154914855957</v>
+      </c>
+      <c r="D2" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8959081172943115</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>285.764</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.861483097076416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>230.369</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.279682159423828</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>280.241</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.132116079330444</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.845</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.356754064559937</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>341.891</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.404752016067505</v>
+      </c>
+      <c r="D5" t="n">
+        <v>282.935</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.8773670196533203</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>249.539</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8928709030151367</v>
+      </c>
+      <c r="D6" t="n">
+        <v>213.687</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.8041610717773438</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>283.809</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8659389019012451</v>
+      </c>
+      <c r="D7" t="n">
+        <v>234.045</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.390221834182739</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>283.917</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.37021803855896</v>
+      </c>
+      <c r="D8" t="n">
+        <v>250.025</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.342127799987793</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>307.203</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.569159030914307</v>
+      </c>
+      <c r="D9" t="n">
+        <v>280.98</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.8497879505157471</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>245.863</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8274850845336914</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.9541950225830078</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>267.854</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8606972694396973</v>
+      </c>
+      <c r="D11" t="n">
+        <v>206.828</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.222779035568237</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>224.155</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.250967979431152</v>
+      </c>
+      <c r="D12" t="n">
+        <v>251.98</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.175872087478638</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>276.613</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.396878719329834</v>
+      </c>
+      <c r="D13" t="n">
+        <v>221.218</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.8909740447998047</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>351.363</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9434287548065186</v>
+      </c>
+      <c r="D14" t="n">
+        <v>339.699</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.8380320072174072</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1101.727</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8686141967773438</v>
+      </c>
+      <c r="D15" t="n">
+        <v>744.1369999999999</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.265645027160645</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>262.538</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.290163040161133</v>
+      </c>
+      <c r="D16" t="n">
+        <v>253.794</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.551610708236694</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.40190601348877</v>
+      </c>
+      <c r="D17" t="n">
+        <v>662.606</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.8160698413848877</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>372.949</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8204131126403809</v>
+      </c>
+      <c r="D18" t="n">
+        <v>339.241</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.9109129905700684</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1119.179</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8468606472015381</v>
+      </c>
+      <c r="D19" t="n">
+        <v>747.813</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.175318002700806</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>233.669</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.316023111343384</v>
+      </c>
+      <c r="D20" t="n">
+        <v>246.208</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.575351238250732</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1180.778</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.510481119155884</v>
+      </c>
+      <c r="D21" t="n">
+        <v>803.7809999999999</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8486969470977783</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>351.363</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8400402069091797</v>
+      </c>
+      <c r="D22" t="n">
+        <v>335.565</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.8659570217132568</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1119.637</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8706140518188477</v>
+      </c>
+      <c r="D23" t="n">
+        <v>697.1609999999999</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.35369610786438</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>206.452</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.292871952056885</v>
+      </c>
+      <c r="D24" t="n">
+        <v>385.662</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.562875032424927</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.4704430103302</v>
+      </c>
+      <c r="D25" t="n">
+        <v>667.819</v>
       </c>
     </row>
   </sheetData>
@@ -1387,387 +1387,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.8321230411529541</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>249.997</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8375678062438965</v>
+      </c>
+      <c r="D2" t="n">
+        <v>209.593</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8287341594696045</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>285.764</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8108170032501221</v>
+      </c>
+      <c r="D3" t="n">
+        <v>229.951</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.158468961715698</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>295.064</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.218616962432861</v>
+      </c>
+      <c r="D4" t="n">
+        <v>246.349</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.321549892425537</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>338.33</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.448771953582764</v>
+      </c>
+      <c r="D5" t="n">
+        <v>221.218</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.8013091087341309</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>220.367</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8786208629608154</v>
+      </c>
+      <c r="D6" t="n">
+        <v>212.19</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.8401010036468506</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>287.943</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8065862655639648</v>
+      </c>
+      <c r="D7" t="n">
+        <v>227.996</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.339153051376343</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>278.286</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.518304109573364</v>
+      </c>
+      <c r="D8" t="n">
+        <v>618.474</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.354324102401733</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>330.744</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.440479040145874</v>
+      </c>
+      <c r="D9" t="n">
+        <v>280.98</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.870995044708252</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>227.953</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8475630283355713</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.9526488780975342</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>284.267</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8648550510406494</v>
+      </c>
+      <c r="D11" t="n">
+        <v>206.828</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.29771614074707</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>280.241</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.235528945922852</v>
+      </c>
+      <c r="D12" t="n">
+        <v>195.894</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.074602842330933</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>276.613</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.176319122314453</v>
+      </c>
+      <c r="D13" t="n">
+        <v>220.8</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.7883529663085938</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>374.904</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9374890327453613</v>
+      </c>
+      <c r="D14" t="n">
+        <v>334.068</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.9945158958435059</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1126.765</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7842850685119629</v>
+      </c>
+      <c r="D15" t="n">
+        <v>726.227</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.290060043334961</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>286.079</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.189038991928101</v>
+      </c>
+      <c r="D16" t="n">
+        <v>192.077</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.487787961959839</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1182.733</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.429535865783691</v>
+      </c>
+      <c r="D17" t="n">
+        <v>662.606</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.8252861499786377</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>378.58</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.84720778465271</v>
+      </c>
+      <c r="D18" t="n">
+        <v>315.282</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.8057057857513428</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1101.269</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8527250289916992</v>
+      </c>
+      <c r="D19" t="n">
+        <v>741.764</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.432977199554443</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>284.124</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.30119800567627</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.421</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.527167081832886</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>981.562</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.430778741836548</v>
+      </c>
+      <c r="D21" t="n">
+        <v>666.282</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8978579044342041</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>349.866</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8862719535827637</v>
+      </c>
+      <c r="D22" t="n">
+        <v>341.196</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.8652827739715576</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1103.224</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8089301586151123</v>
+      </c>
+      <c r="D23" t="n">
+        <v>743.7190000000001</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.417807817459106</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>429.209</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.449854135513306</v>
+      </c>
+      <c r="D24" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.513857841491699</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.324885129928589</v>
+      </c>
+      <c r="D25" t="n">
+        <v>800.105</v>
       </c>
     </row>
   </sheetData>
@@ -1818,387 +1818,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.8118231296539307</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>249.997</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9481360912322998</v>
+      </c>
+      <c r="D2" t="n">
+        <v>215.642</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8108060359954834</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>284.267</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9156439304351807</v>
+      </c>
+      <c r="D3" t="n">
+        <v>235.582</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.270046949386597</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>280.241</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.470412015914917</v>
+      </c>
+      <c r="D4" t="n">
+        <v>251.562</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.466939210891724</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>332.699</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.349148035049438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>282.935</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.8371889591217041</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>248.042</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9427111148834229</v>
+      </c>
+      <c r="D6" t="n">
+        <v>208.056</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.8435089588165283</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>283.809</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8506970405578613</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.345536947250366</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>254.745</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.392905950546265</v>
+      </c>
+      <c r="D8" t="n">
+        <v>235.258</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.371237993240356</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>330.744</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.341666698455811</v>
+      </c>
+      <c r="D9" t="n">
+        <v>251.808</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.8020579814910889</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>245.863</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8199172019958496</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.8992998600006104</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>262.223</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9230411052703857</v>
+      </c>
+      <c r="D11" t="n">
+        <v>229.951</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.186946153640747</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>280.241</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.369332790374756</v>
+      </c>
+      <c r="D12" t="n">
+        <v>245.931</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.211263179779053</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>309.158</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.485013008117676</v>
+      </c>
+      <c r="D13" t="n">
+        <v>277.304</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.8807621002197266</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>374.904</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8568179607391357</v>
+      </c>
+      <c r="D14" t="n">
+        <v>335.147</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.8190481662750244</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1097.593</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8689038753509521</v>
+      </c>
+      <c r="D15" t="n">
+        <v>749.35</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.279453992843628</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>229.993</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.382317066192627</v>
+      </c>
+      <c r="D16" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.376089096069336</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1045.234</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.697431087493896</v>
+      </c>
+      <c r="D17" t="n">
+        <v>644.278</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.9479579925537109</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>378.58</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9379329681396484</v>
+      </c>
+      <c r="D18" t="n">
+        <v>331.695</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.9152157306671143</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1117.682</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9217221736907959</v>
+      </c>
+      <c r="D19" t="n">
+        <v>746.316</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.35959792137146</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>266.214</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.292079925537109</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.839</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.565308094024658</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1175.147</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.452974081039429</v>
+      </c>
+      <c r="D21" t="n">
+        <v>803.7809999999999</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8593428134918213</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>374.904</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7874789237976074</v>
+      </c>
+      <c r="D22" t="n">
+        <v>310.527</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.9265730381011963</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1103.224</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9249069690704346</v>
+      </c>
+      <c r="D23" t="n">
+        <v>748.271</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.382116079330444</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>423.578</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.270299911499023</v>
+      </c>
+      <c r="D24" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.504901170730591</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.388406991958618</v>
+      </c>
+      <c r="D25" t="n">
+        <v>662.606</v>
       </c>
     </row>
   </sheetData>
@@ -2249,387 +2249,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.8005261421203613</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>244.366</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8397872447967529</v>
+      </c>
+      <c r="D2" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.9568572044372559</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>291.395</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8856720924377441</v>
+      </c>
+      <c r="D3" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.37700080871582</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>285.872</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.345906019210815</v>
+      </c>
+      <c r="D4" t="n">
+        <v>190.263</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.069431066513062</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>338.33</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.200135231018066</v>
+      </c>
+      <c r="D5" t="n">
+        <v>259.394</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>1.002366065979004</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>299.994</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8569478988647461</v>
+      </c>
+      <c r="D6" t="n">
+        <v>208.056</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.8982009887695312</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>260.268</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8206429481506348</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>2.042529821395874</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>276.536</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.264251947402954</v>
+      </c>
+      <c r="D8" t="n">
+        <v>220.853</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.310512065887451</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>316.395</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.343515157699585</v>
+      </c>
+      <c r="D9" t="n">
+        <v>266.631</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.7934792041778564</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>244.366</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8591580390930176</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.8033840656280518</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>267.854</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8629608154296875</v>
+      </c>
+      <c r="D11" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.278639078140259</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>285.872</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.431363105773926</v>
+      </c>
+      <c r="D12" t="n">
+        <v>190.263</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.505104780197144</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>323.981</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.297114849090576</v>
+      </c>
+      <c r="D13" t="n">
+        <v>253.869</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.8185999393463135</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>374.904</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8585159778594971</v>
+      </c>
+      <c r="D14" t="n">
+        <v>335.565</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.8548209667205811</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1097.593</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8627121448516846</v>
+      </c>
+      <c r="D15" t="n">
+        <v>749.768</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.324593782424927</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>268.169</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.304711103439331</v>
+      </c>
+      <c r="D16" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.421102046966553</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1045.234</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.718984842300415</v>
+      </c>
+      <c r="D17" t="n">
+        <v>802.27</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.8364078998565674</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>349.408</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8122079372406006</v>
+      </c>
+      <c r="D18" t="n">
+        <v>332.113</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.8276069164276123</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1124.81</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8467698097229004</v>
+      </c>
+      <c r="D19" t="n">
+        <v>742.182</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.075517892837524</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>233.669</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.231720924377441</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.839</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.489783048629761</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1019.738</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.287606239318848</v>
+      </c>
+      <c r="D21" t="n">
+        <v>636.692</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8916120529174805</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>373.407</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8130159378051758</v>
+      </c>
+      <c r="D22" t="n">
+        <v>335.147</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.8098609447479248</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1097.593</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.830841064453125</v>
+      </c>
+      <c r="D23" t="n">
+        <v>749.768</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.317548036575317</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>286.079</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.304651975631714</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.794</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.41087794303894</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.411185026168823</v>
+      </c>
+      <c r="D25" t="n">
+        <v>639.0650000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2680,387 +2680,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.786776065826416</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>251.494</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8407328128814697</v>
+      </c>
+      <c r="D2" t="n">
+        <v>209.593</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8569059371948242</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>285.764</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8513941764831543</v>
+      </c>
+      <c r="D3" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.257241010665894</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>262.331</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.35434103012085</v>
+      </c>
+      <c r="D4" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.281687021255493</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>338.33</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.363343715667725</v>
+      </c>
+      <c r="D5" t="n">
+        <v>286.496</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.7950258255004883</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>243.908</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8483121395111084</v>
+      </c>
+      <c r="D6" t="n">
+        <v>213.687</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.8641691207885742</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>283.809</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8540699481964111</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.296748161315918</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>227.831</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.448686122894287</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253.586</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.548065900802612</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>307.203</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.197664976119995</v>
+      </c>
+      <c r="D9" t="n">
+        <v>218.845</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.8400478363037109</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>245.863</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.785956859588623</v>
+      </c>
+      <c r="D10" t="n">
+        <v>208.514</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.8409409523010254</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>285.764</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8062417507171631</v>
+      </c>
+      <c r="D11" t="n">
+        <v>230.369</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.195687055587769</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>224.155</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.266074180603027</v>
+      </c>
+      <c r="D12" t="n">
+        <v>228.439</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.475181102752686</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>332.699</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.35199499130249</v>
+      </c>
+      <c r="D13" t="n">
+        <v>286.496</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.8447699546813965</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>374.904</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8205299377441406</v>
+      </c>
+      <c r="D14" t="n">
+        <v>335.565</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.809246301651001</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1126.765</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8484270572662354</v>
+      </c>
+      <c r="D15" t="n">
+        <v>749.768</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.295391798019409</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>291.71</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.279822826385498</v>
+      </c>
+      <c r="D16" t="n">
+        <v>230.253</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.256922006607056</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.26402473449707</v>
+      </c>
+      <c r="D17" t="n">
+        <v>799.687</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.8067760467529297</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>378.58</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.801278829574585</v>
+      </c>
+      <c r="D18" t="n">
+        <v>338.823</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.7554118633270264</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1094.141</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8079929351806641</v>
+      </c>
+      <c r="D19" t="n">
+        <v>747.813</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.309309959411621</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>260.583</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.286314010620117</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.839</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.323879957199097</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1037.648</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.361557960510254</v>
+      </c>
+      <c r="D21" t="n">
+        <v>666.282</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8704159259796143</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>380.535</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8987143039703369</v>
+      </c>
+      <c r="D22" t="n">
+        <v>341.196</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.8946428298950195</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1097.593</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8922832012176514</v>
+      </c>
+      <c r="D23" t="n">
+        <v>742.64</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.08977484703064</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>367.492</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.25674295425415</v>
+      </c>
+      <c r="D24" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.571027040481567</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1023.858</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.347406148910522</v>
+      </c>
+      <c r="D25" t="n">
+        <v>667.819</v>
       </c>
     </row>
   </sheetData>
@@ -3111,387 +3111,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.8595919609069824</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>251.494</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9125850200653076</v>
+      </c>
+      <c r="D2" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8462319374084473</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>285.764</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8769450187683105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>230.369</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.409026145935059</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>280.241</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.269517183303833</v>
+      </c>
+      <c r="D4" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.45824408531189</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>309.158</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.314406156539917</v>
+      </c>
+      <c r="D5" t="n">
+        <v>236.041</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.8970329761505127</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>243.908</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9418518543243408</v>
+      </c>
+      <c r="D6" t="n">
+        <v>212.19</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.8008289337158203</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>289.44</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8989038467407227</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.500777959823608</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>283.917</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.368932247161865</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253.586</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.201313972473145</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>330.744</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.374933004379272</v>
+      </c>
+      <c r="D9" t="n">
+        <v>275.349</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.8566939830780029</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>251.494</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8685159683227539</v>
+      </c>
+      <c r="D10" t="n">
+        <v>209.593</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.8879790306091309</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>285.764</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.912653923034668</v>
+      </c>
+      <c r="D11" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.489957094192505</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>280.241</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.306153059005737</v>
+      </c>
+      <c r="D12" t="n">
+        <v>195.894</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.454402923583984</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>332.699</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.362544059753418</v>
+      </c>
+      <c r="D13" t="n">
+        <v>277.304</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.7783129215240479</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>351.363</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8580210208892822</v>
+      </c>
+      <c r="D14" t="n">
+        <v>335.565</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.8487129211425781</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1097.593</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8284270763397217</v>
+      </c>
+      <c r="D15" t="n">
+        <v>720.178</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.28470516204834</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>291.71</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.252420902252197</v>
+      </c>
+      <c r="D16" t="n">
+        <v>253.794</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.64185905456543</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.370134115219116</v>
+      </c>
+      <c r="D17" t="n">
+        <v>667.819</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.9158110618591309</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>378.58</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8783998489379883</v>
+      </c>
+      <c r="D18" t="n">
+        <v>333.192</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.8381450176239014</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1124.81</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8790981769561768</v>
+      </c>
+      <c r="D19" t="n">
+        <v>740.6849999999999</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.448064088821411</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>284.124</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.280720949172974</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.839</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.614876985549927</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1043.279</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.450158834457397</v>
+      </c>
+      <c r="D21" t="n">
+        <v>803.3630000000001</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8377068042755127</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>379.038</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8201668262481689</v>
+      </c>
+      <c r="D22" t="n">
+        <v>335.565</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.8185300827026367</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1121.134</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8444700241088867</v>
+      </c>
+      <c r="D23" t="n">
+        <v>749.768</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.03193211555481</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>206.452</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.249359130859375</v>
+      </c>
+      <c r="D24" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.447147846221924</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1179.267</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.44613790512085</v>
+      </c>
+      <c r="D25" t="n">
+        <v>638.647</v>
       </c>
     </row>
   </sheetData>
@@ -3542,387 +3542,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.8550040721893311</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>249.997</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8534872531890869</v>
+      </c>
+      <c r="D2" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.7974510192871094</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>262.223</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8601980209350586</v>
+      </c>
+      <c r="D3" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.203162908554077</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>285.872</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.294660806655884</v>
+      </c>
+      <c r="D4" t="n">
+        <v>222.808</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.412287950515747</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>309.158</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.361532211303711</v>
+      </c>
+      <c r="D5" t="n">
+        <v>197.677</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.8224420547485352</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>243.908</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.872776985168457</v>
+      </c>
+      <c r="D6" t="n">
+        <v>207.638</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.8192281723022461</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>283.809</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7966160774230957</v>
+      </c>
+      <c r="D7" t="n">
+        <v>228.414</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.290642023086548</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>293.109</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.1981520652771</v>
+      </c>
+      <c r="D8" t="n">
+        <v>197.5</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.292834043502808</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>330.744</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.312386035919189</v>
+      </c>
+      <c r="D9" t="n">
+        <v>274.931</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.8355941772460938</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>245.863</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8323638439178467</v>
+      </c>
+      <c r="D10" t="n">
+        <v>215.642</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.9734559059143066</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>285.764</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7963039875030518</v>
+      </c>
+      <c r="D11" t="n">
+        <v>228.454</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.492403745651245</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>284.451</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.292979001998901</v>
+      </c>
+      <c r="D12" t="n">
+        <v>222.808</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.285650968551636</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>332.699</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.403620719909668</v>
+      </c>
+      <c r="D13" t="n">
+        <v>286.496</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.8232300281524658</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>379.038</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.818554162979126</v>
+      </c>
+      <c r="D14" t="n">
+        <v>335.147</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.9491457939147949</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1126.765</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8781478404998779</v>
+      </c>
+      <c r="D15" t="n">
+        <v>744.1369999999999</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.24207592010498</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>286.079</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.085788726806641</v>
+      </c>
+      <c r="D16" t="n">
+        <v>192.077</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.265952110290527</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1045.234</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.431526899337769</v>
+      </c>
+      <c r="D17" t="n">
+        <v>644.278</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.8041040897369385</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>378.58</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8426680564880371</v>
+      </c>
+      <c r="D18" t="n">
+        <v>333.61</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.8451492786407471</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1119.179</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8787930011749268</v>
+      </c>
+      <c r="D19" t="n">
+        <v>742.182</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.300158023834229</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>289.755</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.404904127120972</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.839</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.377010345458984</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1175.147</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.510331869125366</v>
+      </c>
+      <c r="D21" t="n">
+        <v>803.3630000000001</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8288147449493408</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>380.535</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8679840564727783</v>
+      </c>
+      <c r="D22" t="n">
+        <v>312.024</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.9079442024230957</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1126.765</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8368191719055176</v>
+      </c>
+      <c r="D23" t="n">
+        <v>749.768</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.249207258224487</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>229.993</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.323299884796143</v>
+      </c>
+      <c r="D24" t="n">
+        <v>253.794</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.471228837966919</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.515738010406494</v>
+      </c>
+      <c r="D25" t="n">
+        <v>668.237</v>
       </c>
     </row>
   </sheetData>
@@ -3973,387 +3973,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.7965109348297119</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>249.997</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7997941970825195</v>
+      </c>
+      <c r="D2" t="n">
+        <v>209.593</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8851571083068848</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>285.764</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8640718460083008</v>
+      </c>
+      <c r="D3" t="n">
+        <v>212.459</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.288932085037231</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>262.331</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.290727376937866</v>
+      </c>
+      <c r="D4" t="n">
+        <v>251.98</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.309331178665161</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>309.158</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.305186748504639</v>
+      </c>
+      <c r="D5" t="n">
+        <v>253.763</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.9173743724822998</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>249.539</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8685460090637207</v>
+      </c>
+      <c r="D6" t="n">
+        <v>207.638</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.7978367805480957</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>283.809</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8507621288299561</v>
+      </c>
+      <c r="D7" t="n">
+        <v>234.045</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.373733997344971</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>278.286</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.3125159740448</v>
+      </c>
+      <c r="D8" t="n">
+        <v>226.484</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.204977035522461</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>251.117</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.400800943374634</v>
+      </c>
+      <c r="D9" t="n">
+        <v>224.476</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.8419170379638672</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>251.494</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9242019653320312</v>
+      </c>
+      <c r="D10" t="n">
+        <v>215.224</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.9578008651733398</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>285.764</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8528809547424316</v>
+      </c>
+      <c r="D11" t="n">
+        <v>230.369</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.353003025054932</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>295.064</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.242928981781006</v>
+      </c>
+      <c r="D12" t="n">
+        <v>251.562</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.4026780128479</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>338.33</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.287880182266235</v>
+      </c>
+      <c r="D13" t="n">
+        <v>286.496</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.828528881072998</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>380.535</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7998340129852295</v>
+      </c>
+      <c r="D14" t="n">
+        <v>341.196</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.8327951431274414</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1126.765</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8185470104217529</v>
+      </c>
+      <c r="D15" t="n">
+        <v>744.1369999999999</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.270152807235718</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>235.624</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.386997938156128</v>
+      </c>
+      <c r="D16" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.413549184799194</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1039.603</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.484641075134277</v>
+      </c>
+      <c r="D17" t="n">
+        <v>611.7329999999999</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.7738571166992188</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>372.949</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8578329086303711</v>
+      </c>
+      <c r="D18" t="n">
+        <v>333.192</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.8968009948730469</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1119.179</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8363330364227295</v>
+      </c>
+      <c r="D19" t="n">
+        <v>742.182</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.308826923370361</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>228.038</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.433151006698608</v>
+      </c>
+      <c r="D20" t="n">
+        <v>251.839</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.544073820114136</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1043.279</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.454345226287842</v>
+      </c>
+      <c r="D21" t="n">
+        <v>666.282</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.8488130569458008</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>379.038</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8106260299682617</v>
+      </c>
+      <c r="D22" t="n">
+        <v>340.778</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.9151270389556885</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1121.134</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8559989929199219</v>
+      </c>
+      <c r="D23" t="n">
+        <v>744.1369999999999</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.146221876144409</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>206.452</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.31437611579895</v>
+      </c>
+      <c r="D24" t="n">
+        <v>192.077</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.444525003433228</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1045.234</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.593883275985718</v>
+      </c>
+      <c r="D25" t="n">
+        <v>749.65</v>
       </c>
     </row>
   </sheetData>
@@ -4404,387 +4404,387 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>0.8885910511016846</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>220.825</v>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8478367328643799</v>
+      </c>
+      <c r="D2" t="n">
+        <v>215.642</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="6" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>evilsig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.8880050182342529</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>285.764</v>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.892509937286377</v>
+      </c>
+      <c r="D3" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>evilsig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>1.263574123382568</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>224.155</v>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.377362966537476</v>
+      </c>
+      <c r="D4" t="n">
+        <v>261.172</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
-      <c r="A5" s="6" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>evilsig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>1.452367067337036</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>338.33</v>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.302875995635986</v>
+      </c>
+      <c r="D5" t="n">
+        <v>286.496</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>nosig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0.8409700393676758</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>243.908</v>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8231861591339111</v>
+      </c>
+      <c r="D6" t="n">
+        <v>206.559</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>nosig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0.8463530540466309</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>283.809</v>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8506791591644287</v>
+      </c>
+      <c r="D7" t="n">
+        <v>234.045</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>nosig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>1.380714893341064</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>287.478</v>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.370863199234009</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253.586</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>nosig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>1.59167218208313</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>338.54</v>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.238670110702515</v>
+      </c>
+      <c r="D9" t="n">
+        <v>290.172</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>sig_clean_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.9388537406921387</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>245.863</v>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.839174747467041</v>
+      </c>
+      <c r="D10" t="n">
+        <v>210.011</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>sig_clean_internal_png_index</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0.8682219982147217</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>285.764</v>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.823955774307251</v>
+      </c>
+      <c r="D11" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>sig_clean_external_jpg_index</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>1.450405120849609</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>285.872</v>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.226847171783447</v>
+      </c>
+      <c r="D12" t="n">
+        <v>246.349</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>sig_clean_external_png_index</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>1.369107007980347</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>323.981</v>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.36759877204895</v>
+      </c>
+      <c r="D13" t="n">
+        <v>277.304</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="n">
-        <v>0.8885760307312012</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>349.866</v>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8421969413757324</v>
+      </c>
+      <c r="D14" t="n">
+        <v>317.655</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>evilsig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0.7879958152770996</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>1126.765</v>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.823728084564209</v>
+      </c>
+      <c r="D15" t="n">
+        <v>749.768</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>evilsig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>1.151381015777588</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>229.993</v>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.474665880203247</v>
+      </c>
+      <c r="D16" t="n">
+        <v>230.253</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>evilsig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C17" s="5" t="n">
-        <v>1.544674158096313</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>1016.062</v>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.659182071685791</v>
+      </c>
+      <c r="D17" t="n">
+        <v>802.27</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>nosig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C18" s="5" t="n">
-        <v>0.8776910305023193</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>378.58</v>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8300719261169434</v>
+      </c>
+      <c r="D18" t="n">
+        <v>333.61</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>nosig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>0.8295588493347168</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1123.313</v>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8279259204864502</v>
+      </c>
+      <c r="D19" t="n">
+        <v>747.813</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>nosig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C20" s="5" t="n">
-        <v>1.322055101394653</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>260.583</v>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.335889101028442</v>
+      </c>
+      <c r="D20" t="n">
+        <v>195.753</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>nosig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>1.340305805206299</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>1019.738</v>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.564611911773682</v>
+      </c>
+      <c r="D21" t="n">
+        <v>604.147</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="6" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>sig_stego_internal_jpg_index</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>0.90625</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>356.994</v>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8916289806365967</v>
+      </c>
+      <c r="D22" t="n">
+        <v>334.068</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="6" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>sig_stego_internal_png_index</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0.8123188018798828</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>1103.224</v>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.889211893081665</v>
+      </c>
+      <c r="D23" t="n">
+        <v>749.768</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="6" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>sig_stego_external_jpg_index</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>1.245968818664551</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>291.71</v>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.27670693397522</v>
+      </c>
+      <c r="D24" t="n">
+        <v>248.163</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>sig_stego_external_png_index</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>1.481883764266968</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>1045.234</v>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.449673175811768</v>
+      </c>
+      <c r="D25" t="n">
+        <v>662.188</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>1.041141033172607</v>
+        <v>0.8860208988189697</v>
       </c>
       <c r="D2" t="n">
-        <v>247.221</v>
+        <v>245.982</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9325180053710938</v>
+        <v>0.9413697719573975</v>
       </c>
       <c r="D3" t="n">
-        <v>288.619</v>
+        <v>278.755</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.176671981811523</v>
+        <v>1.315968751907349</v>
       </c>
       <c r="D4" t="n">
-        <v>236.202</v>
+        <v>218.643</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.274245977401733</v>
+        <v>1.535108804702759</v>
       </c>
       <c r="D5" t="n">
-        <v>329.923</v>
+        <v>327.187</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>1.028648138046265</v>
+        <v>0.9153740406036377</v>
       </c>
       <c r="D6" t="n">
-        <v>238.139</v>
+        <v>218.99</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8967287540435791</v>
+        <v>0.9604439735412598</v>
       </c>
       <c r="D7" t="n">
-        <v>263.905</v>
+        <v>274.886</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.194265127182007</v>
+        <v>1.272838115692139</v>
       </c>
       <c r="D8" t="n">
-        <v>202.19</v>
+        <v>270.86</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.397722005844116</v>
+        <v>1.426126718521118</v>
       </c>
       <c r="D9" t="n">
-        <v>326.472</v>
+        <v>323.736</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8068118095397949</v>
+        <v>0.8718039989471436</v>
       </c>
       <c r="D10" t="n">
-        <v>241.59</v>
+        <v>216.392</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.996783971786499</v>
+        <v>0.9694299697875977</v>
       </c>
       <c r="D11" t="n">
-        <v>287.122</v>
+        <v>260.845</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.325285196304321</v>
+        <v>1.329293727874756</v>
       </c>
       <c r="D12" t="n">
-        <v>283.096</v>
+        <v>274.729</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.313001155853271</v>
+        <v>1.492218971252441</v>
       </c>
       <c r="D13" t="n">
-        <v>273.837</v>
+        <v>332.4</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9992198944091797</v>
+        <v>0.8639249801635742</v>
       </c>
       <c r="D14" t="n">
-        <v>383.986</v>
+        <v>382.329</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9431309700012207</v>
+        <v>0.884979248046875</v>
       </c>
       <c r="D15" t="n">
-        <v>1174.939</v>
+        <v>1195.069</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.487087726593018</v>
+        <v>1.341108083724976</v>
       </c>
       <c r="D16" t="n">
-        <v>262.924</v>
+        <v>259.77</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.553657054901123</v>
+        <v>1.601974964141846</v>
       </c>
       <c r="D17" t="n">
-        <v>739.706</v>
+        <v>882.276</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9103066921234131</v>
+        <v>0.8983058929443359</v>
       </c>
       <c r="D18" t="n">
-        <v>382.032</v>
+        <v>373.665</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9014019966125488</v>
+        <v>0.8421719074249268</v>
       </c>
       <c r="D19" t="n">
-        <v>1199.985</v>
+        <v>1191.2</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.525835990905762</v>
+        <v>1.394850015640259</v>
       </c>
       <c r="D20" t="n">
-        <v>354.331</v>
+        <v>256.737</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.591233015060425</v>
+        <v>1.458691120147705</v>
       </c>
       <c r="D21" t="n">
-        <v>757.624</v>
+        <v>760.519</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9840948581695557</v>
+        <v>0.8688287734985352</v>
       </c>
       <c r="D22" t="n">
-        <v>378.355</v>
+        <v>353.575</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8408629894256592</v>
+        <v>0.8212389945983887</v>
       </c>
       <c r="D23" t="n">
-        <v>1182.067</v>
+        <v>1200.7</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.496737957000732</v>
+        <v>1.269347906112671</v>
       </c>
       <c r="D24" t="n">
-        <v>206.838</v>
+        <v>405.501</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.350881814956665</v>
+        <v>1.339851856231689</v>
       </c>
       <c r="D25" t="n">
-        <v>739.706</v>
+        <v>758.3390000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8482401371002197</v>
+      </c>
+      <c r="D2" t="n">
+        <v>240.351</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8368351459503174</v>
+      </c>
+      <c r="D3" t="n">
+        <v>280.252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.540888786315918</v>
+      </c>
+      <c r="D4" t="n">
+        <v>274.729</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.553042888641357</v>
+      </c>
+      <c r="D5" t="n">
+        <v>327.187</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8871748447418213</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8003041744232178</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.576031923294067</v>
+      </c>
+      <c r="D8" t="n">
+        <v>194.436</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.324431180953979</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8279380798339844</v>
+      </c>
+      <c r="D10" t="n">
+        <v>216.81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8315057754516602</v>
+      </c>
+      <c r="D11" t="n">
+        <v>262.342</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.353264808654785</v>
+      </c>
+      <c r="D12" t="n">
+        <v>251.188</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.600892782211304</v>
+      </c>
+      <c r="D13" t="n">
+        <v>332.818</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9317760467529297</v>
+      </c>
+      <c r="D14" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8130762577056885</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1200.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.330368041992188</v>
+      </c>
+      <c r="D16" t="n">
+        <v>242.278</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.44748592376709</v>
+      </c>
+      <c r="D17" t="n">
+        <v>763.552</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8652400970458984</v>
+      </c>
+      <c r="D18" t="n">
+        <v>379.296</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8723468780517578</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1191.618</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.249905109405518</v>
+      </c>
+      <c r="D20" t="n">
+        <v>262.368</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.540005922317505</v>
+      </c>
+      <c r="D21" t="n">
+        <v>754.888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8373391628265381</v>
+      </c>
+      <c r="D22" t="n">
+        <v>376.698</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9256088733673096</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1171.11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.170236825942993</v>
+      </c>
+      <c r="D24" t="n">
+        <v>183.134</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.236016988754272</v>
+      </c>
+      <c r="D25" t="n">
+        <v>763.552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8676681518554688</v>
+      </c>
+      <c r="D2" t="n">
+        <v>245.982</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8297421932220459</v>
+      </c>
+      <c r="D3" t="n">
+        <v>285.883</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.42778205871582</v>
+      </c>
+      <c r="D4" t="n">
+        <v>280.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.375097036361694</v>
+      </c>
+      <c r="D5" t="n">
+        <v>253.191</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8346381187438965</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8470571041107178</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.46970796585083</v>
+      </c>
+      <c r="D8" t="n">
+        <v>253.368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.253891229629517</v>
+      </c>
+      <c r="D9" t="n">
+        <v>273.281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8132328987121582</v>
+      </c>
+      <c r="D10" t="n">
+        <v>240.351</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9082901477813721</v>
+      </c>
+      <c r="D11" t="n">
+        <v>255.214</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.297895908355713</v>
+      </c>
+      <c r="D12" t="n">
+        <v>280.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.526715993881226</v>
+      </c>
+      <c r="D13" t="n">
+        <v>276.732</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9615089893341064</v>
+      </c>
+      <c r="D14" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8456282615661621</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1200.282</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.292453050613403</v>
+      </c>
+      <c r="D16" t="n">
+        <v>265.819</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.486400127410889</v>
+      </c>
+      <c r="D17" t="n">
+        <v>740.429</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.050076723098755</v>
+      </c>
+      <c r="D18" t="n">
+        <v>373.247</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7813398838043213</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1195.752</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.277089834213257</v>
+      </c>
+      <c r="D20" t="n">
+        <v>200.651</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.484078168869019</v>
+      </c>
+      <c r="D21" t="n">
+        <v>905.414</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8773188591003418</v>
+      </c>
+      <c r="D22" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9353821277618408</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1200.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.421382188796997</v>
+      </c>
+      <c r="D24" t="n">
+        <v>259.77</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.39280104637146</v>
+      </c>
+      <c r="D25" t="n">
+        <v>880.111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8382489681243896</v>
+      </c>
+      <c r="D2" t="n">
+        <v>245.564</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9255838394165039</v>
+      </c>
+      <c r="D3" t="n">
+        <v>285.883</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.21316933631897</v>
+      </c>
+      <c r="D4" t="n">
+        <v>203.876</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.493905067443848</v>
+      </c>
+      <c r="D5" t="n">
+        <v>332.818</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8502719402313232</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8168048858642578</v>
+      </c>
+      <c r="D7" t="n">
+        <v>274.886</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.346676111221313</v>
+      </c>
+      <c r="D8" t="n">
+        <v>270.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.290175914764404</v>
+      </c>
+      <c r="D9" t="n">
+        <v>305.826</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8380570411682129</v>
+      </c>
+      <c r="D10" t="n">
+        <v>216.81</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8657679557800293</v>
+      </c>
+      <c r="D11" t="n">
+        <v>256.817</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.510412931442261</v>
+      </c>
+      <c r="D12" t="n">
+        <v>279.942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.568643093109131</v>
+      </c>
+      <c r="D13" t="n">
+        <v>326.769</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8336308002471924</v>
+      </c>
+      <c r="D14" t="n">
+        <v>382.747</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8311820030212402</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1200.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.386396884918213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>209.733</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.404619932174683</v>
+      </c>
+      <c r="D17" t="n">
+        <v>758.3390000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9163200855255127</v>
+      </c>
+      <c r="D18" t="n">
+        <v>377.799</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8115520477294922</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1191.618</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.421216011047363</v>
+      </c>
+      <c r="D20" t="n">
+        <v>407.681</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.573899030685425</v>
+      </c>
+      <c r="D21" t="n">
+        <v>754.888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8535780906677246</v>
+      </c>
+      <c r="D22" t="n">
+        <v>382.329</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8737661838531494</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1200.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.331264972686768</v>
+      </c>
+      <c r="D24" t="n">
+        <v>236.229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.530208110809326</v>
+      </c>
+      <c r="D25" t="n">
+        <v>763.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8773171901702881</v>
+      </c>
+      <c r="D2" t="n">
+        <v>240.351</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8831291198730469</v>
+      </c>
+      <c r="D3" t="n">
+        <v>280.252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.361679077148438</v>
+      </c>
+      <c r="D4" t="n">
+        <v>280.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.4251708984375</v>
+      </c>
+      <c r="D5" t="n">
+        <v>309.277</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9070501327514648</v>
+      </c>
+      <c r="D6" t="n">
+        <v>236.9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8243148326873779</v>
+      </c>
+      <c r="D7" t="n">
+        <v>275.304</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.417508125305176</v>
+      </c>
+      <c r="D8" t="n">
+        <v>276.909</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.500617027282715</v>
+      </c>
+      <c r="D9" t="n">
+        <v>300.195</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9250829219818115</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8686609268188477</v>
+      </c>
+      <c r="D11" t="n">
+        <v>279.834</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.362668037414551</v>
+      </c>
+      <c r="D12" t="n">
+        <v>274.311</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.23869800567627</v>
+      </c>
+      <c r="D13" t="n">
+        <v>332.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9191482067108154</v>
+      </c>
+      <c r="D14" t="n">
+        <v>382.747</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8381710052490234</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1195.069</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.251878023147583</v>
+      </c>
+      <c r="D16" t="n">
+        <v>265.819</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.726265907287598</v>
+      </c>
+      <c r="D17" t="n">
+        <v>911.448</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.82818603515625</v>
+      </c>
+      <c r="D18" t="n">
+        <v>373.665</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9023110866546631</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1191.618</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.366014003753662</v>
+      </c>
+      <c r="D20" t="n">
+        <v>233.196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.400686740875244</v>
+      </c>
+      <c r="D21" t="n">
+        <v>754.888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.112068891525269</v>
+      </c>
+      <c r="D22" t="n">
+        <v>375.619</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8289320468902588</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1194.651</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.315255165100098</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.456914901733398</v>
+      </c>
+      <c r="D25" t="n">
+        <v>758.3390000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8377852439880371</v>
+      </c>
+      <c r="D2" t="n">
+        <v>222.441</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9122908115386963</v>
+      </c>
+      <c r="D3" t="n">
+        <v>280.252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.380741119384766</v>
+      </c>
+      <c r="D4" t="n">
+        <v>224.274</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.357747077941895</v>
+      </c>
+      <c r="D5" t="n">
+        <v>332.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.037865877151489</v>
+      </c>
+      <c r="D6" t="n">
+        <v>241.034</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8690598011016846</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.907</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.210214138031006</v>
+      </c>
+      <c r="D8" t="n">
+        <v>276.909</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.408119916915894</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9024672508239746</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9937138557434082</v>
+      </c>
+      <c r="D11" t="n">
+        <v>260.845</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.174409866333008</v>
+      </c>
+      <c r="D12" t="n">
+        <v>280.36</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.479599237442017</v>
+      </c>
+      <c r="D13" t="n">
+        <v>308.859</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8631401062011719</v>
+      </c>
+      <c r="D14" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9424197673797607</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1195.069</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.481154918670654</v>
+      </c>
+      <c r="D16" t="n">
+        <v>265.819</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.391993999481201</v>
+      </c>
+      <c r="D17" t="n">
+        <v>903.652</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.967710018157959</v>
+      </c>
+      <c r="D18" t="n">
+        <v>355.755</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8915019035339355</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1191.618</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.265478849411011</v>
+      </c>
+      <c r="D20" t="n">
+        <v>256.319</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.478472948074341</v>
+      </c>
+      <c r="D21" t="n">
+        <v>760.519</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8659021854400635</v>
+      </c>
+      <c r="D22" t="n">
+        <v>353.575</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9863648414611816</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1193.572</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.349732875823975</v>
+      </c>
+      <c r="D24" t="n">
+        <v>411.132</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.470613956451416</v>
+      </c>
+      <c r="D25" t="n">
+        <v>911.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.914365291595459</v>
+      </c>
+      <c r="D2" t="n">
+        <v>222.441</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8394870758056641</v>
+      </c>
+      <c r="D3" t="n">
+        <v>280.252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.337747097015381</v>
+      </c>
+      <c r="D4" t="n">
+        <v>274.729</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.384836912155151</v>
+      </c>
+      <c r="D5" t="n">
+        <v>312.838</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8040452003479004</v>
+      </c>
+      <c r="D6" t="n">
+        <v>218.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8180439472198486</v>
+      </c>
+      <c r="D7" t="n">
+        <v>280.935</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.304578065872192</v>
+      </c>
+      <c r="D8" t="n">
+        <v>270.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.304182052612305</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8571591377258301</v>
+      </c>
+      <c r="D10" t="n">
+        <v>240.351</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8351771831512451</v>
+      </c>
+      <c r="D11" t="n">
+        <v>280.252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.21446704864502</v>
+      </c>
+      <c r="D12" t="n">
+        <v>218.643</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.384974956512451</v>
+      </c>
+      <c r="D13" t="n">
+        <v>327.187</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8403592109680176</v>
+      </c>
+      <c r="D14" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8627200126647949</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1195.069</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.305489778518677</v>
+      </c>
+      <c r="D16" t="n">
+        <v>265.401</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.469992876052856</v>
+      </c>
+      <c r="D17" t="n">
+        <v>758.3390000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.885988712310791</v>
+      </c>
+      <c r="D18" t="n">
+        <v>378.878</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9035868644714355</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1196.831</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.313052892684937</v>
+      </c>
+      <c r="D20" t="n">
+        <v>256.737</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.463927984237671</v>
+      </c>
+      <c r="D21" t="n">
+        <v>905.832</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9033908843994141</v>
+      </c>
+      <c r="D22" t="n">
+        <v>376.698</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8273019790649414</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1200.7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.373314142227173</v>
+      </c>
+      <c r="D24" t="n">
+        <v>411.132</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.380350828170776</v>
+      </c>
+      <c r="D25" t="n">
+        <v>763.552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8611199855804443</v>
+      </c>
+      <c r="D2" t="n">
+        <v>222.441</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8070611953735352</v>
+      </c>
+      <c r="D3" t="n">
+        <v>280.252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.364560842514038</v>
+      </c>
+      <c r="D4" t="n">
+        <v>218.643</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.313992023468018</v>
+      </c>
+      <c r="D5" t="n">
+        <v>335.961</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8744392395019531</v>
+      </c>
+      <c r="D6" t="n">
+        <v>218.572</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8309659957885742</v>
+      </c>
+      <c r="D7" t="n">
+        <v>276.801</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.327522993087769</v>
+      </c>
+      <c r="D8" t="n">
+        <v>271.278</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.340383052825928</v>
+      </c>
+      <c r="D9" t="n">
+        <v>273.281</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.895798921585083</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.564</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8337810039520264</v>
+      </c>
+      <c r="D11" t="n">
+        <v>256.711</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.29591703414917</v>
+      </c>
+      <c r="D12" t="n">
+        <v>274.729</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.528362989425659</v>
+      </c>
+      <c r="D13" t="n">
+        <v>332.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8424332141876221</v>
+      </c>
+      <c r="D14" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8352029323577881</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1177.159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.287766933441162</v>
+      </c>
+      <c r="D16" t="n">
+        <v>265.819</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.645698070526123</v>
+      </c>
+      <c r="D17" t="n">
+        <v>763.97</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9305150508880615</v>
+      </c>
+      <c r="D18" t="n">
+        <v>378.878</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9297511577606201</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1195.752</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.043216228485107</v>
+      </c>
+      <c r="D20" t="n">
+        <v>351.595</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.506721019744873</v>
+      </c>
+      <c r="D21" t="n">
+        <v>760.519</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8397500514984131</v>
+      </c>
+      <c r="D22" t="n">
+        <v>382.747</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9119398593902588</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1200.388</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.459049940109253</v>
+      </c>
+      <c r="D24" t="n">
+        <v>265.819</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.429260015487671</v>
+      </c>
+      <c r="D25" t="n">
+        <v>734.798</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9174628257751465</v>
+      </c>
+      <c r="D2" t="n">
+        <v>245.982</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8770339488983154</v>
+      </c>
+      <c r="D3" t="n">
+        <v>256.711</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.471476078033447</v>
+      </c>
+      <c r="D4" t="n">
+        <v>280.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.48036789894104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>271.101</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9366669654846191</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8953108787536621</v>
+      </c>
+      <c r="D7" t="n">
+        <v>258.891</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.354961156845093</v>
+      </c>
+      <c r="D8" t="n">
+        <v>270.86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.643684148788452</v>
+      </c>
+      <c r="D9" t="n">
+        <v>323.736</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8574111461639404</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8345701694488525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>280.252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.470474004745483</v>
+      </c>
+      <c r="D12" t="n">
+        <v>218.643</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.545391082763672</v>
+      </c>
+      <c r="D13" t="n">
+        <v>327.187</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.878392219543457</v>
+      </c>
+      <c r="D14" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8226890563964844</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1200.282</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.321955919265747</v>
+      </c>
+      <c r="D16" t="n">
+        <v>260.188</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.599703073501587</v>
+      </c>
+      <c r="D17" t="n">
+        <v>911.448</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9203240871429443</v>
+      </c>
+      <c r="D18" t="n">
+        <v>373.247</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8364310264587402</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1191.618</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.357964992523193</v>
+      </c>
+      <c r="D20" t="n">
+        <v>402.05</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.46998119354248</v>
+      </c>
+      <c r="D21" t="n">
+        <v>754.888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8393120765686035</v>
+      </c>
+      <c r="D22" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8482439517974854</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1195.069</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.440303802490234</v>
+      </c>
+      <c r="D24" t="n">
+        <v>209.733</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.559709072113037</v>
+      </c>
+      <c r="D25" t="n">
+        <v>757.921</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8549041748046875</v>
+      </c>
+      <c r="D2" t="n">
+        <v>245.982</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.9572458267211914</v>
+      </c>
+      <c r="D3" t="n">
+        <v>285.883</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.251126050949097</v>
+      </c>
+      <c r="D4" t="n">
+        <v>218.643</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.499078750610352</v>
+      </c>
+      <c r="D5" t="n">
+        <v>332.818</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8265380859375</v>
+      </c>
+      <c r="D6" t="n">
+        <v>242.531</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8470699787139893</v>
+      </c>
+      <c r="D7" t="n">
+        <v>282.432</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.383140087127686</v>
+      </c>
+      <c r="D8" t="n">
+        <v>276.909</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.376635313034058</v>
+      </c>
+      <c r="D9" t="n">
+        <v>305.826</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9558119773864746</v>
+      </c>
+      <c r="D10" t="n">
+        <v>245.982</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8291358947753906</v>
+      </c>
+      <c r="D11" t="n">
+        <v>280.252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.447366952896118</v>
+      </c>
+      <c r="D12" t="n">
+        <v>274.729</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.466120958328247</v>
+      </c>
+      <c r="D13" t="n">
+        <v>309.277</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8498721122741699</v>
+      </c>
+      <c r="D14" t="n">
+        <v>377.116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8671169281005859</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1200.7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.245536088943481</v>
+      </c>
+      <c r="D16" t="n">
+        <v>265.819</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.710788011550903</v>
+      </c>
+      <c r="D17" t="n">
+        <v>736.963</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7487649917602539</v>
+      </c>
+      <c r="D18" t="n">
+        <v>350.124</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8441309928894043</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1196.831</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.239228963851929</v>
+      </c>
+      <c r="D20" t="n">
+        <v>262.368</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.536081075668335</v>
+      </c>
+      <c r="D21" t="n">
+        <v>731.347</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8264398574829102</v>
+      </c>
+      <c r="D22" t="n">
+        <v>376.698</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8914752006530762</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1195.069</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.360964775085449</v>
+      </c>
+      <c r="D24" t="n">
+        <v>260.188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.489053964614868</v>
+      </c>
+      <c r="D25" t="n">
+        <v>909.283</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -474,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8894689083099365</v>
+        <v>0.7896797657012939</v>
       </c>
       <c r="D2" t="n">
-        <v>238.855</v>
+        <v>237.358</v>
       </c>
     </row>
     <row r="3">
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8736951351165771</v>
+        <v>0.9736618995666504</v>
       </c>
       <c r="D3" t="n">
-        <v>284.387</v>
+        <v>283.969</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.402348041534424</v>
+        <v>1.311389923095703</v>
       </c>
       <c r="D4" t="n">
-        <v>255.429</v>
+        <v>217.147</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.337274789810181</v>
+        <v>1.331708192825317</v>
       </c>
       <c r="D5" t="n">
-        <v>316.973</v>
+        <v>334.883</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>1.01445198059082</v>
+        <v>0.9009749889373779</v>
       </c>
       <c r="D6" t="n">
-        <v>241.034</v>
+        <v>236.482</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.906790018081665</v>
+        <v>0.8595378398895264</v>
       </c>
       <c r="D7" t="n">
-        <v>253.26</v>
+        <v>276.801</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.292208909988403</v>
+        <v>1.179915904998779</v>
       </c>
       <c r="D8" t="n">
         <v>271.278</v>
@@ -586,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.489295959472656</v>
+        <v>1.235116958618164</v>
       </c>
       <c r="D9" t="n">
-        <v>338.141</v>
+        <v>305.826</v>
       </c>
     </row>
     <row r="10">
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8403701782226562</v>
+        <v>0.8614730834960938</v>
       </c>
       <c r="D10" t="n">
-        <v>215.314</v>
+        <v>220.945</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9125149250030518</v>
+        <v>0.8194661140441895</v>
       </c>
       <c r="D11" t="n">
         <v>284.387</v>
@@ -634,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.42780590057373</v>
+        <v>1.420542001724243</v>
       </c>
       <c r="D12" t="n">
-        <v>273.233</v>
+        <v>199.237</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.492547035217285</v>
+        <v>1.404651880264282</v>
       </c>
       <c r="D13" t="n">
-        <v>275.236</v>
+        <v>325.691</v>
       </c>
     </row>
     <row r="14">
@@ -666,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8146891593933105</v>
+        <v>0.7879598140716553</v>
       </c>
       <c r="D14" t="n">
-        <v>372.03</v>
+        <v>342.858</v>
       </c>
     </row>
     <row r="15">
@@ -682,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9325351715087891</v>
+        <v>0.838205099105835</v>
       </c>
       <c r="D15" t="n">
-        <v>1113.708</v>
+        <v>1090.585</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.266326665878296</v>
+        <v>1.300374031066895</v>
       </c>
       <c r="D16" t="n">
-        <v>222.985</v>
+        <v>284.702</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.528259038925171</v>
+        <v>1.633831977844238</v>
       </c>
       <c r="D17" t="n">
-        <v>1032.595</v>
+        <v>1153.931</v>
       </c>
     </row>
     <row r="18">
@@ -730,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.96010422706604</v>
+        <v>0.9386072158813477</v>
       </c>
       <c r="D18" t="n">
-        <v>371.572</v>
+        <v>365.941</v>
       </c>
     </row>
     <row r="19">
@@ -746,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.854381799697876</v>
+        <v>0.8580243587493896</v>
       </c>
       <c r="D19" t="n">
-        <v>1088.212</v>
+        <v>1112.171</v>
       </c>
     </row>
     <row r="20">
@@ -762,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.329139947891235</v>
+        <v>1.264040946960449</v>
       </c>
       <c r="D20" t="n">
-        <v>253.575</v>
+        <v>226.661</v>
       </c>
     </row>
     <row r="21">
@@ -778,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.479921102523804</v>
+        <v>1.5294189453125</v>
       </c>
       <c r="D21" t="n">
-        <v>1030.64</v>
+        <v>1038.436</v>
       </c>
     </row>
     <row r="22">
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.008887767791748</v>
+        <v>0.9615941047668457</v>
       </c>
       <c r="D22" t="n">
-        <v>373.527</v>
+        <v>349.986</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9046669006347656</v>
+        <v>0.9425821304321289</v>
       </c>
       <c r="D23" t="n">
-        <v>1090.585</v>
+        <v>1119.757</v>
       </c>
     </row>
     <row r="24">
@@ -826,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.339723825454712</v>
+        <v>1.332769870758057</v>
       </c>
       <c r="D24" t="n">
         <v>279.071</v>
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.665189743041992</v>
+        <v>1.416584014892578</v>
       </c>
       <c r="D25" t="n">
         <v>1032.595</v>
@@ -899,10 +899,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9421567916870117</v>
+        <v>0.9152798652648926</v>
       </c>
       <c r="D2" t="n">
-        <v>219.448</v>
+        <v>220.945</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8396599292755127</v>
+        <v>0.8064603805541992</v>
       </c>
       <c r="D3" t="n">
-        <v>278.756</v>
+        <v>259.349</v>
       </c>
     </row>
     <row r="4">
@@ -931,10 +931,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.277164936065674</v>
+        <v>1.311596870422363</v>
       </c>
       <c r="D4" t="n">
-        <v>278.864</v>
+        <v>255.323</v>
       </c>
     </row>
     <row r="5">
@@ -947,10 +947,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.551620960235596</v>
+        <v>1.423800945281982</v>
       </c>
       <c r="D5" t="n">
-        <v>330.904</v>
+        <v>302.15</v>
       </c>
     </row>
     <row r="6">
@@ -963,10 +963,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8223779201507568</v>
+        <v>0.8639628887176514</v>
       </c>
       <c r="D6" t="n">
-        <v>242.531</v>
+        <v>218.99</v>
       </c>
     </row>
     <row r="7">
@@ -979,10 +979,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8519530296325684</v>
+        <v>0.782343864440918</v>
       </c>
       <c r="D7" t="n">
-        <v>282.432</v>
+        <v>276.801</v>
       </c>
     </row>
     <row r="8">
@@ -995,10 +995,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>4.143212080001831</v>
+        <v>1.343213081359863</v>
       </c>
       <c r="D8" t="n">
-        <v>2121.988</v>
+        <v>271.278</v>
       </c>
     </row>
     <row r="9">
@@ -1011,10 +1011,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.49555492401123</v>
+        <v>1.340334892272949</v>
       </c>
       <c r="D9" t="n">
-        <v>329.367</v>
+        <v>300.195</v>
       </c>
     </row>
     <row r="10">
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8108501434326172</v>
+        <v>0.809438943862915</v>
       </c>
       <c r="D10" t="n">
-        <v>219.03</v>
+        <v>238.437</v>
       </c>
     </row>
     <row r="11">
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8906099796295166</v>
+        <v>0.8058376312255859</v>
       </c>
       <c r="D11" t="n">
         <v>278.756</v>
@@ -1059,10 +1059,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.319962978363037</v>
+        <v>1.277930974960327</v>
       </c>
       <c r="D12" t="n">
-        <v>217.147</v>
+        <v>249.692</v>
       </c>
     </row>
     <row r="13">
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.345034837722778</v>
+        <v>1.317350149154663</v>
       </c>
       <c r="D13" t="n">
         <v>331.322</v>
@@ -1091,10 +1091,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8566808700561523</v>
+        <v>0.8640332221984863</v>
       </c>
       <c r="D14" t="n">
-        <v>367.896</v>
+        <v>367.478</v>
       </c>
     </row>
     <row r="15">
@@ -1107,7 +1107,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9246261119842529</v>
+        <v>0.8236918449401855</v>
       </c>
       <c r="D15" t="n">
         <v>1114.126</v>
@@ -1123,7 +1123,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.35828709602356</v>
+        <v>1.278040885925293</v>
       </c>
       <c r="D16" t="n">
         <v>279.071</v>
@@ -1139,10 +1139,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.545139789581299</v>
+        <v>1.376296281814575</v>
       </c>
       <c r="D17" t="n">
-        <v>1175.725</v>
+        <v>1032.595</v>
       </c>
     </row>
     <row r="18">
@@ -1155,10 +1155,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9417681694030762</v>
+        <v>0.8235969543457031</v>
       </c>
       <c r="D18" t="n">
-        <v>371.572</v>
+        <v>342.4</v>
       </c>
     </row>
     <row r="19">
@@ -1171,7 +1171,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9078278541564941</v>
+        <v>0.8243589401245117</v>
       </c>
       <c r="D19" t="n">
         <v>1117.802</v>
@@ -1187,10 +1187,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.410863161087036</v>
+        <v>1.320729970932007</v>
       </c>
       <c r="D20" t="n">
-        <v>276.804</v>
+        <v>221.03</v>
       </c>
     </row>
     <row r="21">
@@ -1203,10 +1203,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.44667387008667</v>
+        <v>1.401974678039551</v>
       </c>
       <c r="D21" t="n">
-        <v>1035.853</v>
+        <v>1144.18</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8662049770355225</v>
+        <v>0.8607192039489746</v>
       </c>
       <c r="D22" t="n">
-        <v>373.109</v>
+        <v>367.478</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.882993221282959</v>
+        <v>0.860929012298584</v>
       </c>
       <c r="D23" t="n">
-        <v>1096.216</v>
+        <v>1096.322</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.610577821731567</v>
+        <v>1.437891006469727</v>
       </c>
       <c r="D24" t="n">
-        <v>284.702</v>
+        <v>222.567</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.515793085098267</v>
+        <v>1.606482028961182</v>
       </c>
       <c r="D25" t="n">
-        <v>1038.226</v>
+        <v>1171.841</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1324,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9345211982727051</v>
+        <v>1.14009690284729</v>
       </c>
       <c r="D2" t="n">
-        <v>244.486</v>
+        <v>236.94</v>
       </c>
     </row>
     <row r="3">
@@ -1340,10 +1340,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.031800031661987</v>
+        <v>0.8115940093994141</v>
       </c>
       <c r="D3" t="n">
-        <v>259.349</v>
+        <v>260.846</v>
       </c>
     </row>
     <row r="4">
@@ -1356,10 +1356,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.340138912200928</v>
+        <v>1.256967782974243</v>
       </c>
       <c r="D4" t="n">
-        <v>273.233</v>
+        <v>254.905</v>
       </c>
     </row>
     <row r="5">
@@ -1372,10 +1372,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>5.382631301879883</v>
+        <v>1.226942777633667</v>
       </c>
       <c r="D5" t="n">
-        <v>2158.491</v>
+        <v>325.691</v>
       </c>
     </row>
     <row r="6">
@@ -1388,10 +1388,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9838709831237793</v>
+        <v>0.8464601039886475</v>
       </c>
       <c r="D6" t="n">
-        <v>211.862</v>
+        <v>242.531</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>1.050068855285645</v>
+        <v>0.8501119613647461</v>
       </c>
       <c r="D7" t="n">
-        <v>176.418</v>
+        <v>282.432</v>
       </c>
     </row>
     <row r="8">
@@ -1420,10 +1420,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.537703990936279</v>
+        <v>1.316854000091553</v>
       </c>
       <c r="D8" t="n">
-        <v>271.278</v>
+        <v>276.909</v>
       </c>
     </row>
     <row r="9">
@@ -1436,10 +1436,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.331027984619141</v>
+        <v>1.293670892715454</v>
       </c>
       <c r="D9" t="n">
-        <v>299.777</v>
+        <v>305.408</v>
       </c>
     </row>
     <row r="10">
@@ -1452,7 +1452,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.009970188140869</v>
+        <v>1.060497999191284</v>
       </c>
       <c r="D10" t="n">
         <v>242.989</v>
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9704182147979736</v>
+        <v>0.9135921001434326</v>
       </c>
       <c r="D11" t="n">
         <v>260.846</v>
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>2.409270048141479</v>
+        <v>1.340605974197388</v>
       </c>
       <c r="D12" t="n">
-        <v>284.525</v>
+        <v>282.425</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.459076166152954</v>
+        <v>1.310117959976196</v>
       </c>
       <c r="D13" t="n">
-        <v>325.691</v>
+        <v>330.904</v>
       </c>
     </row>
     <row r="14">
@@ -1516,10 +1516,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8115909099578857</v>
+        <v>0.9608311653137207</v>
       </c>
       <c r="D14" t="n">
-        <v>373.527</v>
+        <v>366.399</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8879439830780029</v>
+        <v>0.7872700691223145</v>
       </c>
       <c r="D15" t="n">
-        <v>1114.126</v>
+        <v>1089.088</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.412126064300537</v>
+        <v>1.303359985351562</v>
       </c>
       <c r="D16" t="n">
-        <v>279.071</v>
+        <v>284.702</v>
       </c>
     </row>
     <row r="17">
@@ -1564,7 +1564,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.548058748245239</v>
+        <v>1.531214952468872</v>
       </c>
       <c r="D17" t="n">
         <v>1040.391</v>
@@ -1580,10 +1580,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8576056957244873</v>
+        <v>1.017633199691772</v>
       </c>
       <c r="D18" t="n">
-        <v>371.572</v>
+        <v>347.613</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8049750328063965</v>
+        <v>0.8587000370025635</v>
       </c>
       <c r="D19" t="n">
-        <v>1087.133</v>
+        <v>1094.261</v>
       </c>
     </row>
     <row r="20">
@@ -1612,10 +1612,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.369258880615234</v>
+        <v>1.34453296661377</v>
       </c>
       <c r="D20" t="n">
-        <v>277.116</v>
+        <v>282.747</v>
       </c>
     </row>
     <row r="21">
@@ -1628,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.435221910476685</v>
+        <v>1.535626173019409</v>
       </c>
       <c r="D21" t="n">
-        <v>1030.64</v>
+        <v>1007.099</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9162020683288574</v>
+        <v>0.7934970855712891</v>
       </c>
       <c r="D22" t="n">
-        <v>344.355</v>
+        <v>373.527</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8523678779602051</v>
+        <v>0.85245680809021</v>
       </c>
       <c r="D23" t="n">
-        <v>1119.757</v>
+        <v>1114.126</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.519807100296021</v>
+        <v>1.272068738937378</v>
       </c>
       <c r="D24" t="n">
-        <v>205.181</v>
+        <v>255.53</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.538844108581543</v>
+        <v>1.552475929260254</v>
       </c>
       <c r="D25" t="n">
-        <v>1032.595</v>
+        <v>1034.76</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>1.101743936538696</v>
+        <v>0.8260343074798584</v>
       </c>
       <c r="D2" t="n">
-        <v>242.989</v>
+        <v>244.486</v>
       </c>
     </row>
     <row r="3">
@@ -1765,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8694379329681396</v>
+        <v>0.8600950241088867</v>
       </c>
       <c r="D3" t="n">
         <v>278.756</v>
@@ -1781,10 +1781,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.324655771255493</v>
+        <v>1.216961860656738</v>
       </c>
       <c r="D4" t="n">
-        <v>217.147</v>
+        <v>255.323</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.431978940963745</v>
+        <v>1.340964078903198</v>
       </c>
       <c r="D5" t="n">
-        <v>307.887</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="6">
@@ -1813,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8687608242034912</v>
+        <v>0.8512821197509766</v>
       </c>
       <c r="D6" t="n">
         <v>218.99</v>
@@ -1829,10 +1829,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9952080249786377</v>
+        <v>0.8664541244506836</v>
       </c>
       <c r="D7" t="n">
-        <v>276.801</v>
+        <v>282.432</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>2.416204929351807</v>
+        <v>1.353166103363037</v>
       </c>
       <c r="D8" t="n">
-        <v>290.369</v>
+        <v>214.774</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.099867820739746</v>
+        <v>1.264588117599487</v>
       </c>
       <c r="D9" t="n">
-        <v>272.863</v>
+        <v>323.736</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9435000419616699</v>
+        <v>0.8142151832580566</v>
       </c>
       <c r="D10" t="n">
-        <v>244.068</v>
+        <v>220.527</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.996757984161377</v>
+        <v>0.8528211116790771</v>
       </c>
       <c r="D11" t="n">
-        <v>282.89</v>
+        <v>278.756</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.40349006652832</v>
+        <v>1.433087825775146</v>
       </c>
       <c r="D12" t="n">
-        <v>273.233</v>
+        <v>278.864</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.41694188117981</v>
+        <v>1.313184976577759</v>
       </c>
       <c r="D13" t="n">
-        <v>325.691</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8318009376525879</v>
+        <v>0.9034161567687988</v>
       </c>
       <c r="D14" t="n">
-        <v>343.937</v>
+        <v>373.527</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9508631229400635</v>
+        <v>0.8525369167327881</v>
       </c>
       <c r="D15" t="n">
-        <v>1089.088</v>
+        <v>1114.126</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.484228134155273</v>
+        <v>1.29728889465332</v>
       </c>
       <c r="D16" t="n">
-        <v>279.071</v>
+        <v>222.985</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.576115846633911</v>
+        <v>1.375330924987793</v>
       </c>
       <c r="D17" t="n">
-        <v>1008.636</v>
+        <v>1175.307</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>1.109746932983398</v>
+        <v>0.8394410610198975</v>
       </c>
       <c r="D18" t="n">
-        <v>364.444</v>
+        <v>365.941</v>
       </c>
     </row>
     <row r="19">
@@ -2021,7 +2021,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8247270584106445</v>
+        <v>0.8845100402832031</v>
       </c>
       <c r="D19" t="n">
         <v>1112.171</v>
@@ -2037,10 +2037,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.580245971679688</v>
+        <v>1.232129096984863</v>
       </c>
       <c r="D20" t="n">
-        <v>253.575</v>
+        <v>277.116</v>
       </c>
     </row>
     <row r="21">
@@ -2053,10 +2053,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.474468946456909</v>
+        <v>1.462414979934692</v>
       </c>
       <c r="D21" t="n">
-        <v>1167.721</v>
+        <v>1030.222</v>
       </c>
     </row>
     <row r="22">
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9695417881011963</v>
+        <v>0.8737990856170654</v>
       </c>
       <c r="D22" t="n">
-        <v>373.527</v>
+        <v>367.896</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.910200834274292</v>
+        <v>0.8528456687927246</v>
       </c>
       <c r="D23" t="n">
-        <v>1114.126</v>
+        <v>1119.757</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.410207986831665</v>
+        <v>1.743415117263794</v>
       </c>
       <c r="D24" t="n">
-        <v>284.702</v>
+        <v>428.965</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.492436170578003</v>
+        <v>1.448369026184082</v>
       </c>
       <c r="D25" t="n">
-        <v>1032.595</v>
+        <v>1038.226</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>1.286196947097778</v>
+        <v>0.8056759834289551</v>
       </c>
       <c r="D2" t="n">
-        <v>294.941</v>
+        <v>242.571</v>
       </c>
     </row>
     <row r="3">
@@ -2190,10 +2190,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9381849765777588</v>
+        <v>0.8734488487243652</v>
       </c>
       <c r="D3" t="n">
-        <v>283.969</v>
+        <v>260.428</v>
       </c>
     </row>
     <row r="4">
@@ -2206,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.445926904678345</v>
+        <v>1.317759990692139</v>
       </c>
       <c r="D4" t="n">
-        <v>254.905</v>
+        <v>278.446</v>
       </c>
     </row>
     <row r="5">
@@ -2222,10 +2222,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.440474987030029</v>
+        <v>1.416492223739624</v>
       </c>
       <c r="D5" t="n">
-        <v>302.15</v>
+        <v>325.273</v>
       </c>
     </row>
     <row r="6">
@@ -2238,10 +2238,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9056000709533691</v>
+        <v>0.9358470439910889</v>
       </c>
       <c r="D6" t="n">
-        <v>218.99</v>
+        <v>236.9</v>
       </c>
     </row>
     <row r="7">
@@ -2254,10 +2254,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8436210155487061</v>
+        <v>0.8245730400085449</v>
       </c>
       <c r="D7" t="n">
-        <v>282.432</v>
+        <v>282.014</v>
       </c>
     </row>
     <row r="8">
@@ -2270,10 +2270,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.42018723487854</v>
+        <v>1.470674991607666</v>
       </c>
       <c r="D8" t="n">
-        <v>271.278</v>
+        <v>220.405</v>
       </c>
     </row>
     <row r="9">
@@ -2286,10 +2286,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.406368017196655</v>
+        <v>1.341382026672363</v>
       </c>
       <c r="D9" t="n">
-        <v>332.51</v>
+        <v>338.559</v>
       </c>
     </row>
     <row r="10">
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8347961902618408</v>
+        <v>0.8693299293518066</v>
       </c>
       <c r="D10" t="n">
-        <v>244.068</v>
+        <v>244.486</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7984089851379395</v>
+        <v>0.8769638538360596</v>
       </c>
       <c r="D11" t="n">
-        <v>255.215</v>
+        <v>283.969</v>
       </c>
     </row>
     <row r="12">
@@ -2334,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.341292142868042</v>
+        <v>1.212207794189453</v>
       </c>
       <c r="D12" t="n">
-        <v>278.864</v>
+        <v>272.815</v>
       </c>
     </row>
     <row r="13">
@@ -2350,10 +2350,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.233745098114014</v>
+        <v>1.357107877731323</v>
       </c>
       <c r="D13" t="n">
-        <v>330.904</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8474597930908203</v>
+        <v>0.8467347621917725</v>
       </c>
       <c r="D14" t="n">
-        <v>349.986</v>
+        <v>344.355</v>
       </c>
     </row>
     <row r="15">
@@ -2382,10 +2382,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8446190357208252</v>
+        <v>0.8705077171325684</v>
       </c>
       <c r="D15" t="n">
-        <v>1119.757</v>
+        <v>1114.126</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2398,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.673898935317993</v>
+        <v>1.30767822265625</v>
       </c>
       <c r="D16" t="n">
-        <v>284.702</v>
+        <v>284.284</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.390219926834106</v>
+        <v>1.455655097961426</v>
       </c>
       <c r="D17" t="n">
-        <v>1032.177</v>
+        <v>1032.595</v>
       </c>
     </row>
     <row r="18">
@@ -2430,7 +2430,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8623309135437012</v>
+        <v>0.9049341678619385</v>
       </c>
       <c r="D18" t="n">
         <v>365.941</v>
@@ -2446,10 +2446,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8314499855041504</v>
+        <v>0.9066221714019775</v>
       </c>
       <c r="D19" t="n">
-        <v>1112.171</v>
+        <v>1094.261</v>
       </c>
     </row>
     <row r="20">
@@ -2462,10 +2462,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.447177171707153</v>
+        <v>1.317991018295288</v>
       </c>
       <c r="D20" t="n">
-        <v>277.116</v>
+        <v>253.575</v>
       </c>
     </row>
     <row r="21">
@@ -2478,10 +2478,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.49945592880249</v>
+        <v>1.528078079223633</v>
       </c>
       <c r="D21" t="n">
-        <v>1038.436</v>
+        <v>1036.271</v>
       </c>
     </row>
     <row r="22">
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.010185956954956</v>
+        <v>0.8506419658660889</v>
       </c>
       <c r="D22" t="n">
-        <v>372.03</v>
+        <v>373.527</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8808259963989258</v>
+        <v>0.8402438163757324</v>
       </c>
       <c r="D23" t="n">
-        <v>1090.585</v>
+        <v>1119.339</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.338289976119995</v>
+        <v>4.359841108322144</v>
       </c>
       <c r="D24" t="n">
-        <v>279.071</v>
+        <v>2234.111</v>
       </c>
     </row>
     <row r="25">
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.305205106735229</v>
+        <v>1.495203018188477</v>
       </c>
       <c r="D25" t="n">
         <v>1032.177</v>
@@ -2599,10 +2599,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9510951042175293</v>
+        <v>0.8667159080505371</v>
       </c>
       <c r="D2" t="n">
-        <v>221.051</v>
+        <v>236.94</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8359746932983398</v>
+        <v>1.06099009513855</v>
       </c>
       <c r="D3" t="n">
-        <v>278.862</v>
+        <v>340.055</v>
       </c>
     </row>
     <row r="4">
@@ -2631,10 +2631,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.418161153793335</v>
+        <v>1.312846183776855</v>
       </c>
       <c r="D4" t="n">
-        <v>255.323</v>
+        <v>273.233</v>
       </c>
     </row>
     <row r="5">
@@ -2647,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.483657121658325</v>
+        <v>1.302064895629883</v>
       </c>
       <c r="D5" t="n">
         <v>331.322</v>
@@ -2663,7 +2663,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9400501251220703</v>
+        <v>0.9699349403381348</v>
       </c>
       <c r="D6" t="n">
         <v>236.9</v>
@@ -2679,10 +2679,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8530750274658203</v>
+        <v>0.848649263381958</v>
       </c>
       <c r="D7" t="n">
-        <v>282.432</v>
+        <v>276.383</v>
       </c>
     </row>
     <row r="8">
@@ -2695,10 +2695,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.379017114639282</v>
+        <v>1.270483255386353</v>
       </c>
       <c r="D8" t="n">
-        <v>271.278</v>
+        <v>214.774</v>
       </c>
     </row>
     <row r="9">
@@ -2711,10 +2711,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.430202960968018</v>
+        <v>1.409552097320557</v>
       </c>
       <c r="D9" t="n">
-        <v>329.367</v>
+        <v>328.949</v>
       </c>
     </row>
     <row r="10">
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8276839256286621</v>
+        <v>0.8217170238494873</v>
       </c>
       <c r="D10" t="n">
-        <v>238.961</v>
+        <v>238.437</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8790359497070312</v>
+        <v>0.8277871608734131</v>
       </c>
       <c r="D11" t="n">
-        <v>260.428</v>
+        <v>283.969</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.374023914337158</v>
+        <v>1.303503036499023</v>
       </c>
       <c r="D12" t="n">
-        <v>217.147</v>
+        <v>278.446</v>
       </c>
     </row>
     <row r="13">
@@ -2775,10 +2775,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.588502168655396</v>
+        <v>1.391513109207153</v>
       </c>
       <c r="D13" t="n">
-        <v>325.273</v>
+        <v>330.904</v>
       </c>
     </row>
     <row r="14">
@@ -2791,10 +2791,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.88525390625</v>
+        <v>0.8348772525787354</v>
       </c>
       <c r="D14" t="n">
-        <v>344.355</v>
+        <v>367.478</v>
       </c>
     </row>
     <row r="15">
@@ -2807,10 +2807,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.861922025680542</v>
+        <v>0.8299829959869385</v>
       </c>
       <c r="D15" t="n">
-        <v>1090.167</v>
+        <v>1113.708</v>
       </c>
     </row>
     <row r="16">
@@ -2823,10 +2823,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.343687057495117</v>
+        <v>1.349981069564819</v>
       </c>
       <c r="D16" t="n">
-        <v>279.071</v>
+        <v>284.284</v>
       </c>
     </row>
     <row r="17">
@@ -2839,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.334399938583374</v>
+        <v>1.270275831222534</v>
       </c>
       <c r="D17" t="n">
         <v>1032.595</v>
@@ -2855,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8514540195465088</v>
+        <v>0.8604800701141357</v>
       </c>
       <c r="D18" t="n">
-        <v>365.523</v>
+        <v>371.572</v>
       </c>
     </row>
     <row r="19">
@@ -2871,10 +2871,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9000608921051025</v>
+        <v>0.8605837821960449</v>
       </c>
       <c r="D19" t="n">
-        <v>1117.802</v>
+        <v>1111.753</v>
       </c>
     </row>
     <row r="20">
@@ -2887,10 +2887,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.492428064346313</v>
+        <v>1.361400127410889</v>
       </c>
       <c r="D20" t="n">
-        <v>200.38</v>
+        <v>419.828</v>
       </c>
     </row>
     <row r="21">
@@ -2903,10 +2903,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.463714122772217</v>
+        <v>1.544378042221069</v>
       </c>
       <c r="D21" t="n">
-        <v>1030.64</v>
+        <v>1170.304</v>
       </c>
     </row>
     <row r="22">
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8766260147094727</v>
+        <v>0.8556540012359619</v>
       </c>
       <c r="D22" t="n">
-        <v>373.527</v>
+        <v>367.896</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8936598300933838</v>
+        <v>0.8189706802368164</v>
       </c>
       <c r="D23" t="n">
-        <v>1113.708</v>
+        <v>1119.339</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.393834829330444</v>
+        <v>1.280626058578491</v>
       </c>
       <c r="D24" t="n">
-        <v>284.702</v>
+        <v>255.112</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.534702777862549</v>
+        <v>1.380643129348755</v>
       </c>
       <c r="D25" t="n">
-        <v>1032.595</v>
+        <v>1038.226</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3024,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8262712955474854</v>
+        <v>0.8367288112640381</v>
       </c>
       <c r="D2" t="n">
-        <v>238.437</v>
+        <v>238.855</v>
       </c>
     </row>
     <row r="3">
@@ -3040,10 +3040,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8623571395874023</v>
+        <v>1.028906106948853</v>
       </c>
       <c r="D3" t="n">
-        <v>260.846</v>
+        <v>277.259</v>
       </c>
     </row>
     <row r="4">
@@ -3056,10 +3056,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.341804981231689</v>
+        <v>1.498525142669678</v>
       </c>
       <c r="D4" t="n">
-        <v>278.864</v>
+        <v>272.815</v>
       </c>
     </row>
     <row r="5">
@@ -3072,10 +3072,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.604335784912109</v>
+        <v>1.302153825759888</v>
       </c>
       <c r="D5" t="n">
-        <v>331.322</v>
+        <v>325.691</v>
       </c>
     </row>
     <row r="6">
@@ -3088,10 +3088,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9099850654602051</v>
+        <v>0.8768959045410156</v>
       </c>
       <c r="D6" t="n">
-        <v>236.9</v>
+        <v>242.531</v>
       </c>
     </row>
     <row r="7">
@@ -3104,10 +3104,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>1.05442214012146</v>
+        <v>0.8683819770812988</v>
       </c>
       <c r="D7" t="n">
-        <v>282.432</v>
+        <v>276.801</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3120,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.538917064666748</v>
+        <v>1.212654829025269</v>
       </c>
       <c r="D8" t="n">
-        <v>276.909</v>
+        <v>220.823</v>
       </c>
     </row>
     <row r="9">
@@ -3136,10 +3136,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.490299940109253</v>
+        <v>1.391227960586548</v>
       </c>
       <c r="D9" t="n">
-        <v>323.736</v>
+        <v>299.777</v>
       </c>
     </row>
     <row r="10">
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9120588302612305</v>
+        <v>0.8995702266693115</v>
       </c>
       <c r="D10" t="n">
-        <v>244.486</v>
+        <v>220.633</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8385810852050781</v>
+        <v>0.777292013168335</v>
       </c>
       <c r="D11" t="n">
-        <v>277.259</v>
+        <v>282.89</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.211912393569946</v>
+        <v>1.208178997039795</v>
       </c>
       <c r="D12" t="n">
-        <v>255.429</v>
+        <v>278.864</v>
       </c>
     </row>
     <row r="13">
@@ -3200,10 +3200,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.531318187713623</v>
+        <v>1.27337908744812</v>
       </c>
       <c r="D13" t="n">
-        <v>269.711</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="14">
@@ -3216,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>4.046372890472412</v>
+        <v>0.8728518486022949</v>
       </c>
       <c r="D14" t="n">
-        <v>2268.434</v>
+        <v>373.527</v>
       </c>
     </row>
     <row r="15">
@@ -3232,10 +3232,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>1.512365102767944</v>
+        <v>0.8006503582000732</v>
       </c>
       <c r="D15" t="n">
-        <v>1094.719</v>
+        <v>1119.339</v>
       </c>
     </row>
     <row r="16">
@@ -3248,10 +3248,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.405431985855103</v>
+        <v>1.402002334594727</v>
       </c>
       <c r="D16" t="n">
-        <v>222.985</v>
+        <v>284.702</v>
       </c>
     </row>
     <row r="17">
@@ -3264,10 +3264,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>2.088993787765503</v>
+        <v>1.344709873199463</v>
       </c>
       <c r="D17" t="n">
-        <v>1034.76</v>
+        <v>1032.595</v>
       </c>
     </row>
     <row r="18">
@@ -3280,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9249441623687744</v>
+        <v>0.807520866394043</v>
       </c>
       <c r="D18" t="n">
-        <v>371.572</v>
+        <v>369.657</v>
       </c>
     </row>
     <row r="19">
@@ -3296,10 +3296,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>1.091303110122681</v>
+        <v>0.8137998580932617</v>
       </c>
       <c r="D19" t="n">
-        <v>1092.764</v>
+        <v>1117.384</v>
       </c>
     </row>
     <row r="20">
@@ -3312,10 +3312,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.358458995819092</v>
+        <v>1.320133924484253</v>
       </c>
       <c r="D20" t="n">
-        <v>221.03</v>
+        <v>226.661</v>
       </c>
     </row>
     <row r="21">
@@ -3328,10 +3328,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.628895044326782</v>
+        <v>1.567568778991699</v>
       </c>
       <c r="D21" t="n">
-        <v>1036.271</v>
+        <v>1032.805</v>
       </c>
     </row>
     <row r="22">
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9508380889892578</v>
+        <v>0.8006179332733154</v>
       </c>
       <c r="D22" t="n">
-        <v>373.527</v>
+        <v>372.03</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8973281383514404</v>
+        <v>0.9317219257354736</v>
       </c>
       <c r="D23" t="n">
-        <v>1114.126</v>
+        <v>1090.585</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.339241981506348</v>
+        <v>1.273329973220825</v>
       </c>
       <c r="D24" t="n">
-        <v>279.071</v>
+        <v>284.702</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.719292163848877</v>
+        <v>1.461203098297119</v>
       </c>
       <c r="D25" t="n">
-        <v>1153.931</v>
+        <v>1038.226</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3449,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8913750648498535</v>
+        <v>0.8636553287506104</v>
       </c>
       <c r="D2" t="n">
-        <v>238.855</v>
+        <v>244.068</v>
       </c>
     </row>
     <row r="3">
@@ -3465,10 +3465,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.329391956329346</v>
+        <v>0.8101570606231689</v>
       </c>
       <c r="D3" t="n">
-        <v>284.387</v>
+        <v>260.846</v>
       </c>
     </row>
     <row r="4">
@@ -3481,10 +3481,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.392796993255615</v>
+        <v>1.348360061645508</v>
       </c>
       <c r="D4" t="n">
-        <v>222.778</v>
+        <v>199.237</v>
       </c>
     </row>
     <row r="5">
@@ -3497,10 +3497,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.501873970031738</v>
+        <v>1.341743946075439</v>
       </c>
       <c r="D5" t="n">
-        <v>302.15</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="6">
@@ -3513,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9431726932525635</v>
+        <v>0.8662919998168945</v>
       </c>
       <c r="D6" t="n">
-        <v>242.531</v>
+        <v>236.9</v>
       </c>
     </row>
     <row r="7">
@@ -3529,10 +3529,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8190939426422119</v>
+        <v>0.8774929046630859</v>
       </c>
       <c r="D7" t="n">
-        <v>274.886</v>
+        <v>276.801</v>
       </c>
     </row>
     <row r="8">
@@ -3545,10 +3545,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.308482885360718</v>
+        <v>1.441658973693848</v>
       </c>
       <c r="D8" t="n">
-        <v>271.278</v>
+        <v>253.368</v>
       </c>
     </row>
     <row r="9">
@@ -3561,10 +3561,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.602921009063721</v>
+        <v>1.179945945739746</v>
       </c>
       <c r="D9" t="n">
-        <v>323.842</v>
+        <v>338.559</v>
       </c>
     </row>
     <row r="10">
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>1.003154754638672</v>
+        <v>0.9026501178741455</v>
       </c>
       <c r="D10" t="n">
-        <v>219.448</v>
+        <v>238.437</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8902909755706787</v>
+        <v>0.8435099124908447</v>
       </c>
       <c r="D11" t="n">
-        <v>260.846</v>
+        <v>278.756</v>
       </c>
     </row>
     <row r="12">
@@ -3609,10 +3609,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.390017747879028</v>
+        <v>1.266054153442383</v>
       </c>
       <c r="D12" t="n">
-        <v>273.233</v>
+        <v>278.864</v>
       </c>
     </row>
     <row r="13">
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.283452749252319</v>
+        <v>1.387405872344971</v>
       </c>
       <c r="D13" t="n">
-        <v>331.322</v>
+        <v>325.379</v>
       </c>
     </row>
     <row r="14">
@@ -3641,10 +3641,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8470468521118164</v>
+        <v>0.854957103729248</v>
       </c>
       <c r="D14" t="n">
-        <v>367.896</v>
+        <v>349.986</v>
       </c>
     </row>
     <row r="15">
@@ -3657,10 +3657,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8754940032958984</v>
+        <v>0.893563985824585</v>
       </c>
       <c r="D15" t="n">
-        <v>1119.757</v>
+        <v>1119.339</v>
       </c>
     </row>
     <row r="16">
@@ -3673,10 +3673,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.428874969482422</v>
+        <v>1.23508095741272</v>
       </c>
       <c r="D16" t="n">
-        <v>222.985</v>
+        <v>284.284</v>
       </c>
     </row>
     <row r="17">
@@ -3689,10 +3689,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>2.600383996963501</v>
+        <v>1.514519214630127</v>
       </c>
       <c r="D17" t="n">
-        <v>1172.259</v>
+        <v>1034.76</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>2.451738834381104</v>
+        <v>0.8022327423095703</v>
       </c>
       <c r="D18" t="n">
-        <v>427.24</v>
+        <v>347.613</v>
       </c>
     </row>
     <row r="19">
@@ -3721,10 +3721,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>1.028126001358032</v>
+        <v>0.8297238349914551</v>
       </c>
       <c r="D19" t="n">
-        <v>1065.195</v>
+        <v>1112.171</v>
       </c>
     </row>
     <row r="20">
@@ -3737,10 +3737,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.606039047241211</v>
+        <v>1.408197164535522</v>
       </c>
       <c r="D20" t="n">
-        <v>221.03</v>
+        <v>277.116</v>
       </c>
     </row>
     <row r="21">
@@ -3753,10 +3753,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.863315105438232</v>
+        <v>1.480792045593262</v>
       </c>
       <c r="D21" t="n">
-        <v>1031.111</v>
+        <v>1032.805</v>
       </c>
     </row>
     <row r="22">
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>1.5292649269104</v>
+        <v>0.9880318641662598</v>
       </c>
       <c r="D22" t="n">
-        <v>431.778</v>
+        <v>372.03</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>1.665318012237549</v>
+        <v>0.8475379943847656</v>
       </c>
       <c r="D23" t="n">
-        <v>1148.942</v>
+        <v>1119.757</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>2.152675867080688</v>
+        <v>1.283538103103638</v>
       </c>
       <c r="D24" t="n">
-        <v>393.029</v>
+        <v>284.702</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.335681200027466</v>
+        <v>1.44476580619812</v>
       </c>
       <c r="D25" t="n">
-        <v>952.55</v>
+        <v>1040.391</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3874,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>1.163231134414673</v>
+        <v>1.067174911499023</v>
       </c>
       <c r="D2" t="n">
         <v>242.989</v>
@@ -3890,7 +3890,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.140630006790161</v>
+        <v>0.8364391326904297</v>
       </c>
       <c r="D3" t="n">
         <v>284.387</v>
@@ -3906,10 +3906,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.392587661743164</v>
+        <v>1.253360986709595</v>
       </c>
       <c r="D4" t="n">
-        <v>231.97</v>
+        <v>255.323</v>
       </c>
     </row>
     <row r="5">
@@ -3922,7 +3922,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.541778802871704</v>
+        <v>1.020281791687012</v>
       </c>
       <c r="D5" t="n">
         <v>278.797</v>
@@ -3938,10 +3938,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>1.288112878799438</v>
+        <v>0.8716652393341064</v>
       </c>
       <c r="D6" t="n">
-        <v>242.531</v>
+        <v>213.465</v>
       </c>
     </row>
     <row r="7">
@@ -3954,10 +3954,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9204380512237549</v>
+        <v>0.8277459144592285</v>
       </c>
       <c r="D7" t="n">
-        <v>275.41</v>
+        <v>258.891</v>
       </c>
     </row>
     <row r="8">
@@ -3970,10 +3970,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.653620958328247</v>
+        <v>1.347720146179199</v>
       </c>
       <c r="D8" t="n">
-        <v>197.282</v>
+        <v>220.823</v>
       </c>
     </row>
     <row r="9">
@@ -3986,10 +3986,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.544281959533691</v>
+        <v>1.38396430015564</v>
       </c>
       <c r="D9" t="n">
-        <v>305.932</v>
+        <v>272.863</v>
       </c>
     </row>
     <row r="10">
@@ -4002,7 +4002,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8577358722686768</v>
+        <v>0.8745551109313965</v>
       </c>
       <c r="D10" t="n">
         <v>244.486</v>
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9319207668304443</v>
+        <v>0.9305200576782227</v>
       </c>
       <c r="D11" t="n">
-        <v>253.718</v>
+        <v>277.259</v>
       </c>
     </row>
     <row r="12">
@@ -4034,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.494451284408569</v>
+        <v>1.197004079818726</v>
       </c>
       <c r="D12" t="n">
-        <v>199.237</v>
+        <v>273.233</v>
       </c>
     </row>
     <row r="13">
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.311722993850708</v>
+        <v>1.484397172927856</v>
       </c>
       <c r="D13" t="n">
         <v>325.691</v>
@@ -4066,7 +4066,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8411672115325928</v>
+        <v>0.8162221908569336</v>
       </c>
       <c r="D14" t="n">
         <v>373.527</v>
@@ -4082,10 +4082,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9931392669677734</v>
+        <v>0.9629001617431641</v>
       </c>
       <c r="D15" t="n">
-        <v>1094.719</v>
+        <v>1118.26</v>
       </c>
     </row>
     <row r="16">
@@ -4098,10 +4098,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.238325834274292</v>
+        <v>1.269952058792114</v>
       </c>
       <c r="D16" t="n">
-        <v>222.985</v>
+        <v>284.702</v>
       </c>
     </row>
     <row r="17">
@@ -4114,10 +4114,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.647472143173218</v>
+        <v>1.446086883544922</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.89</v>
+        <v>1014.685</v>
       </c>
     </row>
     <row r="18">
@@ -4130,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8421299457550049</v>
+        <v>0.8206400871276855</v>
       </c>
       <c r="D18" t="n">
         <v>365.941</v>
@@ -4146,10 +4146,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.860849142074585</v>
+        <v>0.8730230331420898</v>
       </c>
       <c r="D19" t="n">
-        <v>1112.171</v>
+        <v>1117.802</v>
       </c>
     </row>
     <row r="20">
@@ -4162,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.490341901779175</v>
+        <v>1.525312900543213</v>
       </c>
       <c r="D20" t="n">
         <v>282.747</v>
@@ -4178,10 +4178,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.603864669799805</v>
+        <v>1.38136100769043</v>
       </c>
       <c r="D21" t="n">
-        <v>1032.805</v>
+        <v>1030.64</v>
       </c>
     </row>
     <row r="22">
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9626617431640625</v>
+        <v>0.8211760520935059</v>
       </c>
       <c r="D22" t="n">
-        <v>366.399</v>
+        <v>343.937</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9338631629943848</v>
+        <v>0.827631950378418</v>
       </c>
       <c r="D23" t="n">
-        <v>1112.629</v>
+        <v>1119.757</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.579978942871094</v>
+        <v>1.211196899414062</v>
       </c>
       <c r="D24" t="n">
-        <v>284.702</v>
+        <v>278.653</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.510243892669678</v>
+        <v>1.50067400932312</v>
       </c>
       <c r="D25" t="n">
-        <v>1175.725</v>
+        <v>1172.259</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +4299,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>1.009032011032104</v>
+        <v>0.8996009826660156</v>
       </c>
       <c r="D2" t="n">
-        <v>242.989</v>
+        <v>213.817</v>
       </c>
     </row>
     <row r="3">
@@ -4315,10 +4315,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9549598693847656</v>
+        <v>0.8411903381347656</v>
       </c>
       <c r="D3" t="n">
-        <v>282.89</v>
+        <v>278.756</v>
       </c>
     </row>
     <row r="4">
@@ -4331,10 +4331,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.310403823852539</v>
+        <v>1.369298934936523</v>
       </c>
       <c r="D4" t="n">
-        <v>222.778</v>
+        <v>278.864</v>
       </c>
     </row>
     <row r="5">
@@ -4347,10 +4347,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.372123956680298</v>
+        <v>1.424334049224854</v>
       </c>
       <c r="D5" t="n">
-        <v>325.691</v>
+        <v>251.695</v>
       </c>
     </row>
     <row r="6">
@@ -4363,10 +4363,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8711371421813965</v>
+        <v>0.787959098815918</v>
       </c>
       <c r="D6" t="n">
-        <v>236.9</v>
+        <v>235.403</v>
       </c>
     </row>
     <row r="7">
@@ -4379,10 +4379,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8879058361053467</v>
+        <v>0.8128020763397217</v>
       </c>
       <c r="D7" t="n">
-        <v>276.801</v>
+        <v>282.432</v>
       </c>
     </row>
     <row r="8">
@@ -4395,10 +4395,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.135210990905762</v>
+        <v>1.303871870040894</v>
       </c>
       <c r="D8" t="n">
-        <v>224.384</v>
+        <v>256.929</v>
       </c>
     </row>
     <row r="9">
@@ -4411,10 +4411,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.458491802215576</v>
+        <v>1.289541721343994</v>
       </c>
       <c r="D9" t="n">
-        <v>338.559</v>
+        <v>329.367</v>
       </c>
     </row>
     <row r="10">
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9530069828033447</v>
+        <v>0.8466432094573975</v>
       </c>
       <c r="D10" t="n">
-        <v>244.486</v>
+        <v>238.855</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9027168750762939</v>
+        <v>0.819666862487793</v>
       </c>
       <c r="D11" t="n">
-        <v>277.259</v>
+        <v>255.215</v>
       </c>
     </row>
     <row r="12">
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.312724828720093</v>
+        <v>1.342905759811401</v>
       </c>
       <c r="D12" t="n">
         <v>278.864</v>
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.409519195556641</v>
+        <v>1.288458108901978</v>
       </c>
       <c r="D13" t="n">
-        <v>331.322</v>
+        <v>325.691</v>
       </c>
     </row>
     <row r="14">
@@ -4491,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8852660655975342</v>
+        <v>0.9438209533691406</v>
       </c>
       <c r="D14" t="n">
-        <v>367.896</v>
+        <v>366.399</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8862626552581787</v>
+        <v>0.8338439464569092</v>
       </c>
       <c r="D15" t="n">
-        <v>1096.216</v>
+        <v>1119.757</v>
       </c>
     </row>
     <row r="16">
@@ -4523,10 +4523,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.38067889213562</v>
+        <v>1.40389609336853</v>
       </c>
       <c r="D16" t="n">
-        <v>255.53</v>
+        <v>255.636</v>
       </c>
     </row>
     <row r="17">
@@ -4539,10 +4539,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.427468061447144</v>
+        <v>1.519553184509277</v>
       </c>
       <c r="D17" t="n">
-        <v>1032.595</v>
+        <v>1034.342</v>
       </c>
     </row>
     <row r="18">
@@ -4555,10 +4555,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8879690170288086</v>
+        <v>0.9190850257873535</v>
       </c>
       <c r="D18" t="n">
-        <v>365.941</v>
+        <v>346.534</v>
       </c>
     </row>
     <row r="19">
@@ -4571,10 +4571,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8929440975189209</v>
+        <v>0.8522748947143555</v>
       </c>
       <c r="D19" t="n">
-        <v>1117.802</v>
+        <v>1112.171</v>
       </c>
     </row>
     <row r="20">
@@ -4587,10 +4587,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.565042018890381</v>
+        <v>1.380356788635254</v>
       </c>
       <c r="D20" t="n">
-        <v>363.742</v>
+        <v>282.747</v>
       </c>
     </row>
     <row r="21">
@@ -4603,10 +4603,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.563444137573242</v>
+        <v>1.555778980255127</v>
       </c>
       <c r="D21" t="n">
-        <v>1030.64</v>
+        <v>1032.805</v>
       </c>
     </row>
     <row r="22">
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9166970252990723</v>
+        <v>0.9122161865234375</v>
       </c>
       <c r="D22" t="n">
-        <v>368.002</v>
+        <v>366.399</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9031670093536377</v>
+        <v>0.9516420364379883</v>
       </c>
       <c r="D23" t="n">
-        <v>1090.585</v>
+        <v>1118.26</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.438425064086914</v>
+        <v>1.32117486000061</v>
       </c>
       <c r="D24" t="n">
-        <v>255.53</v>
+        <v>279.071</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.610988855361938</v>
+        <v>1.503839015960693</v>
       </c>
       <c r="D25" t="n">
-        <v>1177.89</v>
+        <v>1008.636</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_firefox_test_results.xlsx
+++ b/client/test_results/unfiltered_firefox_test_results.xlsx
@@ -474,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8860569000244141</v>
+        <v>0.906282901763916</v>
       </c>
       <c r="D2" t="n">
-        <v>238.855</v>
+        <v>210.011</v>
       </c>
     </row>
     <row r="3">
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.859062671661377</v>
+        <v>0.9629578590393066</v>
       </c>
       <c r="D3" t="n">
-        <v>278.338</v>
+        <v>206.828</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.277153968811035</v>
+        <v>1.368942737579346</v>
       </c>
       <c r="D4" t="n">
-        <v>222.36</v>
+        <v>255.323</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.392767906188965</v>
+        <v>1.33753514289856</v>
       </c>
       <c r="D5" t="n">
-        <v>275.236</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.943281888961792</v>
+        <v>0.8411152362823486</v>
       </c>
       <c r="D6" t="n">
-        <v>242.531</v>
+        <v>208.056</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7995388507843018</v>
+        <v>0.8538458347320557</v>
       </c>
       <c r="D7" t="n">
-        <v>257.394</v>
+        <v>228.414</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.489693880081177</v>
+        <v>1.291923046112061</v>
       </c>
       <c r="D8" t="n">
-        <v>276.909</v>
+        <v>253.368</v>
       </c>
     </row>
     <row r="9">
@@ -586,7 +586,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.38598895072937</v>
+        <v>1.312715768814087</v>
       </c>
       <c r="D9" t="n">
         <v>323.736</v>
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8414788246154785</v>
+        <v>0.9880859851837158</v>
       </c>
       <c r="D10" t="n">
-        <v>238.961</v>
+        <v>190.604</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8395178318023682</v>
+        <v>0.8742470741271973</v>
       </c>
       <c r="D11" t="n">
-        <v>260.428</v>
+        <v>206.828</v>
       </c>
     </row>
     <row r="12">
@@ -634,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.375593900680542</v>
+        <v>1.424412727355957</v>
       </c>
       <c r="D12" t="n">
-        <v>272.815</v>
+        <v>273.233</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.624349117279053</v>
+        <v>1.451207160949707</v>
       </c>
       <c r="D13" t="n">
-        <v>331.322</v>
+        <v>325.691</v>
       </c>
     </row>
     <row r="14">
@@ -666,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.842761754989624</v>
+        <v>0.8291609287261963</v>
       </c>
       <c r="D14" t="n">
-        <v>373.527</v>
+        <v>348.977</v>
       </c>
     </row>
     <row r="15">
@@ -682,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8627650737762451</v>
+        <v>0.9260339736938477</v>
       </c>
       <c r="D15" t="n">
-        <v>1113.708</v>
+        <v>773.163</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.301482915878296</v>
+        <v>1.520066022872925</v>
       </c>
       <c r="D16" t="n">
-        <v>416.57</v>
+        <v>253.819</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.487235069274902</v>
+        <v>1.21552300453186</v>
       </c>
       <c r="D17" t="n">
-        <v>1032.595</v>
+        <v>746.028</v>
       </c>
     </row>
     <row r="18">
@@ -730,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8874869346618652</v>
+        <v>0.8287079334259033</v>
       </c>
       <c r="D18" t="n">
-        <v>371.572</v>
+        <v>341.391</v>
       </c>
     </row>
     <row r="19">
@@ -746,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.821516752243042</v>
+        <v>0.8636929988861084</v>
       </c>
       <c r="D19" t="n">
-        <v>1117.384</v>
+        <v>742.0359999999999</v>
       </c>
     </row>
     <row r="20">
@@ -762,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.303147077560425</v>
+        <v>1.303232908248901</v>
       </c>
       <c r="D20" t="n">
-        <v>276.698</v>
+        <v>251.864</v>
       </c>
     </row>
     <row r="21">
@@ -778,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.539189100265503</v>
+        <v>1.721096992492676</v>
       </c>
       <c r="D21" t="n">
-        <v>1170.304</v>
+        <v>829.341</v>
       </c>
     </row>
     <row r="22">
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8324878215789795</v>
+        <v>0.8184540271759033</v>
       </c>
       <c r="D22" t="n">
-        <v>349.986</v>
+        <v>348.977</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8225710391998291</v>
+        <v>0.8750557899475098</v>
       </c>
       <c r="D23" t="n">
-        <v>1119.339</v>
+        <v>767.532</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.459330081939697</v>
+        <v>1.327343225479126</v>
       </c>
       <c r="D24" t="n">
-        <v>284.284</v>
+        <v>253.819</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.425919055938721</v>
+        <v>1.468225002288818</v>
       </c>
       <c r="D25" t="n">
-        <v>1011.219</v>
+        <v>823.082</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9364428520202637</v>
+        <v>0.9231381416320801</v>
       </c>
       <c r="D2" t="n">
-        <v>237.358</v>
+        <v>215.642</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.852694034576416</v>
+        <v>0.8303048610687256</v>
       </c>
       <c r="D3" t="n">
-        <v>284.387</v>
+        <v>229.951</v>
       </c>
     </row>
     <row r="4">
@@ -931,10 +931,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.375879287719727</v>
+        <v>1.373212814331055</v>
       </c>
       <c r="D4" t="n">
-        <v>249.692</v>
+        <v>254.905</v>
       </c>
     </row>
     <row r="5">
@@ -947,10 +947,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.384732961654663</v>
+        <v>1.419437170028687</v>
       </c>
       <c r="D5" t="n">
-        <v>307.781</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="6">
@@ -963,10 +963,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9242959022521973</v>
+        <v>0.8909149169921875</v>
       </c>
       <c r="D6" t="n">
-        <v>241.034</v>
+        <v>213.269</v>
       </c>
     </row>
     <row r="7">
@@ -979,10 +979,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8167569637298584</v>
+        <v>0.8769259452819824</v>
       </c>
       <c r="D7" t="n">
-        <v>275.304</v>
+        <v>228.414</v>
       </c>
     </row>
     <row r="8">
@@ -995,10 +995,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.310396194458008</v>
+        <v>1.654082059860229</v>
       </c>
       <c r="D8" t="n">
-        <v>276.909</v>
+        <v>271.278</v>
       </c>
     </row>
     <row r="9">
@@ -1011,7 +1011,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.476758003234863</v>
+        <v>1.521919012069702</v>
       </c>
       <c r="D9" t="n">
         <v>323.736</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9215691089630127</v>
+        <v>0.8274111747741699</v>
       </c>
       <c r="D10" t="n">
-        <v>237.358</v>
+        <v>210.011</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9035110473632812</v>
+        <v>0.8701941967010498</v>
       </c>
       <c r="D11" t="n">
-        <v>253.718</v>
+        <v>230.369</v>
       </c>
     </row>
     <row r="12">
@@ -1059,10 +1059,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.288961887359619</v>
+        <v>1.409417867660522</v>
       </c>
       <c r="D12" t="n">
-        <v>278.864</v>
+        <v>249.692</v>
       </c>
     </row>
     <row r="13">
@@ -1075,10 +1075,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.56112003326416</v>
+        <v>1.579326152801514</v>
       </c>
       <c r="D13" t="n">
-        <v>307.781</v>
+        <v>325.691</v>
       </c>
     </row>
     <row r="14">
@@ -1091,10 +1091,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8258848190307617</v>
+        <v>0.8489720821380615</v>
       </c>
       <c r="D14" t="n">
-        <v>373.527</v>
+        <v>343.346</v>
       </c>
     </row>
     <row r="15">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8221409320831299</v>
+        <v>0.824347972869873</v>
       </c>
       <c r="D15" t="n">
-        <v>1113.708</v>
+        <v>773.163</v>
       </c>
     </row>
     <row r="16">
@@ -1123,10 +1123,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.221139907836914</v>
+        <v>1.493858098983765</v>
       </c>
       <c r="D16" t="n">
-        <v>279.071</v>
+        <v>393.083</v>
       </c>
     </row>
     <row r="17">
@@ -1139,10 +1139,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.526549100875854</v>
+        <v>1.719094038009644</v>
       </c>
       <c r="D17" t="n">
-        <v>1034.76</v>
+        <v>829.131</v>
       </c>
     </row>
     <row r="18">
@@ -1155,10 +1155,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8027889728546143</v>
+        <v>0.9653220176696777</v>
       </c>
       <c r="D18" t="n">
-        <v>365.941</v>
+        <v>346.604</v>
       </c>
     </row>
     <row r="19">
@@ -1171,10 +1171,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8501410484313965</v>
+        <v>0.8451488018035889</v>
       </c>
       <c r="D19" t="n">
-        <v>1112.171</v>
+        <v>771.208</v>
       </c>
     </row>
     <row r="20">
@@ -1187,10 +1187,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.36549186706543</v>
+        <v>1.215068101882935</v>
       </c>
       <c r="D20" t="n">
-        <v>221.03</v>
+        <v>367.587</v>
       </c>
     </row>
     <row r="21">
@@ -1203,10 +1203,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.635473966598511</v>
+        <v>1.524534940719604</v>
       </c>
       <c r="D21" t="n">
-        <v>1030.64</v>
+        <v>771.09</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9639720916748047</v>
+        <v>0.8407530784606934</v>
       </c>
       <c r="D22" t="n">
-        <v>366.399</v>
+        <v>319.805</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8093430995941162</v>
+        <v>0.9096469879150391</v>
       </c>
       <c r="D23" t="n">
-        <v>1114.126</v>
+        <v>773.163</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.302562952041626</v>
+        <v>1.333369970321655</v>
       </c>
       <c r="D24" t="n">
-        <v>228.198</v>
+        <v>253.819</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.540179967880249</v>
+        <v>1.447511911392212</v>
       </c>
       <c r="D25" t="n">
-        <v>1032.595</v>
+        <v>678.187</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1324,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9364683628082275</v>
+        <v>0.8649208545684814</v>
       </c>
       <c r="D2" t="n">
-        <v>244.486</v>
+        <v>186.47</v>
       </c>
     </row>
     <row r="3">
@@ -1340,10 +1340,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8945269584655762</v>
+        <v>0.894608736038208</v>
       </c>
       <c r="D3" t="n">
-        <v>258.931</v>
+        <v>206.828</v>
       </c>
     </row>
     <row r="4">
@@ -1356,10 +1356,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.318080902099609</v>
+        <v>1.312216997146606</v>
       </c>
       <c r="D4" t="n">
-        <v>254.905</v>
+        <v>273.233</v>
       </c>
     </row>
     <row r="5">
@@ -1372,10 +1372,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.339586973190308</v>
+        <v>1.541137933731079</v>
       </c>
       <c r="D5" t="n">
-        <v>325.273</v>
+        <v>331.428</v>
       </c>
     </row>
     <row r="6">
@@ -1388,10 +1388,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9072690010070801</v>
+        <v>0.993588924407959</v>
       </c>
       <c r="D6" t="n">
-        <v>242.531</v>
+        <v>213.687</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8274300098419189</v>
+        <v>0.8600838184356689</v>
       </c>
       <c r="D7" t="n">
-        <v>276.801</v>
+        <v>228.414</v>
       </c>
     </row>
     <row r="8">
@@ -1420,10 +1420,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.490244150161743</v>
+        <v>1.169015884399414</v>
       </c>
       <c r="D8" t="n">
-        <v>252.95</v>
+        <v>253.368</v>
       </c>
     </row>
     <row r="9">
@@ -1436,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.466932058334351</v>
+        <v>1.132464170455933</v>
       </c>
       <c r="D9" t="n">
         <v>329.367</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8730590343475342</v>
+        <v>0.9062759876251221</v>
       </c>
       <c r="D10" t="n">
-        <v>215.314</v>
+        <v>215.224</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8039119243621826</v>
+        <v>0.8765151500701904</v>
       </c>
       <c r="D11" t="n">
-        <v>253.718</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.282882213592529</v>
+        <v>1.209994077682495</v>
       </c>
       <c r="D12" t="n">
-        <v>217.147</v>
+        <v>222.778</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.421296358108521</v>
+        <v>1.407310247421265</v>
       </c>
       <c r="D13" t="n">
-        <v>251.695</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="14">
@@ -1516,10 +1516,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9092638492584229</v>
+        <v>0.9170639514923096</v>
       </c>
       <c r="D14" t="n">
-        <v>373.527</v>
+        <v>348.977</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8199491500854492</v>
+        <v>0.9597139358520508</v>
       </c>
       <c r="D15" t="n">
-        <v>1119.757</v>
+        <v>771.6660000000001</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.324234008789062</v>
+        <v>1.56898307800293</v>
       </c>
       <c r="D16" t="n">
-        <v>255.636</v>
+        <v>253.819</v>
       </c>
     </row>
     <row r="17">
@@ -1564,10 +1564,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.486847162246704</v>
+        <v>1.637101888656616</v>
       </c>
       <c r="D17" t="n">
-        <v>1038.226</v>
+        <v>654.228</v>
       </c>
     </row>
     <row r="18">
@@ -1580,10 +1580,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8320419788360596</v>
+        <v>0.9925282001495361</v>
       </c>
       <c r="D18" t="n">
-        <v>365.941</v>
+        <v>345.525</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8700182437896729</v>
+        <v>0.7641637325286865</v>
       </c>
       <c r="D19" t="n">
-        <v>1112.171</v>
+        <v>769.293</v>
       </c>
     </row>
     <row r="20">
@@ -1612,10 +1612,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.401741981506348</v>
+        <v>1.174968004226685</v>
       </c>
       <c r="D20" t="n">
-        <v>253.157</v>
+        <v>220.942</v>
       </c>
     </row>
     <row r="21">
@@ -1628,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.524405956268311</v>
+        <v>1.538635969161987</v>
       </c>
       <c r="D21" t="n">
-        <v>1173.352</v>
+        <v>827.176</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8676862716674805</v>
+        <v>0.9939477443695068</v>
       </c>
       <c r="D22" t="n">
-        <v>349.568</v>
+        <v>348.977</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8141541481018066</v>
+        <v>0.9807360172271729</v>
       </c>
       <c r="D23" t="n">
-        <v>1113.708</v>
+        <v>766.035</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.312049388885498</v>
+        <v>1.422189235687256</v>
       </c>
       <c r="D24" t="n">
-        <v>284.284</v>
+        <v>248.294</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.618632078170776</v>
+        <v>1.55753493309021</v>
       </c>
       <c r="D25" t="n">
-        <v>1037.808</v>
+        <v>799.9589999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8024799823760986</v>
+        <v>0.8689479827880859</v>
       </c>
       <c r="D2" t="n">
-        <v>236.94</v>
+        <v>192.101</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8138890266418457</v>
+        <v>0.8562829494476318</v>
       </c>
       <c r="D3" t="n">
-        <v>283.969</v>
+        <v>212.459</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.322541952133179</v>
+        <v>1.394917249679565</v>
       </c>
       <c r="D4" t="n">
-        <v>272.815</v>
+        <v>278.446</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.232941865921021</v>
+        <v>1.27643609046936</v>
       </c>
       <c r="D5" t="n">
-        <v>330.904</v>
+        <v>325.691</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8099701404571533</v>
+        <v>0.8469951152801514</v>
       </c>
       <c r="D6" t="n">
-        <v>236.9</v>
+        <v>184.203</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8165738582611084</v>
+        <v>0.9452979564666748</v>
       </c>
       <c r="D7" t="n">
-        <v>282.014</v>
+        <v>210.086</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.227954864501953</v>
+        <v>1.527138233184814</v>
       </c>
       <c r="D8" t="n">
-        <v>276.491</v>
+        <v>276.909</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.069126844406128</v>
+        <v>1.324654817581177</v>
       </c>
       <c r="D9" t="n">
-        <v>276.424</v>
+        <v>249.322</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8229875564575195</v>
+        <v>0.9055869579315186</v>
       </c>
       <c r="D10" t="n">
-        <v>238.437</v>
+        <v>209.593</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8191969394683838</v>
+        <v>0.8067080974578857</v>
       </c>
       <c r="D11" t="n">
-        <v>278.756</v>
+        <v>235.582</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.15050482749939</v>
+        <v>1.434844017028809</v>
       </c>
       <c r="D12" t="n">
-        <v>222.36</v>
+        <v>273.233</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.188265085220337</v>
+        <v>1.500941038131714</v>
       </c>
       <c r="D13" t="n">
-        <v>325.691</v>
+        <v>311.342</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8463187217712402</v>
+        <v>0.8961620330810547</v>
       </c>
       <c r="D14" t="n">
-        <v>343.937</v>
+        <v>325.436</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9660313129425049</v>
+        <v>0.8524649143218994</v>
       </c>
       <c r="D15" t="n">
-        <v>1112.211</v>
+        <v>773.163</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.557528734207153</v>
+        <v>1.337216138839722</v>
       </c>
       <c r="D16" t="n">
-        <v>284.284</v>
+        <v>248.188</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.682509183883667</v>
+        <v>1.538426876068115</v>
       </c>
       <c r="D17" t="n">
-        <v>1172.259</v>
+        <v>823.082</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>1.019649744033813</v>
+        <v>1.037384033203125</v>
       </c>
       <c r="D18" t="n">
-        <v>371.572</v>
+        <v>341.391</v>
       </c>
     </row>
     <row r="19">
@@ -2021,10 +2021,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.871056079864502</v>
+        <v>0.8427529335021973</v>
       </c>
       <c r="D19" t="n">
-        <v>1117.384</v>
+        <v>765.159</v>
       </c>
     </row>
     <row r="20">
@@ -2037,10 +2037,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.320268154144287</v>
+        <v>1.414228439331055</v>
       </c>
       <c r="D20" t="n">
-        <v>253.157</v>
+        <v>251.446</v>
       </c>
     </row>
     <row r="21">
@@ -2053,10 +2053,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.628243923187256</v>
+        <v>4.729296207427979</v>
       </c>
       <c r="D21" t="n">
-        <v>1035.853</v>
+        <v>2668.258</v>
       </c>
     </row>
     <row r="22">
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9735779762268066</v>
+        <v>0.8469760417938232</v>
       </c>
       <c r="D22" t="n">
-        <v>366.399</v>
+        <v>342.928</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.871535062789917</v>
+        <v>1.020908117294312</v>
       </c>
       <c r="D23" t="n">
-        <v>1119.339</v>
+        <v>766.035</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.26938796043396</v>
+        <v>1.335421800613403</v>
       </c>
       <c r="D24" t="n">
-        <v>278.653</v>
+        <v>253.401</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.445346117019653</v>
+        <v>6.767524003982544</v>
       </c>
       <c r="D25" t="n">
-        <v>1009.054</v>
+        <v>2681.099</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8663280010223389</v>
+        <v>0.8206050395965576</v>
       </c>
       <c r="D2" t="n">
-        <v>238.855</v>
+        <v>186.47</v>
       </c>
     </row>
     <row r="3">
@@ -2190,10 +2190,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8622348308563232</v>
+        <v>0.8722701072692871</v>
       </c>
       <c r="D3" t="n">
-        <v>278.338</v>
+        <v>206.828</v>
       </c>
     </row>
     <row r="4">
@@ -2206,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.309077978134155</v>
+        <v>1.321512937545776</v>
       </c>
       <c r="D4" t="n">
-        <v>140.093</v>
+        <v>288.056</v>
       </c>
     </row>
     <row r="5">
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.341103076934814</v>
+        <v>1.285656213760376</v>
       </c>
       <c r="D5" t="n">
         <v>331.322</v>
@@ -2238,10 +2238,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8008260726928711</v>
+        <v>0.8333029747009277</v>
       </c>
       <c r="D6" t="n">
-        <v>236.9</v>
+        <v>206.559</v>
       </c>
     </row>
     <row r="7">
@@ -2254,10 +2254,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8347499370574951</v>
+        <v>0.8841769695281982</v>
       </c>
       <c r="D7" t="n">
-        <v>276.801</v>
+        <v>234.045</v>
       </c>
     </row>
     <row r="8">
@@ -2270,10 +2270,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.268585920333862</v>
+        <v>1.524338960647583</v>
       </c>
       <c r="D8" t="n">
-        <v>253.368</v>
+        <v>276.909</v>
       </c>
     </row>
     <row r="9">
@@ -2286,10 +2286,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.302516937255859</v>
+        <v>1.478127002716064</v>
       </c>
       <c r="D9" t="n">
-        <v>323.736</v>
+        <v>338.559</v>
       </c>
     </row>
     <row r="10">
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8834521770477295</v>
+        <v>0.876539945602417</v>
       </c>
       <c r="D10" t="n">
-        <v>238.855</v>
+        <v>215.224</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9187660217285156</v>
+        <v>0.9042291641235352</v>
       </c>
       <c r="D11" t="n">
-        <v>277.259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.354171752929688</v>
+        <v>1.532952070236206</v>
       </c>
       <c r="D12" t="n">
         <v>278.864</v>
@@ -2350,10 +2350,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.406451940536499</v>
+        <v>1.42768406867981</v>
       </c>
       <c r="D13" t="n">
-        <v>325.691</v>
+        <v>330.904</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8994708061218262</v>
+        <v>0.9014670848846436</v>
       </c>
       <c r="D14" t="n">
-        <v>373.527</v>
+        <v>348.977</v>
       </c>
     </row>
     <row r="15">
@@ -2382,10 +2382,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.858281135559082</v>
+        <v>0.87300705909729</v>
       </c>
       <c r="D15" t="n">
-        <v>1114.126</v>
+        <v>743.991</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2398,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.439265966415405</v>
+        <v>1.441349983215332</v>
       </c>
       <c r="D16" t="n">
-        <v>261.161</v>
+        <v>375.591</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.47184419631958</v>
+        <v>1.552424192428589</v>
       </c>
       <c r="D17" t="n">
-        <v>1034.76</v>
+        <v>823.082</v>
       </c>
     </row>
     <row r="18">
@@ -2430,10 +2430,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8670358657836914</v>
+        <v>0.8668868541717529</v>
       </c>
       <c r="D18" t="n">
-        <v>348.031</v>
+        <v>317.85</v>
       </c>
     </row>
     <row r="19">
@@ -2446,10 +2446,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9423120021820068</v>
+        <v>0.8757932186126709</v>
       </c>
       <c r="D19" t="n">
-        <v>1110.674</v>
+        <v>765.683</v>
       </c>
     </row>
     <row r="20">
@@ -2462,10 +2462,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.324949026107788</v>
+        <v>1.616475820541382</v>
       </c>
       <c r="D20" t="n">
-        <v>282.747</v>
+        <v>251.446</v>
       </c>
     </row>
     <row r="21">
@@ -2478,10 +2478,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.436081886291504</v>
+        <v>1.504945039749146</v>
       </c>
       <c r="D21" t="n">
-        <v>1167.721</v>
+        <v>800.169</v>
       </c>
     </row>
     <row r="22">
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8735377788543701</v>
+        <v>0.857590913772583</v>
       </c>
       <c r="D22" t="n">
-        <v>367.896</v>
+        <v>347.062</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.859130859375</v>
+        <v>0.9265310764312744</v>
       </c>
       <c r="D23" t="n">
-        <v>1113.708</v>
+        <v>748.125</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.267643928527832</v>
+        <v>1.415658950805664</v>
       </c>
       <c r="D24" t="n">
-        <v>284.284</v>
+        <v>253.819</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.51818585395813</v>
+        <v>1.54138708114624</v>
       </c>
       <c r="D25" t="n">
-        <v>1034.76</v>
+        <v>683.4</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2599,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8157849311828613</v>
+        <v>0.8495969772338867</v>
       </c>
       <c r="D2" t="n">
-        <v>238.855</v>
+        <v>215.224</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8543219566345215</v>
+        <v>0.8582921028137207</v>
       </c>
       <c r="D3" t="n">
-        <v>284.387</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -2631,10 +2631,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.379088878631592</v>
+        <v>1.371951103210449</v>
       </c>
       <c r="D4" t="n">
-        <v>278.864</v>
+        <v>288.056</v>
       </c>
     </row>
     <row r="5">
@@ -2647,10 +2647,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.266940832138062</v>
+        <v>1.459151029586792</v>
       </c>
       <c r="D5" t="n">
-        <v>275.236</v>
+        <v>325.691</v>
       </c>
     </row>
     <row r="6">
@@ -2663,10 +2663,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8444042205810547</v>
+        <v>0.8752381801605225</v>
       </c>
       <c r="D6" t="n">
-        <v>242.531</v>
+        <v>189.728</v>
       </c>
     </row>
     <row r="7">
@@ -2679,10 +2679,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8681571483612061</v>
+        <v>0.9475078582763672</v>
       </c>
       <c r="D7" t="n">
-        <v>282.432</v>
+        <v>210.504</v>
       </c>
     </row>
     <row r="8">
@@ -2695,10 +2695,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.427692890167236</v>
+        <v>1.467576026916504</v>
       </c>
       <c r="D8" t="n">
-        <v>271.278</v>
+        <v>276.909</v>
       </c>
     </row>
     <row r="9">
@@ -2711,10 +2711,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.392508983612061</v>
+        <v>1.17057991027832</v>
       </c>
       <c r="D9" t="n">
-        <v>267.65</v>
+        <v>246.264</v>
       </c>
     </row>
     <row r="10">
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8697941303253174</v>
+        <v>0.8666071891784668</v>
       </c>
       <c r="D10" t="n">
-        <v>238.855</v>
+        <v>191.683</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8308858871459961</v>
+        <v>0.845017671585083</v>
       </c>
       <c r="D11" t="n">
-        <v>284.387</v>
+        <v>235.582</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.258550882339478</v>
+        <v>1.354536056518555</v>
       </c>
       <c r="D12" t="n">
-        <v>273.233</v>
+        <v>278.864</v>
       </c>
     </row>
     <row r="13">
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.411972999572754</v>
+        <v>1.588036298751831</v>
       </c>
       <c r="D13" t="n">
         <v>325.691</v>
@@ -2791,10 +2791,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9400660991668701</v>
+        <v>0.8377699851989746</v>
       </c>
       <c r="D14" t="n">
-        <v>366.399</v>
+        <v>325.018</v>
       </c>
     </row>
     <row r="15">
@@ -2807,10 +2807,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.86452317237854</v>
+        <v>0.8709499835968018</v>
       </c>
       <c r="D15" t="n">
-        <v>1096.216</v>
+        <v>767.532</v>
       </c>
     </row>
     <row r="16">
@@ -2823,10 +2823,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.382789134979248</v>
+        <v>1.492323160171509</v>
       </c>
       <c r="D16" t="n">
-        <v>284.702</v>
+        <v>253.819</v>
       </c>
     </row>
     <row r="17">
@@ -2839,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.486762285232544</v>
+        <v>1.4376540184021</v>
       </c>
       <c r="D17" t="n">
-        <v>1175.725</v>
+        <v>807.337</v>
       </c>
     </row>
     <row r="18">
@@ -2855,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8003151416778564</v>
+        <v>0.886063814163208</v>
       </c>
       <c r="D18" t="n">
-        <v>365.941</v>
+        <v>341.391</v>
       </c>
     </row>
     <row r="19">
@@ -2871,10 +2871,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8639709949493408</v>
+        <v>0.8819968700408936</v>
       </c>
       <c r="D19" t="n">
-        <v>1117.802</v>
+        <v>765.577</v>
       </c>
     </row>
     <row r="20">
@@ -2887,10 +2887,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.198262929916382</v>
+        <v>1.367844104766846</v>
       </c>
       <c r="D20" t="n">
-        <v>221.03</v>
+        <v>251.864</v>
       </c>
     </row>
     <row r="21">
@@ -2903,10 +2903,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.426584005355835</v>
+        <v>1.520833015441895</v>
       </c>
       <c r="D21" t="n">
-        <v>1030.64</v>
+        <v>747.131</v>
       </c>
     </row>
     <row r="22">
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9011919498443604</v>
+        <v>0.8788101673126221</v>
       </c>
       <c r="D22" t="n">
-        <v>348.489</v>
+        <v>348.977</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9303569793701172</v>
+        <v>0.8338439464569092</v>
       </c>
       <c r="D23" t="n">
-        <v>1114.126</v>
+        <v>766.035</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.262876987457275</v>
+        <v>1.364639043807983</v>
       </c>
       <c r="D24" t="n">
-        <v>422.201</v>
+        <v>247.77</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.19338583946228</v>
+        <v>1.667572021484375</v>
       </c>
       <c r="D25" t="n">
-        <v>1037.808</v>
+        <v>829.131</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3024,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8864588737487793</v>
+        <v>0.924872875213623</v>
       </c>
       <c r="D2" t="n">
-        <v>238.855</v>
+        <v>210.011</v>
       </c>
     </row>
     <row r="3">
@@ -3040,10 +3040,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8443150520324707</v>
+        <v>0.8676331043243408</v>
       </c>
       <c r="D3" t="n">
-        <v>255.215</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -3056,7 +3056,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.377074003219604</v>
+        <v>1.253422260284424</v>
       </c>
       <c r="D4" t="n">
         <v>273.233</v>
@@ -3072,10 +3072,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.532900810241699</v>
+        <v>1.281036138534546</v>
       </c>
       <c r="D5" t="n">
-        <v>325.691</v>
+        <v>316.973</v>
       </c>
     </row>
     <row r="6">
@@ -3088,10 +3088,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9433670043945312</v>
+        <v>0.9573860168457031</v>
       </c>
       <c r="D6" t="n">
-        <v>240.616</v>
+        <v>206.141</v>
       </c>
     </row>
     <row r="7">
@@ -3104,10 +3104,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8610019683837891</v>
+        <v>0.9320199489593506</v>
       </c>
       <c r="D7" t="n">
-        <v>282.432</v>
+        <v>204.873</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3120,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.256090879440308</v>
+        <v>1.477798938751221</v>
       </c>
       <c r="D8" t="n">
-        <v>220.823</v>
+        <v>220.405</v>
       </c>
     </row>
     <row r="9">
@@ -3136,10 +3136,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.433786869049072</v>
+        <v>1.276026010513306</v>
       </c>
       <c r="D9" t="n">
-        <v>267.65</v>
+        <v>323.736</v>
       </c>
     </row>
     <row r="10">
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8519737720489502</v>
+        <v>0.8547019958496094</v>
       </c>
       <c r="D10" t="n">
-        <v>238.855</v>
+        <v>210.011</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8395881652832031</v>
+        <v>0.9326770305633545</v>
       </c>
       <c r="D11" t="n">
-        <v>278.756</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.421551704406738</v>
+        <v>1.205817937850952</v>
       </c>
       <c r="D12" t="n">
-        <v>273.233</v>
+        <v>208.429</v>
       </c>
     </row>
     <row r="13">
@@ -3200,10 +3200,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.302711725234985</v>
+        <v>1.315824031829834</v>
       </c>
       <c r="D13" t="n">
-        <v>302.362</v>
+        <v>334.883</v>
       </c>
     </row>
     <row r="14">
@@ -3216,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8739888668060303</v>
+        <v>0.9041829109191895</v>
       </c>
       <c r="D14" t="n">
-        <v>367.896</v>
+        <v>343.346</v>
       </c>
     </row>
     <row r="15">
@@ -3232,10 +3232,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8408441543579102</v>
+        <v>0.8918142318725586</v>
       </c>
       <c r="D15" t="n">
-        <v>1119.757</v>
+        <v>767.532</v>
       </c>
     </row>
     <row r="16">
@@ -3248,10 +3248,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.208325147628784</v>
+        <v>1.525353908538818</v>
       </c>
       <c r="D16" t="n">
-        <v>279.071</v>
+        <v>399.132</v>
       </c>
     </row>
     <row r="17">
@@ -3264,10 +3264,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.583847045898438</v>
+        <v>1.508234024047852</v>
       </c>
       <c r="D17" t="n">
-        <v>1032.595</v>
+        <v>654.228</v>
       </c>
     </row>
     <row r="18">
@@ -3280,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9756078720092773</v>
+        <v>0.9042601585388184</v>
       </c>
       <c r="D18" t="n">
-        <v>370.075</v>
+        <v>341.391</v>
       </c>
     </row>
     <row r="19">
@@ -3296,10 +3296,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8917269706726074</v>
+        <v>0.8960399627685547</v>
       </c>
       <c r="D19" t="n">
-        <v>1088.63</v>
+        <v>765.577</v>
       </c>
     </row>
     <row r="20">
@@ -3312,10 +3312,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.36954402923584</v>
+        <v>1.400610685348511</v>
       </c>
       <c r="D20" t="n">
-        <v>282.747</v>
+        <v>397.177</v>
       </c>
     </row>
     <row r="21">
@@ -3328,10 +3328,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.418811082839966</v>
+        <v>1.518681287765503</v>
       </c>
       <c r="D21" t="n">
-        <v>1036.271</v>
+        <v>599.496</v>
       </c>
     </row>
     <row r="22">
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8130459785461426</v>
+        <v>1.02005410194397</v>
       </c>
       <c r="D22" t="n">
-        <v>373.109</v>
+        <v>347.062</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.870814323425293</v>
+        <v>0.885706901550293</v>
       </c>
       <c r="D23" t="n">
-        <v>1119.757</v>
+        <v>773.163</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.291242122650146</v>
+        <v>1.560641765594482</v>
       </c>
       <c r="D24" t="n">
-        <v>279.071</v>
+        <v>253.819</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.476869106292725</v>
+        <v>1.508236169815063</v>
       </c>
       <c r="D25" t="n">
-        <v>1032.595</v>
+        <v>677.769</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3449,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8078229427337646</v>
+        <v>0.8624849319458008</v>
       </c>
       <c r="D2" t="n">
-        <v>238.855</v>
+        <v>215.642</v>
       </c>
     </row>
     <row r="3">
@@ -3465,10 +3465,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8521080017089844</v>
+        <v>0.833996057510376</v>
       </c>
       <c r="D3" t="n">
-        <v>278.756</v>
+        <v>230.369</v>
       </c>
     </row>
     <row r="4">
@@ -3481,10 +3481,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.161857843399048</v>
+        <v>1.487439155578613</v>
       </c>
       <c r="D4" t="n">
-        <v>249.692</v>
+        <v>272.815</v>
       </c>
     </row>
     <row r="5">
@@ -3497,10 +3497,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.396062135696411</v>
+        <v>1.522122859954834</v>
       </c>
       <c r="D5" t="n">
-        <v>330.904</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="6">
@@ -3513,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8513247966766357</v>
+        <v>0.8993101119995117</v>
       </c>
       <c r="D6" t="n">
-        <v>242.531</v>
+        <v>189.728</v>
       </c>
     </row>
     <row r="7">
@@ -3529,10 +3529,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8441081047058105</v>
+        <v>0.8081419467926025</v>
       </c>
       <c r="D7" t="n">
-        <v>282.432</v>
+        <v>203.376</v>
       </c>
     </row>
     <row r="8">
@@ -3545,10 +3545,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.359409809112549</v>
+        <v>1.458743095397949</v>
       </c>
       <c r="D8" t="n">
-        <v>215.192</v>
+        <v>271.278</v>
       </c>
     </row>
     <row r="9">
@@ -3561,10 +3561,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.457240104675293</v>
+        <v>1.23324179649353</v>
       </c>
       <c r="D9" t="n">
-        <v>329.367</v>
+        <v>338.141</v>
       </c>
     </row>
     <row r="10">
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8256089687347412</v>
+        <v>0.9296951293945312</v>
       </c>
       <c r="D10" t="n">
-        <v>244.486</v>
+        <v>215.642</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8906795978546143</v>
+        <v>0.8533282279968262</v>
       </c>
       <c r="D11" t="n">
-        <v>284.387</v>
+        <v>212.459</v>
       </c>
     </row>
     <row r="12">
@@ -3609,10 +3609,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.278634071350098</v>
+        <v>1.468795776367188</v>
       </c>
       <c r="D12" t="n">
-        <v>222.778</v>
+        <v>273.233</v>
       </c>
     </row>
     <row r="13">
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.450045108795166</v>
+        <v>1.562450885772705</v>
       </c>
       <c r="D13" t="n">
-        <v>325.691</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="14">
@@ -3641,10 +3641,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8167641162872314</v>
+        <v>0.8694922924041748</v>
       </c>
       <c r="D14" t="n">
-        <v>372.03</v>
+        <v>319.805</v>
       </c>
     </row>
     <row r="15">
@@ -3657,10 +3657,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8717939853668213</v>
+        <v>0.8543751239776611</v>
       </c>
       <c r="D15" t="n">
-        <v>1112.629</v>
+        <v>767.114</v>
       </c>
     </row>
     <row r="16">
@@ -3673,10 +3673,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.317230224609375</v>
+        <v>1.446345806121826</v>
       </c>
       <c r="D16" t="n">
-        <v>279.071</v>
+        <v>248.188</v>
       </c>
     </row>
     <row r="17">
@@ -3689,10 +3689,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.226433753967285</v>
+        <v>1.54024076461792</v>
       </c>
       <c r="D17" t="n">
-        <v>1008.636</v>
+        <v>805.696</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8248522281646729</v>
+        <v>0.9428648948669434</v>
       </c>
       <c r="D18" t="n">
-        <v>365.941</v>
+        <v>347.022</v>
       </c>
     </row>
     <row r="19">
@@ -3721,10 +3721,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8522100448608398</v>
+        <v>0.8802170753479004</v>
       </c>
       <c r="D19" t="n">
-        <v>1117.802</v>
+        <v>765.577</v>
       </c>
     </row>
     <row r="20">
@@ -3737,10 +3737,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.3066086769104</v>
+        <v>1.437261819839478</v>
       </c>
       <c r="D20" t="n">
-        <v>277.116</v>
+        <v>246.233</v>
       </c>
     </row>
     <row r="21">
@@ -3753,10 +3753,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.428340196609497</v>
+        <v>1.770644903182983</v>
       </c>
       <c r="D21" t="n">
-        <v>1168.139</v>
+        <v>827.176</v>
       </c>
     </row>
     <row r="22">
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.844700813293457</v>
+        <v>1.2376549243927</v>
       </c>
       <c r="D22" t="n">
-        <v>373.527</v>
+        <v>399.432</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8226912021636963</v>
+        <v>0.8530690670013428</v>
       </c>
       <c r="D23" t="n">
-        <v>1114.126</v>
+        <v>773.163</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.295562982559204</v>
+        <v>1.387773990631104</v>
       </c>
       <c r="D24" t="n">
-        <v>279.071</v>
+        <v>230.278</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.26242733001709</v>
+        <v>1.478847026824951</v>
       </c>
       <c r="D25" t="n">
-        <v>1014.267</v>
+        <v>683.818</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8352739810943604</v>
+        <v>0.881397008895874</v>
       </c>
       <c r="D2" t="n">
-        <v>244.068</v>
+        <v>192.101</v>
       </c>
     </row>
     <row r="3">
@@ -3890,10 +3890,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8967301845550537</v>
+        <v>0.9696629047393799</v>
       </c>
       <c r="D3" t="n">
-        <v>284.387</v>
+        <v>206.828</v>
       </c>
     </row>
     <row r="4">
@@ -3906,10 +3906,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.50256609916687</v>
+        <v>1.409877061843872</v>
       </c>
       <c r="D4" t="n">
-        <v>282.425</v>
+        <v>273.233</v>
       </c>
     </row>
     <row r="5">
@@ -3922,10 +3922,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.492893934249878</v>
+        <v>1.520815849304199</v>
       </c>
       <c r="D5" t="n">
-        <v>316.973</v>
+        <v>331.322</v>
       </c>
     </row>
     <row r="6">
@@ -3938,10 +3938,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8175029754638672</v>
+        <v>0.843602180480957</v>
       </c>
       <c r="D6" t="n">
-        <v>213.359</v>
+        <v>207.638</v>
       </c>
     </row>
     <row r="7">
@@ -3954,10 +3954,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8730747699737549</v>
+        <v>0.9218161106109619</v>
       </c>
       <c r="D7" t="n">
-        <v>282.432</v>
+        <v>204.873</v>
       </c>
     </row>
     <row r="8">
@@ -3970,10 +3970,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.387661933898926</v>
+        <v>1.257206916809082</v>
       </c>
       <c r="D8" t="n">
-        <v>220.823</v>
+        <v>276.909</v>
       </c>
     </row>
     <row r="9">
@@ -3986,10 +3986,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.33413028717041</v>
+        <v>1.303882837295532</v>
       </c>
       <c r="D9" t="n">
-        <v>323.736</v>
+        <v>328.949</v>
       </c>
     </row>
     <row r="10">
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8886759281158447</v>
+        <v>0.8510978221893311</v>
       </c>
       <c r="D10" t="n">
-        <v>215.314</v>
+        <v>192.101</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>1.020810604095459</v>
+        <v>0.9321179389953613</v>
       </c>
       <c r="D11" t="n">
-        <v>259.349</v>
+        <v>205.331</v>
       </c>
     </row>
     <row r="12">
@@ -4034,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.343490123748779</v>
+        <v>1.478383779525757</v>
       </c>
       <c r="D12" t="n">
-        <v>217.147</v>
+        <v>222.778</v>
       </c>
     </row>
     <row r="13">
@@ -4050,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.366848945617676</v>
+        <v>1.380198001861572</v>
       </c>
       <c r="D13" t="n">
-        <v>325.691</v>
+        <v>334.883</v>
       </c>
     </row>
     <row r="14">
@@ -4066,10 +4066,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9045770168304443</v>
+        <v>0.8196487426757812</v>
       </c>
       <c r="D14" t="n">
-        <v>367.896</v>
+        <v>343.346</v>
       </c>
     </row>
     <row r="15">
@@ -4082,10 +4082,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8350212574005127</v>
+        <v>0.8664140701293945</v>
       </c>
       <c r="D15" t="n">
-        <v>1114.126</v>
+        <v>773.163</v>
       </c>
     </row>
     <row r="16">
@@ -4098,10 +4098,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.401787281036377</v>
+        <v>1.330156087875366</v>
       </c>
       <c r="D16" t="n">
-        <v>284.702</v>
+        <v>191.684</v>
       </c>
     </row>
     <row r="17">
@@ -4114,10 +4114,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.472012996673584</v>
+        <v>1.665534973144531</v>
       </c>
       <c r="D17" t="n">
-        <v>1032.595</v>
+        <v>829.131</v>
       </c>
     </row>
     <row r="18">
@@ -4130,10 +4130,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8651678562164307</v>
+        <v>0.8381619453430176</v>
       </c>
       <c r="D18" t="n">
-        <v>365.941</v>
+        <v>339.476</v>
       </c>
     </row>
     <row r="19">
@@ -4146,10 +4146,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8984549045562744</v>
+        <v>0.9103231430053711</v>
       </c>
       <c r="D19" t="n">
-        <v>1117.802</v>
+        <v>770.79</v>
       </c>
     </row>
     <row r="20">
@@ -4162,10 +4162,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.412909030914307</v>
+        <v>1.434302091598511</v>
       </c>
       <c r="D20" t="n">
-        <v>258.788</v>
+        <v>245.815</v>
       </c>
     </row>
     <row r="21">
@@ -4178,10 +4178,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.534811019897461</v>
+        <v>1.556633949279785</v>
       </c>
       <c r="D21" t="n">
-        <v>1038.436</v>
+        <v>829.341</v>
       </c>
     </row>
     <row r="22">
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9444868564605713</v>
+        <v>0.8889000415802002</v>
       </c>
       <c r="D22" t="n">
-        <v>367.896</v>
+        <v>348.559</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8891420364379883</v>
+        <v>0.8270940780639648</v>
       </c>
       <c r="D23" t="n">
-        <v>1119.757</v>
+        <v>767.114</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.294885873794556</v>
+        <v>1.279741048812866</v>
       </c>
       <c r="D24" t="n">
-        <v>279.071</v>
+        <v>191.684</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.41385817527771</v>
+        <v>1.491453886032104</v>
       </c>
       <c r="D25" t="n">
-        <v>1032.595</v>
+        <v>621.683</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +4299,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8297731876373291</v>
+        <v>0.8465609550476074</v>
       </c>
       <c r="D2" t="n">
-        <v>238.855</v>
+        <v>209.593</v>
       </c>
     </row>
     <row r="3">
@@ -4315,10 +4315,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9358079433441162</v>
+        <v>0.9137279987335205</v>
       </c>
       <c r="D3" t="n">
-        <v>278.756</v>
+        <v>235.582</v>
       </c>
     </row>
     <row r="4">
@@ -4331,10 +4331,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.401916980743408</v>
+        <v>1.374283790588379</v>
       </c>
       <c r="D4" t="n">
-        <v>273.233</v>
+        <v>287.638</v>
       </c>
     </row>
     <row r="5">
@@ -4347,10 +4347,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.38843822479248</v>
+        <v>1.343024969100952</v>
       </c>
       <c r="D5" t="n">
-        <v>340.514</v>
+        <v>307.363</v>
       </c>
     </row>
     <row r="6">
@@ -4363,10 +4363,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8745589256286621</v>
+        <v>0.9926447868347168</v>
       </c>
       <c r="D6" t="n">
-        <v>242.531</v>
+        <v>206.141</v>
       </c>
     </row>
     <row r="7">
@@ -4379,10 +4379,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8749568462371826</v>
+        <v>0.8172740936279297</v>
       </c>
       <c r="D7" t="n">
-        <v>276.801</v>
+        <v>233.627</v>
       </c>
     </row>
     <row r="8">
@@ -4395,10 +4395,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.312852144241333</v>
+        <v>1.417052030563354</v>
       </c>
       <c r="D8" t="n">
-        <v>271.278</v>
+        <v>271.384</v>
       </c>
     </row>
     <row r="9">
@@ -4411,10 +4411,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.510134935379028</v>
+        <v>1.509614229202271</v>
       </c>
       <c r="D9" t="n">
-        <v>329.367</v>
+        <v>323.424</v>
       </c>
     </row>
     <row r="10">
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8278028964996338</v>
+        <v>0.9399080276489258</v>
       </c>
       <c r="D10" t="n">
-        <v>238.437</v>
+        <v>215.224</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8616061210632324</v>
+        <v>0.9138278961181641</v>
       </c>
       <c r="D11" t="n">
-        <v>260.846</v>
+        <v>229.951</v>
       </c>
     </row>
     <row r="12">
@@ -4459,10 +4459,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.436720848083496</v>
+        <v>1.437403917312622</v>
       </c>
       <c r="D12" t="n">
-        <v>278.864</v>
+        <v>272.815</v>
       </c>
     </row>
     <row r="13">
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.338147640228271</v>
+        <v>1.483506917953491</v>
       </c>
       <c r="D13" t="n">
-        <v>302.15</v>
+        <v>246.064</v>
       </c>
     </row>
     <row r="14">
@@ -4491,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9357209205627441</v>
+        <v>0.8582298755645752</v>
       </c>
       <c r="D14" t="n">
-        <v>366.399</v>
+        <v>348.559</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.815079927444458</v>
+        <v>1.081228017807007</v>
       </c>
       <c r="D15" t="n">
-        <v>1096.216</v>
+        <v>771.248</v>
       </c>
     </row>
     <row r="16">
@@ -4523,10 +4523,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.360388040542603</v>
+        <v>1.387707710266113</v>
       </c>
       <c r="D16" t="n">
-        <v>199.444</v>
+        <v>224.229</v>
       </c>
     </row>
     <row r="17">
@@ -4539,10 +4539,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.445279121398926</v>
+        <v>1.459984302520752</v>
       </c>
       <c r="D17" t="n">
-        <v>1040.391</v>
+        <v>829.131</v>
       </c>
     </row>
     <row r="18">
@@ -4555,10 +4555,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8784909248352051</v>
+        <v>0.917564868927002</v>
       </c>
       <c r="D18" t="n">
-        <v>342.506</v>
+        <v>347.022</v>
       </c>
     </row>
     <row r="19">
@@ -4571,10 +4571,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9129688739776611</v>
+        <v>0.8409402370452881</v>
       </c>
       <c r="D19" t="n">
-        <v>1112.171</v>
+        <v>771.208</v>
       </c>
     </row>
     <row r="20">
@@ -4587,10 +4587,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.367076873779297</v>
+        <v>1.361937761306763</v>
       </c>
       <c r="D20" t="n">
-        <v>277.116</v>
+        <v>190.147</v>
       </c>
     </row>
     <row r="21">
@@ -4603,10 +4603,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.537825107574463</v>
+        <v>1.455708026885986</v>
       </c>
       <c r="D21" t="n">
-        <v>1036.271</v>
+        <v>681.4450000000001</v>
       </c>
     </row>
     <row r="22">
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8434863090515137</v>
+        <v>0.8628530502319336</v>
       </c>
       <c r="D22" t="n">
-        <v>367.896</v>
+        <v>343.346</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8208391666412354</v>
+        <v>0.9331529140472412</v>
       </c>
       <c r="D23" t="n">
-        <v>1095.798</v>
+        <v>749.622</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.349101066589355</v>
+        <v>1.393226861953735</v>
       </c>
       <c r="D24" t="n">
-        <v>222.985</v>
+        <v>248.188</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.504568815231323</v>
+        <v>1.579249858856201</v>
       </c>
       <c r="D25" t="n">
-        <v>1009.054</v>
+        <v>772.627</v>
       </c>
     </row>
   </sheetData>
